--- a/REGULAR/OJT/NEW DONE/GUAÑEZO, MARY ANNE.xlsx
+++ b/REGULAR/OJT/NEW DONE/GUAÑEZO, MARY ANNE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3591F0A1-A74F-4284-AF99-49EC2D25AE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F089CF-FF6E-44D0-9A45-3FEE780AE34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="255">
   <si>
     <t>PERIOD</t>
   </si>
@@ -807,6 +807,9 @@
   <si>
     <t>PERMANENT</t>
   </si>
+  <si>
+    <t>7/5,6,7/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -818,7 +821,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,6 +856,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1042,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,6 +1198,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1220,7 +1234,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1500,7 +1517,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K360" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K474" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICVLARS" dataDxfId="9"/>
@@ -1572,7 +1589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1624,7 +1641,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1829,12 +1846,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K360"/>
+  <dimension ref="A2:K474"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1896" topLeftCell="A340" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1896" topLeftCell="A351" activePane="bottomLeft"/>
       <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="E361" sqref="E361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,62 +1873,62 @@
       <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="27" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="24"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="25" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="25"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="25" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
@@ -1937,18 +1954,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1995,7 +2012,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="12">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>137.72900000000004</v>
+        <v>134.72900000000004</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="str">
@@ -2034,7 +2051,7 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="D11" s="37"/>
-      <c r="E11" s="12">
+      <c r="E11" s="63">
         <f>SUM(Table1[[#This Row],[EARNED]])</f>
         <v>0.54200000000000004</v>
       </c>
@@ -2043,7 +2060,7 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="12">
+      <c r="I11" s="63">
         <f>SUM(Table1[[#This Row],[EARNED ]])</f>
         <v>0.54200000000000004</v>
       </c>
@@ -2060,7 +2077,7 @@
         <v>1.25</v>
       </c>
       <c r="D12" s="37"/>
-      <c r="E12" s="12">
+      <c r="E12" s="63">
         <f>SUM(C12,E11)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>1.792</v>
       </c>
@@ -2070,7 +2087,7 @@
         <v>1.25</v>
       </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="12">
+      <c r="I12" s="63">
         <f>SUM(G12,I11)-H12</f>
         <v>1.792</v>
       </c>
@@ -2087,7 +2104,7 @@
         <v>1.25</v>
       </c>
       <c r="D13" s="37"/>
-      <c r="E13" s="12">
+      <c r="E13" s="63">
         <f>SUM(C13,E12)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>3.0419999999999998</v>
       </c>
@@ -2097,7 +2114,7 @@
         <v>1.25</v>
       </c>
       <c r="H13" s="37"/>
-      <c r="I13" s="12">
+      <c r="I13" s="63">
         <f t="shared" ref="I13:I76" si="1">SUM(G13,I12)-H13</f>
         <v>3.0419999999999998</v>
       </c>
@@ -2118,7 +2135,7 @@
       <c r="D14" s="37">
         <v>5.1189999999999998</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="63">
         <f>SUM(C14,E13)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>-0.82699999999999996</v>
       </c>
@@ -2128,7 +2145,7 @@
         <v>1.25</v>
       </c>
       <c r="H14" s="37"/>
-      <c r="I14" s="12">
+      <c r="I14" s="63">
         <f t="shared" si="1"/>
         <v>4.2919999999999998</v>
       </c>
@@ -2149,7 +2166,7 @@
       <c r="D15" s="37">
         <v>4.2750000000000004</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="63">
         <f>SUM(C15,E14)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>-3.8520000000000003</v>
       </c>
@@ -2159,7 +2176,7 @@
         <v>1.25</v>
       </c>
       <c r="H15" s="37"/>
-      <c r="I15" s="12">
+      <c r="I15" s="63">
         <f t="shared" si="1"/>
         <v>5.5419999999999998</v>
       </c>
@@ -2173,7 +2190,7 @@
       <c r="B16" s="19"/>
       <c r="C16" s="12"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="12">
+      <c r="E16" s="63">
         <f>SUM(C16,E15)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>-3.8520000000000003</v>
       </c>
@@ -2183,7 +2200,7 @@
         <v/>
       </c>
       <c r="H16" s="37"/>
-      <c r="I16" s="12">
+      <c r="I16" s="63">
         <f t="shared" si="1"/>
         <v>5.5419999999999998</v>
       </c>
@@ -2203,7 +2220,7 @@
       <c r="D17" s="37">
         <v>1.179</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="63">
         <f>SUM(C17,E16)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>-3.7810000000000006</v>
       </c>
@@ -2213,7 +2230,7 @@
         <v>1.25</v>
       </c>
       <c r="H17" s="37"/>
-      <c r="I17" s="12">
+      <c r="I17" s="63">
         <f t="shared" si="1"/>
         <v>6.7919999999999998</v>
       </c>
@@ -2234,7 +2251,7 @@
       <c r="D18" s="37">
         <v>4.2309999999999999</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="63">
         <f>SUM(C18,E17)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>-6.7620000000000005</v>
       </c>
@@ -2244,7 +2261,7 @@
         <v>1.25</v>
       </c>
       <c r="H18" s="37"/>
-      <c r="I18" s="12">
+      <c r="I18" s="63">
         <f t="shared" si="1"/>
         <v>8.0419999999999998</v>
       </c>
@@ -2265,7 +2282,7 @@
       <c r="D19" s="37">
         <v>0.38300000000000001</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="63">
         <f>SUM(C19,E18)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>-5.8950000000000005</v>
       </c>
@@ -2275,7 +2292,7 @@
         <v>1.25</v>
       </c>
       <c r="H19" s="37"/>
-      <c r="I19" s="12">
+      <c r="I19" s="63">
         <f t="shared" si="1"/>
         <v>9.2919999999999998</v>
       </c>
@@ -2296,7 +2313,7 @@
       <c r="D20" s="37">
         <v>0.15400000000000003</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="63">
         <f>SUM(C20,E19)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>-4.7990000000000004</v>
       </c>
@@ -2306,7 +2323,7 @@
         <v>1.25</v>
       </c>
       <c r="H20" s="37"/>
-      <c r="I20" s="12">
+      <c r="I20" s="63">
         <f t="shared" si="1"/>
         <v>10.542</v>
       </c>
@@ -2327,7 +2344,7 @@
       <c r="D21" s="37">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="63">
         <f>SUM(C21,E20)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>-4.6590000000000007</v>
       </c>
@@ -2337,7 +2354,7 @@
         <v>1.25</v>
       </c>
       <c r="H21" s="37"/>
-      <c r="I21" s="12">
+      <c r="I21" s="63">
         <f t="shared" si="1"/>
         <v>11.792</v>
       </c>
@@ -2354,7 +2371,7 @@
         <v>1.25</v>
       </c>
       <c r="D22" s="37"/>
-      <c r="E22" s="12">
+      <c r="E22" s="63">
         <f>SUM(C22,E21)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>-3.4090000000000007</v>
       </c>
@@ -2364,7 +2381,7 @@
         <v>1.25</v>
       </c>
       <c r="H22" s="37"/>
-      <c r="I22" s="12">
+      <c r="I22" s="63">
         <f t="shared" si="1"/>
         <v>13.042</v>
       </c>
@@ -2381,7 +2398,7 @@
         <v>1.25</v>
       </c>
       <c r="D23" s="37"/>
-      <c r="E23" s="12">
+      <c r="E23" s="63">
         <f>SUM(C23,E22)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>-2.1590000000000007</v>
       </c>
@@ -2391,7 +2408,7 @@
         <v>1.25</v>
       </c>
       <c r="H23" s="37"/>
-      <c r="I23" s="12">
+      <c r="I23" s="63">
         <f t="shared" si="1"/>
         <v>14.292</v>
       </c>
@@ -2408,7 +2425,7 @@
         <v>1.25</v>
       </c>
       <c r="D24" s="37"/>
-      <c r="E24" s="12">
+      <c r="E24" s="63">
         <f>SUM(C24,E23)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>-0.9090000000000007</v>
       </c>
@@ -2418,7 +2435,7 @@
         <v>1.25</v>
       </c>
       <c r="H24" s="37"/>
-      <c r="I24" s="12">
+      <c r="I24" s="63">
         <f t="shared" si="1"/>
         <v>15.542</v>
       </c>
@@ -2435,7 +2452,7 @@
         <v>1.25</v>
       </c>
       <c r="D25" s="37"/>
-      <c r="E25" s="12">
+      <c r="E25" s="63">
         <f>SUM(C25,E24)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>0.3409999999999993</v>
       </c>
@@ -2445,7 +2462,7 @@
         <v>1.25</v>
       </c>
       <c r="H25" s="37"/>
-      <c r="I25" s="12">
+      <c r="I25" s="63">
         <f t="shared" si="1"/>
         <v>16.792000000000002</v>
       </c>
@@ -2462,7 +2479,7 @@
         <v>1.25</v>
       </c>
       <c r="D26" s="37"/>
-      <c r="E26" s="12">
+      <c r="E26" s="63">
         <f>SUM(C26,E25)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>1.5909999999999993</v>
       </c>
@@ -2472,7 +2489,7 @@
         <v>1.25</v>
       </c>
       <c r="H26" s="37"/>
-      <c r="I26" s="12">
+      <c r="I26" s="63">
         <f t="shared" si="1"/>
         <v>18.042000000000002</v>
       </c>
@@ -2489,7 +2506,7 @@
         <v>1.25</v>
       </c>
       <c r="D27" s="37"/>
-      <c r="E27" s="12">
+      <c r="E27" s="63">
         <f>SUM(C27,E26)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>2.8409999999999993</v>
       </c>
@@ -2499,7 +2516,7 @@
         <v>1.25</v>
       </c>
       <c r="H27" s="37"/>
-      <c r="I27" s="12">
+      <c r="I27" s="63">
         <f t="shared" si="1"/>
         <v>19.292000000000002</v>
       </c>
@@ -2516,7 +2533,7 @@
         <v>1.25</v>
       </c>
       <c r="D28" s="37"/>
-      <c r="E28" s="12">
+      <c r="E28" s="63">
         <f>SUM(C28,E27)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>4.0909999999999993</v>
       </c>
@@ -2526,7 +2543,7 @@
         <v>1.25</v>
       </c>
       <c r="H28" s="37"/>
-      <c r="I28" s="12">
+      <c r="I28" s="63">
         <f t="shared" si="1"/>
         <v>20.542000000000002</v>
       </c>
@@ -2540,7 +2557,7 @@
       <c r="B29" s="19"/>
       <c r="C29" s="12"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="12">
+      <c r="E29" s="63">
         <f>SUM(C29,E28)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>4.0909999999999993</v>
       </c>
@@ -2550,7 +2567,7 @@
         <v/>
       </c>
       <c r="H29" s="37"/>
-      <c r="I29" s="12">
+      <c r="I29" s="63">
         <f t="shared" si="1"/>
         <v>20.542000000000002</v>
       </c>
@@ -2570,7 +2587,7 @@
       <c r="D30" s="37">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="63">
         <f>SUM(C30,E29)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>5.2739999999999991</v>
       </c>
@@ -2580,7 +2597,7 @@
         <v>1.25</v>
       </c>
       <c r="H30" s="37"/>
-      <c r="I30" s="12">
+      <c r="I30" s="63">
         <f t="shared" si="1"/>
         <v>21.792000000000002</v>
       </c>
@@ -2601,7 +2618,7 @@
       <c r="D31" s="37">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="63">
         <f>SUM(C31,E30)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>6.3619999999999992</v>
       </c>
@@ -2611,7 +2628,7 @@
         <v>1.25</v>
       </c>
       <c r="H31" s="37"/>
-      <c r="I31" s="12">
+      <c r="I31" s="63">
         <f t="shared" si="1"/>
         <v>23.042000000000002</v>
       </c>
@@ -2632,7 +2649,7 @@
       <c r="D32" s="37">
         <v>0.19800000000000001</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="63">
         <f>SUM(C32,E31)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>7.4139999999999988</v>
       </c>
@@ -2642,7 +2659,7 @@
         <v>1.25</v>
       </c>
       <c r="H32" s="37"/>
-      <c r="I32" s="12">
+      <c r="I32" s="63">
         <f t="shared" si="1"/>
         <v>24.292000000000002</v>
       </c>
@@ -2663,7 +2680,7 @@
       <c r="D33" s="37">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="63">
         <f>SUM(C33,E32)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>8.4929999999999986</v>
       </c>
@@ -2673,7 +2690,7 @@
         <v>1.25</v>
       </c>
       <c r="H33" s="37"/>
-      <c r="I33" s="12">
+      <c r="I33" s="63">
         <f t="shared" si="1"/>
         <v>25.542000000000002</v>
       </c>
@@ -2690,7 +2707,7 @@
         <v>1.25</v>
       </c>
       <c r="D34" s="37"/>
-      <c r="E34" s="12">
+      <c r="E34" s="63">
         <f>SUM(C34,E33)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>9.7429999999999986</v>
       </c>
@@ -2700,7 +2717,7 @@
         <v>1.25</v>
       </c>
       <c r="H34" s="37"/>
-      <c r="I34" s="12">
+      <c r="I34" s="63">
         <f t="shared" si="1"/>
         <v>26.792000000000002</v>
       </c>
@@ -2717,7 +2734,7 @@
         <v>1.25</v>
       </c>
       <c r="D35" s="37"/>
-      <c r="E35" s="12">
+      <c r="E35" s="63">
         <f>SUM(C35,E34)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>10.992999999999999</v>
       </c>
@@ -2727,7 +2744,7 @@
         <v>1.25</v>
       </c>
       <c r="H35" s="37"/>
-      <c r="I35" s="12">
+      <c r="I35" s="63">
         <f t="shared" si="1"/>
         <v>28.042000000000002</v>
       </c>
@@ -2744,7 +2761,7 @@
         <v>1.25</v>
       </c>
       <c r="D36" s="37"/>
-      <c r="E36" s="12">
+      <c r="E36" s="63">
         <f>SUM(C36,E35)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>12.242999999999999</v>
       </c>
@@ -2754,7 +2771,7 @@
         <v>1.25</v>
       </c>
       <c r="H36" s="37"/>
-      <c r="I36" s="12">
+      <c r="I36" s="63">
         <f t="shared" si="1"/>
         <v>29.292000000000002</v>
       </c>
@@ -2771,7 +2788,7 @@
         <v>1.25</v>
       </c>
       <c r="D37" s="37"/>
-      <c r="E37" s="12">
+      <c r="E37" s="63">
         <f>SUM(C37,E36)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>13.492999999999999</v>
       </c>
@@ -2781,7 +2798,7 @@
         <v>1.25</v>
       </c>
       <c r="H37" s="37"/>
-      <c r="I37" s="12">
+      <c r="I37" s="63">
         <f t="shared" si="1"/>
         <v>30.542000000000002</v>
       </c>
@@ -2798,7 +2815,7 @@
         <v>1.25</v>
       </c>
       <c r="D38" s="37"/>
-      <c r="E38" s="12">
+      <c r="E38" s="63">
         <f>SUM(C38,E37)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>14.742999999999999</v>
       </c>
@@ -2808,7 +2825,7 @@
         <v>1.25</v>
       </c>
       <c r="H38" s="37"/>
-      <c r="I38" s="12">
+      <c r="I38" s="63">
         <f t="shared" si="1"/>
         <v>31.792000000000002</v>
       </c>
@@ -2825,7 +2842,7 @@
         <v>1.25</v>
       </c>
       <c r="D39" s="37"/>
-      <c r="E39" s="12">
+      <c r="E39" s="63">
         <f>SUM(C39,E38)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>15.992999999999999</v>
       </c>
@@ -2835,7 +2852,7 @@
         <v>1.25</v>
       </c>
       <c r="H39" s="37"/>
-      <c r="I39" s="12">
+      <c r="I39" s="63">
         <f t="shared" si="1"/>
         <v>33.042000000000002</v>
       </c>
@@ -2852,7 +2869,7 @@
         <v>1.25</v>
       </c>
       <c r="D40" s="37"/>
-      <c r="E40" s="12">
+      <c r="E40" s="63">
         <f>SUM(C40,E39)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>17.242999999999999</v>
       </c>
@@ -2862,7 +2879,7 @@
         <v>1.25</v>
       </c>
       <c r="H40" s="37"/>
-      <c r="I40" s="12">
+      <c r="I40" s="63">
         <f t="shared" si="1"/>
         <v>34.292000000000002</v>
       </c>
@@ -2879,7 +2896,7 @@
         <v>1.25</v>
       </c>
       <c r="D41" s="37"/>
-      <c r="E41" s="12">
+      <c r="E41" s="63">
         <f>SUM(C41,E40)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>18.492999999999999</v>
       </c>
@@ -2889,7 +2906,7 @@
         <v>1.25</v>
       </c>
       <c r="H41" s="37"/>
-      <c r="I41" s="12">
+      <c r="I41" s="63">
         <f t="shared" si="1"/>
         <v>35.542000000000002</v>
       </c>
@@ -2903,7 +2920,7 @@
       <c r="B42" s="19"/>
       <c r="C42" s="12"/>
       <c r="D42" s="37"/>
-      <c r="E42" s="12">
+      <c r="E42" s="63">
         <f>SUM(C42,E41)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>18.492999999999999</v>
       </c>
@@ -2913,7 +2930,7 @@
         <v/>
       </c>
       <c r="H42" s="37"/>
-      <c r="I42" s="12">
+      <c r="I42" s="63">
         <f t="shared" si="1"/>
         <v>35.542000000000002</v>
       </c>
@@ -2933,7 +2950,7 @@
       <c r="D43" s="37">
         <v>0.58699999999999997</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="63">
         <f>SUM(C43,E42)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>19.155999999999999</v>
       </c>
@@ -2943,7 +2960,7 @@
         <v>1.25</v>
       </c>
       <c r="H43" s="37"/>
-      <c r="I43" s="12">
+      <c r="I43" s="63">
         <f t="shared" si="1"/>
         <v>36.792000000000002</v>
       </c>
@@ -2964,7 +2981,7 @@
       <c r="D44" s="37">
         <v>0.61199999999999999</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="63">
         <f>SUM(C44,E43)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>19.794</v>
       </c>
@@ -2974,7 +2991,7 @@
         <v>1.25</v>
       </c>
       <c r="H44" s="37"/>
-      <c r="I44" s="12">
+      <c r="I44" s="63">
         <f t="shared" si="1"/>
         <v>38.042000000000002</v>
       </c>
@@ -2995,7 +3012,7 @@
       <c r="D45" s="37">
         <v>1</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="63">
         <f>SUM(C45,E44)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>20.044</v>
       </c>
@@ -3005,7 +3022,7 @@
         <v>1.25</v>
       </c>
       <c r="H45" s="37"/>
-      <c r="I45" s="12">
+      <c r="I45" s="63">
         <f t="shared" si="1"/>
         <v>39.292000000000002</v>
       </c>
@@ -3024,7 +3041,7 @@
         <v>1.25</v>
       </c>
       <c r="D46" s="37"/>
-      <c r="E46" s="12">
+      <c r="E46" s="63">
         <f>SUM(C46,E45)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>21.294</v>
       </c>
@@ -3034,7 +3051,7 @@
         <v>1.25</v>
       </c>
       <c r="H46" s="37"/>
-      <c r="I46" s="12">
+      <c r="I46" s="63">
         <f t="shared" si="1"/>
         <v>40.542000000000002</v>
       </c>
@@ -3053,7 +3070,7 @@
         <v>1.25</v>
       </c>
       <c r="D47" s="37"/>
-      <c r="E47" s="12">
+      <c r="E47" s="63">
         <f>SUM(C47,E46)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>22.544</v>
       </c>
@@ -3065,7 +3082,7 @@
       <c r="H47" s="37">
         <v>1</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="63">
         <f t="shared" si="1"/>
         <v>40.792000000000002</v>
       </c>
@@ -3084,7 +3101,7 @@
         <v>1.25</v>
       </c>
       <c r="D48" s="37"/>
-      <c r="E48" s="12">
+      <c r="E48" s="63">
         <f>SUM(C48,E47)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>23.794</v>
       </c>
@@ -3094,7 +3111,7 @@
         <v>1.25</v>
       </c>
       <c r="H48" s="37"/>
-      <c r="I48" s="12">
+      <c r="I48" s="63">
         <f t="shared" si="1"/>
         <v>42.042000000000002</v>
       </c>
@@ -3111,7 +3128,7 @@
         <v>1.25</v>
       </c>
       <c r="D49" s="37"/>
-      <c r="E49" s="12">
+      <c r="E49" s="63">
         <f>SUM(C49,E48)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>25.044</v>
       </c>
@@ -3121,7 +3138,7 @@
         <v>1.25</v>
       </c>
       <c r="H49" s="37"/>
-      <c r="I49" s="12">
+      <c r="I49" s="63">
         <f t="shared" si="1"/>
         <v>43.292000000000002</v>
       </c>
@@ -3142,7 +3159,7 @@
       <c r="D50" s="37">
         <v>0.5</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="63">
         <f>SUM(C50,E49)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>25.794</v>
       </c>
@@ -3152,7 +3169,7 @@
         <v>1.25</v>
       </c>
       <c r="H50" s="37"/>
-      <c r="I50" s="12">
+      <c r="I50" s="63">
         <f t="shared" si="1"/>
         <v>44.542000000000002</v>
       </c>
@@ -3173,7 +3190,7 @@
       <c r="D51" s="37">
         <v>1.125</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="63">
         <f>SUM(C51,E50)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>25.919</v>
       </c>
@@ -3183,7 +3200,7 @@
         <v>1.25</v>
       </c>
       <c r="H51" s="37"/>
-      <c r="I51" s="12">
+      <c r="I51" s="63">
         <f t="shared" si="1"/>
         <v>45.792000000000002</v>
       </c>
@@ -3204,7 +3221,7 @@
       <c r="D52" s="37">
         <v>2</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="63">
         <f>SUM(C52,E51)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>25.169</v>
       </c>
@@ -3214,7 +3231,7 @@
         <v>1.25</v>
       </c>
       <c r="H52" s="37"/>
-      <c r="I52" s="12">
+      <c r="I52" s="63">
         <f t="shared" si="1"/>
         <v>47.042000000000002</v>
       </c>
@@ -3232,14 +3249,14 @@
       <c r="D53" s="37">
         <v>0.52100000000000002</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="63">
         <f>SUM(C53,E52)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>24.648</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="12"/>
       <c r="H53" s="37"/>
-      <c r="I53" s="12">
+      <c r="I53" s="63">
         <f t="shared" si="1"/>
         <v>47.042000000000002</v>
       </c>
@@ -3256,7 +3273,7 @@
         <v>1.25</v>
       </c>
       <c r="D54" s="37"/>
-      <c r="E54" s="12">
+      <c r="E54" s="63">
         <f>SUM(C54,E53)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>25.898</v>
       </c>
@@ -3266,7 +3283,7 @@
         <v>1.25</v>
       </c>
       <c r="H54" s="37"/>
-      <c r="I54" s="12">
+      <c r="I54" s="63">
         <f t="shared" si="1"/>
         <v>48.292000000000002</v>
       </c>
@@ -3287,7 +3304,7 @@
       <c r="D55" s="37">
         <v>1</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="63">
         <f>SUM(C55,E54)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>26.148</v>
       </c>
@@ -3297,7 +3314,7 @@
         <v>1.25</v>
       </c>
       <c r="H55" s="37"/>
-      <c r="I55" s="12">
+      <c r="I55" s="63">
         <f t="shared" si="1"/>
         <v>49.542000000000002</v>
       </c>
@@ -3311,7 +3328,7 @@
       <c r="B56" s="19"/>
       <c r="C56" s="12"/>
       <c r="D56" s="37"/>
-      <c r="E56" s="12">
+      <c r="E56" s="63">
         <f>SUM(C56,E55)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>26.148</v>
       </c>
@@ -3321,7 +3338,7 @@
         <v/>
       </c>
       <c r="H56" s="37"/>
-      <c r="I56" s="12">
+      <c r="I56" s="63">
         <f t="shared" si="1"/>
         <v>49.542000000000002</v>
       </c>
@@ -3339,7 +3356,7 @@
         <v>1.25</v>
       </c>
       <c r="D57" s="37"/>
-      <c r="E57" s="12">
+      <c r="E57" s="63">
         <f>SUM(C57,E56)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>27.398</v>
       </c>
@@ -3351,7 +3368,7 @@
       <c r="H57" s="37">
         <v>5</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="63">
         <f t="shared" si="1"/>
         <v>45.792000000000002</v>
       </c>
@@ -3369,7 +3386,7 @@
       <c r="D58" s="37">
         <v>0.3</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="63">
         <f>SUM(C58,E57)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>27.097999999999999</v>
       </c>
@@ -3379,7 +3396,7 @@
         <v/>
       </c>
       <c r="H58" s="37"/>
-      <c r="I58" s="12">
+      <c r="I58" s="63">
         <f t="shared" si="1"/>
         <v>45.792000000000002</v>
       </c>
@@ -3400,7 +3417,7 @@
       <c r="D59" s="37">
         <v>3</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="63">
         <f>SUM(C59,E58)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>25.347999999999999</v>
       </c>
@@ -3410,7 +3427,7 @@
         <v>1.25</v>
       </c>
       <c r="H59" s="37"/>
-      <c r="I59" s="12">
+      <c r="I59" s="63">
         <f t="shared" si="1"/>
         <v>47.042000000000002</v>
       </c>
@@ -3428,7 +3445,7 @@
       <c r="D60" s="37">
         <v>0.34599999999999997</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="63">
         <f>SUM(C60,E59)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>25.001999999999999</v>
       </c>
@@ -3438,7 +3455,7 @@
         <v/>
       </c>
       <c r="H60" s="37"/>
-      <c r="I60" s="12">
+      <c r="I60" s="63">
         <f t="shared" si="1"/>
         <v>47.042000000000002</v>
       </c>
@@ -3457,7 +3474,7 @@
         <v>1.25</v>
       </c>
       <c r="D61" s="37"/>
-      <c r="E61" s="12">
+      <c r="E61" s="63">
         <f>SUM(C61,E60)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>26.251999999999999</v>
       </c>
@@ -3469,7 +3486,7 @@
       <c r="H61" s="37">
         <v>1</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I61" s="63">
         <f t="shared" si="1"/>
         <v>47.292000000000002</v>
       </c>
@@ -3487,7 +3504,7 @@
       <c r="D62" s="37">
         <v>0.29199999999999998</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="63">
         <f>SUM(C62,E61)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>25.959999999999997</v>
       </c>
@@ -3497,7 +3514,7 @@
         <v/>
       </c>
       <c r="H62" s="37"/>
-      <c r="I62" s="12">
+      <c r="I62" s="63">
         <f t="shared" si="1"/>
         <v>47.292000000000002</v>
       </c>
@@ -3518,7 +3535,7 @@
       <c r="D63" s="37">
         <v>0.33100000000000002</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="63">
         <f>SUM(C63,E62)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>26.878999999999998</v>
       </c>
@@ -3528,7 +3545,7 @@
         <v>1.25</v>
       </c>
       <c r="H63" s="37"/>
-      <c r="I63" s="12">
+      <c r="I63" s="63">
         <f t="shared" si="1"/>
         <v>48.542000000000002</v>
       </c>
@@ -3549,7 +3566,7 @@
       <c r="D64" s="37">
         <v>0.83699999999999997</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="63">
         <f>SUM(C64,E63)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>27.291999999999998</v>
       </c>
@@ -3559,7 +3576,7 @@
         <v>1.25</v>
       </c>
       <c r="H64" s="37"/>
-      <c r="I64" s="12">
+      <c r="I64" s="63">
         <f t="shared" si="1"/>
         <v>49.792000000000002</v>
       </c>
@@ -3580,7 +3597,7 @@
       <c r="D65" s="37">
         <v>0.93100000000000005</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="63">
         <f>SUM(C65,E64)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>27.610999999999997</v>
       </c>
@@ -3590,7 +3607,7 @@
         <v>1.25</v>
       </c>
       <c r="H65" s="37"/>
-      <c r="I65" s="12">
+      <c r="I65" s="63">
         <f t="shared" si="1"/>
         <v>51.042000000000002</v>
       </c>
@@ -3609,7 +3626,7 @@
         <v>1.25</v>
       </c>
       <c r="D66" s="37"/>
-      <c r="E66" s="12">
+      <c r="E66" s="63">
         <f>SUM(C66,E65)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>28.860999999999997</v>
       </c>
@@ -3621,7 +3638,7 @@
       <c r="H66" s="37">
         <v>1</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="63">
         <f t="shared" si="1"/>
         <v>51.292000000000002</v>
       </c>
@@ -3644,7 +3661,7 @@
       <c r="D67" s="37">
         <v>0.55600000000000005</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="63">
         <f>SUM(C67,E66)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>29.554999999999996</v>
       </c>
@@ -3654,7 +3671,7 @@
         <v>1.25</v>
       </c>
       <c r="H67" s="37"/>
-      <c r="I67" s="12">
+      <c r="I67" s="63">
         <f t="shared" si="1"/>
         <v>52.542000000000002</v>
       </c>
@@ -3675,7 +3692,7 @@
       <c r="D68" s="37">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="63">
         <f>SUM(C68,E67)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>30.708999999999996</v>
       </c>
@@ -3685,7 +3702,7 @@
         <v>1.25</v>
       </c>
       <c r="H68" s="37"/>
-      <c r="I68" s="12">
+      <c r="I68" s="63">
         <f t="shared" si="1"/>
         <v>53.792000000000002</v>
       </c>
@@ -3704,7 +3721,7 @@
         <v>1.25</v>
       </c>
       <c r="D69" s="37"/>
-      <c r="E69" s="12">
+      <c r="E69" s="63">
         <f>SUM(C69,E68)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>31.958999999999996</v>
       </c>
@@ -3714,7 +3731,7 @@
         <v>1.25</v>
       </c>
       <c r="H69" s="37"/>
-      <c r="I69" s="12">
+      <c r="I69" s="63">
         <f t="shared" si="1"/>
         <v>55.042000000000002</v>
       </c>
@@ -3732,14 +3749,14 @@
       <c r="D70" s="37">
         <v>2</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="63">
         <f>SUM(C70,E69)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>29.958999999999996</v>
       </c>
       <c r="F70" s="19"/>
       <c r="G70" s="12"/>
       <c r="H70" s="37"/>
-      <c r="I70" s="12">
+      <c r="I70" s="63">
         <f t="shared" si="1"/>
         <v>55.042000000000002</v>
       </c>
@@ -3757,14 +3774,14 @@
       <c r="D71" s="37">
         <v>3.7000000000000019E-2</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="63">
         <f>SUM(C71,E70)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>29.921999999999997</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="12"/>
       <c r="H71" s="37"/>
-      <c r="I71" s="12">
+      <c r="I71" s="63">
         <f t="shared" si="1"/>
         <v>55.042000000000002</v>
       </c>
@@ -3785,7 +3802,7 @@
       <c r="D72" s="37">
         <v>0.187</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="63">
         <f>SUM(C72,E71)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>30.984999999999996</v>
       </c>
@@ -3795,7 +3812,7 @@
         <v>1.25</v>
       </c>
       <c r="H72" s="37"/>
-      <c r="I72" s="12">
+      <c r="I72" s="63">
         <f t="shared" si="1"/>
         <v>56.292000000000002</v>
       </c>
@@ -3816,7 +3833,7 @@
       <c r="D73" s="37">
         <v>0.49199999999999999</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="63">
         <f>SUM(C73,E72)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>31.742999999999999</v>
       </c>
@@ -3826,7 +3843,7 @@
         <v>1.25</v>
       </c>
       <c r="H73" s="37"/>
-      <c r="I73" s="12">
+      <c r="I73" s="63">
         <f t="shared" si="1"/>
         <v>57.542000000000002</v>
       </c>
@@ -3840,7 +3857,7 @@
       <c r="B74" s="19"/>
       <c r="C74" s="12"/>
       <c r="D74" s="37"/>
-      <c r="E74" s="12">
+      <c r="E74" s="63">
         <f>SUM(C74,E73)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>31.742999999999999</v>
       </c>
@@ -3850,7 +3867,7 @@
         <v/>
       </c>
       <c r="H74" s="37"/>
-      <c r="I74" s="12">
+      <c r="I74" s="63">
         <f t="shared" si="1"/>
         <v>57.542000000000002</v>
       </c>
@@ -3870,7 +3887,7 @@
       <c r="D75" s="37">
         <v>0.748</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="63">
         <f>SUM(C75,E74)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>32.244999999999997</v>
       </c>
@@ -3880,7 +3897,7 @@
         <v>1.25</v>
       </c>
       <c r="H75" s="37"/>
-      <c r="I75" s="12">
+      <c r="I75" s="63">
         <f t="shared" si="1"/>
         <v>58.792000000000002</v>
       </c>
@@ -3899,7 +3916,7 @@
         <v>1.25</v>
       </c>
       <c r="D76" s="37"/>
-      <c r="E76" s="12">
+      <c r="E76" s="63">
         <f>SUM(C76,E75)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>33.494999999999997</v>
       </c>
@@ -3911,7 +3928,7 @@
       <c r="H76" s="37">
         <v>2</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I76" s="63">
         <f t="shared" si="1"/>
         <v>58.042000000000002</v>
       </c>
@@ -3929,14 +3946,14 @@
       <c r="D77" s="37">
         <v>0.46</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="63">
         <f>SUM(C77,E76)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>33.034999999999997</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="12"/>
       <c r="H77" s="37"/>
-      <c r="I77" s="12">
+      <c r="I77" s="63">
         <f t="shared" ref="I77:I140" si="6">SUM(G77,I76)-H77</f>
         <v>58.042000000000002</v>
       </c>
@@ -3957,7 +3974,7 @@
       <c r="D78" s="37">
         <v>0.45600000000000002</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="63">
         <f>SUM(C78,E77)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>33.828999999999994</v>
       </c>
@@ -3967,7 +3984,7 @@
         <v>1.25</v>
       </c>
       <c r="H78" s="37"/>
-      <c r="I78" s="12">
+      <c r="I78" s="63">
         <f t="shared" si="6"/>
         <v>59.292000000000002</v>
       </c>
@@ -3986,7 +4003,7 @@
         <v>1.25</v>
       </c>
       <c r="D79" s="37"/>
-      <c r="E79" s="12">
+      <c r="E79" s="63">
         <f>SUM(C79,E78)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>35.078999999999994</v>
       </c>
@@ -3998,7 +4015,7 @@
       <c r="H79" s="37">
         <v>1</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I79" s="63">
         <f t="shared" si="6"/>
         <v>59.542000000000002</v>
       </c>
@@ -4016,14 +4033,14 @@
       <c r="D80" s="37">
         <v>0.129</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="63">
         <f>SUM(C80,E79)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>34.949999999999996</v>
       </c>
       <c r="F80" s="19"/>
       <c r="G80" s="12"/>
       <c r="H80" s="37"/>
-      <c r="I80" s="12">
+      <c r="I80" s="63">
         <f t="shared" si="6"/>
         <v>59.542000000000002</v>
       </c>
@@ -4042,7 +4059,7 @@
         <v>1.25</v>
       </c>
       <c r="D81" s="37"/>
-      <c r="E81" s="12">
+      <c r="E81" s="63">
         <f>SUM(C81,E80)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>36.199999999999996</v>
       </c>
@@ -4054,7 +4071,7 @@
       <c r="H81" s="37">
         <v>1</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I81" s="63">
         <f t="shared" si="6"/>
         <v>59.792000000000002</v>
       </c>
@@ -4072,14 +4089,14 @@
       <c r="D82" s="37">
         <v>0.308</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="63">
         <f>SUM(C82,E81)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>35.891999999999996</v>
       </c>
       <c r="F82" s="19"/>
       <c r="G82" s="12"/>
       <c r="H82" s="37"/>
-      <c r="I82" s="12">
+      <c r="I82" s="63">
         <f t="shared" si="6"/>
         <v>59.792000000000002</v>
       </c>
@@ -4100,7 +4117,7 @@
       <c r="D83" s="37">
         <v>0.317</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E83" s="63">
         <f>SUM(C83,E82)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>36.824999999999996</v>
       </c>
@@ -4110,7 +4127,7 @@
         <v>1.25</v>
       </c>
       <c r="H83" s="37"/>
-      <c r="I83" s="12">
+      <c r="I83" s="63">
         <f t="shared" si="6"/>
         <v>61.042000000000002</v>
       </c>
@@ -4131,7 +4148,7 @@
       <c r="D84" s="37">
         <v>7.3000000000000009E-2</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E84" s="63">
         <f>SUM(C84,E83)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>38.001999999999995</v>
       </c>
@@ -4141,7 +4158,7 @@
         <v>1.25</v>
       </c>
       <c r="H84" s="37"/>
-      <c r="I84" s="12">
+      <c r="I84" s="63">
         <f t="shared" si="6"/>
         <v>62.292000000000002</v>
       </c>
@@ -4162,7 +4179,7 @@
       <c r="D85" s="37">
         <v>0.24399999999999999</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E85" s="63">
         <f>SUM(C85,E84)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>39.007999999999996</v>
       </c>
@@ -4172,7 +4189,7 @@
         <v>1.25</v>
       </c>
       <c r="H85" s="37"/>
-      <c r="I85" s="12">
+      <c r="I85" s="63">
         <f t="shared" si="6"/>
         <v>63.542000000000002</v>
       </c>
@@ -4191,7 +4208,7 @@
         <v>1.25</v>
       </c>
       <c r="D86" s="37"/>
-      <c r="E86" s="12">
+      <c r="E86" s="63">
         <f>SUM(C86,E85)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>40.257999999999996</v>
       </c>
@@ -4203,7 +4220,7 @@
       <c r="H86" s="37">
         <v>3</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I86" s="63">
         <f t="shared" si="6"/>
         <v>61.792000000000002</v>
       </c>
@@ -4221,14 +4238,14 @@
       <c r="D87" s="37">
         <v>0.38500000000000001</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E87" s="63">
         <f>SUM(C87,E86)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>39.872999999999998</v>
       </c>
       <c r="F87" s="19"/>
       <c r="G87" s="12"/>
       <c r="H87" s="37"/>
-      <c r="I87" s="12">
+      <c r="I87" s="63">
         <f t="shared" si="6"/>
         <v>61.792000000000002</v>
       </c>
@@ -4249,7 +4266,7 @@
       <c r="D88" s="37">
         <v>1</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="63">
         <f>SUM(C88,E87)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>40.122999999999998</v>
       </c>
@@ -4259,7 +4276,7 @@
         <v>1.25</v>
       </c>
       <c r="H88" s="37"/>
-      <c r="I88" s="12">
+      <c r="I88" s="63">
         <f t="shared" si="6"/>
         <v>63.042000000000002</v>
       </c>
@@ -4275,7 +4292,7 @@
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="37"/>
-      <c r="E89" s="12">
+      <c r="E89" s="63">
         <f>SUM(C89,E88)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>40.122999999999998</v>
       </c>
@@ -4284,7 +4301,7 @@
       <c r="H89" s="37">
         <v>1</v>
       </c>
-      <c r="I89" s="12">
+      <c r="I89" s="63">
         <f t="shared" si="6"/>
         <v>62.042000000000002</v>
       </c>
@@ -4302,14 +4319,14 @@
       <c r="D90" s="37">
         <v>0.36</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E90" s="63">
         <f>SUM(C90,E89)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>39.762999999999998</v>
       </c>
       <c r="F90" s="19"/>
       <c r="G90" s="12"/>
       <c r="H90" s="37"/>
-      <c r="I90" s="12">
+      <c r="I90" s="63">
         <f t="shared" si="6"/>
         <v>62.042000000000002</v>
       </c>
@@ -4330,7 +4347,7 @@
       <c r="D91" s="37">
         <v>4</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="63">
         <f>SUM(C91,E90)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>37.012999999999998</v>
       </c>
@@ -4340,7 +4357,7 @@
         <v>1.25</v>
       </c>
       <c r="H91" s="37"/>
-      <c r="I91" s="12">
+      <c r="I91" s="63">
         <f t="shared" si="6"/>
         <v>63.292000000000002</v>
       </c>
@@ -4356,14 +4373,14 @@
       </c>
       <c r="C92" s="12"/>
       <c r="D92" s="37"/>
-      <c r="E92" s="12">
+      <c r="E92" s="63">
         <f>SUM(C92,E91)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>37.012999999999998</v>
       </c>
       <c r="F92" s="19"/>
       <c r="G92" s="12"/>
       <c r="H92" s="37"/>
-      <c r="I92" s="12">
+      <c r="I92" s="63">
         <f t="shared" si="6"/>
         <v>63.292000000000002</v>
       </c>
@@ -4381,14 +4398,14 @@
       <c r="D93" s="37">
         <v>7.7000000000000013E-2</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E93" s="63">
         <f>SUM(C93,E92)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>36.936</v>
       </c>
       <c r="F93" s="19"/>
       <c r="G93" s="12"/>
       <c r="H93" s="37"/>
-      <c r="I93" s="12">
+      <c r="I93" s="63">
         <f t="shared" si="6"/>
         <v>63.292000000000002</v>
       </c>
@@ -4409,7 +4426,7 @@
       <c r="D94" s="37">
         <v>0.27900000000000003</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="63">
         <f>SUM(C94,E93)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>37.906999999999996</v>
       </c>
@@ -4419,7 +4436,7 @@
         <v>1.25</v>
       </c>
       <c r="H94" s="37"/>
-      <c r="I94" s="12">
+      <c r="I94" s="63">
         <f t="shared" si="6"/>
         <v>64.542000000000002</v>
       </c>
@@ -4433,7 +4450,7 @@
       <c r="B95" s="19"/>
       <c r="C95" s="12"/>
       <c r="D95" s="37"/>
-      <c r="E95" s="12">
+      <c r="E95" s="63">
         <f>SUM(C95,E94)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>37.906999999999996</v>
       </c>
@@ -4443,7 +4460,7 @@
         <v/>
       </c>
       <c r="H95" s="37"/>
-      <c r="I95" s="12">
+      <c r="I95" s="63">
         <f t="shared" si="6"/>
         <v>64.542000000000002</v>
       </c>
@@ -4459,7 +4476,7 @@
         <v>1.25</v>
       </c>
       <c r="D96" s="37"/>
-      <c r="E96" s="12">
+      <c r="E96" s="63">
         <f>SUM(C96,E95)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>39.156999999999996</v>
       </c>
@@ -4469,7 +4486,7 @@
         <v>1.25</v>
       </c>
       <c r="H96" s="37"/>
-      <c r="I96" s="12">
+      <c r="I96" s="63">
         <f t="shared" si="6"/>
         <v>65.792000000000002</v>
       </c>
@@ -4488,7 +4505,7 @@
         <v>1.25</v>
       </c>
       <c r="D97" s="37"/>
-      <c r="E97" s="12">
+      <c r="E97" s="63">
         <f>SUM(C97,E96)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>40.406999999999996</v>
       </c>
@@ -4500,7 +4517,7 @@
       <c r="H97" s="37">
         <v>1</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="63">
         <f t="shared" si="6"/>
         <v>66.042000000000002</v>
       </c>
@@ -4518,14 +4535,14 @@
       <c r="D98" s="37">
         <v>4</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E98" s="63">
         <f>SUM(C98,E97)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>36.406999999999996</v>
       </c>
       <c r="F98" s="19"/>
       <c r="G98" s="12"/>
       <c r="H98" s="37"/>
-      <c r="I98" s="12">
+      <c r="I98" s="63">
         <f t="shared" si="6"/>
         <v>66.042000000000002</v>
       </c>
@@ -4543,14 +4560,14 @@
       <c r="D99" s="37">
         <v>0.58699999999999997</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E99" s="63">
         <f>SUM(C99,E98)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>35.819999999999993</v>
       </c>
       <c r="F99" s="19"/>
       <c r="G99" s="12"/>
       <c r="H99" s="37"/>
-      <c r="I99" s="12">
+      <c r="I99" s="63">
         <f t="shared" si="6"/>
         <v>66.042000000000002</v>
       </c>
@@ -4571,7 +4588,7 @@
       <c r="D100" s="37">
         <v>1</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E100" s="63">
         <f>SUM(C100,E99)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>36.069999999999993</v>
       </c>
@@ -4581,7 +4598,7 @@
         <v>1.25</v>
       </c>
       <c r="H100" s="37"/>
-      <c r="I100" s="12">
+      <c r="I100" s="63">
         <f t="shared" si="6"/>
         <v>67.292000000000002</v>
       </c>
@@ -4599,14 +4616,14 @@
       <c r="D101" s="37">
         <v>2.129</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E101" s="63">
         <f>SUM(C101,E100)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>33.940999999999995</v>
       </c>
       <c r="F101" s="19"/>
       <c r="G101" s="12"/>
       <c r="H101" s="37"/>
-      <c r="I101" s="12">
+      <c r="I101" s="63">
         <f t="shared" si="6"/>
         <v>67.292000000000002</v>
       </c>
@@ -4625,7 +4642,7 @@
         <v>1.25</v>
       </c>
       <c r="D102" s="37"/>
-      <c r="E102" s="12">
+      <c r="E102" s="63">
         <f>SUM(C102,E101)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>35.190999999999995</v>
       </c>
@@ -4637,7 +4654,7 @@
       <c r="H102" s="37">
         <v>2</v>
       </c>
-      <c r="I102" s="12">
+      <c r="I102" s="63">
         <f t="shared" si="6"/>
         <v>66.542000000000002</v>
       </c>
@@ -4653,7 +4670,7 @@
       </c>
       <c r="C103" s="12"/>
       <c r="D103" s="37"/>
-      <c r="E103" s="12">
+      <c r="E103" s="63">
         <f>SUM(C103,E102)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>35.190999999999995</v>
       </c>
@@ -4662,7 +4679,7 @@
       <c r="H103" s="37">
         <v>1</v>
       </c>
-      <c r="I103" s="12">
+      <c r="I103" s="63">
         <f t="shared" si="6"/>
         <v>65.542000000000002</v>
       </c>
@@ -4680,14 +4697,14 @@
       <c r="D104" s="37">
         <v>0.04</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E104" s="63">
         <f>SUM(C104,E103)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>35.150999999999996</v>
       </c>
       <c r="F104" s="19"/>
       <c r="G104" s="12"/>
       <c r="H104" s="37"/>
-      <c r="I104" s="12">
+      <c r="I104" s="63">
         <f t="shared" si="6"/>
         <v>65.542000000000002</v>
       </c>
@@ -4708,7 +4725,7 @@
       <c r="D105" s="37">
         <v>0.15600000000000003</v>
       </c>
-      <c r="E105" s="12">
+      <c r="E105" s="63">
         <f>SUM(C105,E104)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>36.244999999999997</v>
       </c>
@@ -4718,7 +4735,7 @@
         <v>1.25</v>
       </c>
       <c r="H105" s="37"/>
-      <c r="I105" s="12">
+      <c r="I105" s="63">
         <f t="shared" si="6"/>
         <v>66.792000000000002</v>
       </c>
@@ -4739,7 +4756,7 @@
       <c r="D106" s="37">
         <v>0.52700000000000002</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E106" s="63">
         <f>SUM(C106,E105)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>36.967999999999996</v>
       </c>
@@ -4749,7 +4766,7 @@
         <v>1.25</v>
       </c>
       <c r="H106" s="37"/>
-      <c r="I106" s="12">
+      <c r="I106" s="63">
         <f t="shared" si="6"/>
         <v>68.042000000000002</v>
       </c>
@@ -4770,7 +4787,7 @@
       <c r="D107" s="37">
         <v>1.6040000000000001</v>
       </c>
-      <c r="E107" s="12">
+      <c r="E107" s="63">
         <f>SUM(C107,E106)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>36.613999999999997</v>
       </c>
@@ -4780,7 +4797,7 @@
         <v>1.25</v>
       </c>
       <c r="H107" s="37"/>
-      <c r="I107" s="12">
+      <c r="I107" s="63">
         <f t="shared" si="6"/>
         <v>69.292000000000002</v>
       </c>
@@ -4799,7 +4816,7 @@
         <v>1.25</v>
       </c>
       <c r="D108" s="37"/>
-      <c r="E108" s="12">
+      <c r="E108" s="63">
         <f>SUM(C108,E107)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>37.863999999999997</v>
       </c>
@@ -4811,7 +4828,7 @@
       <c r="H108" s="37">
         <v>1</v>
       </c>
-      <c r="I108" s="12">
+      <c r="I108" s="63">
         <f t="shared" si="6"/>
         <v>69.542000000000002</v>
       </c>
@@ -4829,14 +4846,14 @@
       <c r="D109" s="37">
         <v>1.19</v>
       </c>
-      <c r="E109" s="12">
+      <c r="E109" s="63">
         <f>SUM(C109,E108)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>36.673999999999999</v>
       </c>
       <c r="F109" s="19"/>
       <c r="G109" s="12"/>
       <c r="H109" s="37"/>
-      <c r="I109" s="12">
+      <c r="I109" s="63">
         <f t="shared" si="6"/>
         <v>69.542000000000002</v>
       </c>
@@ -4857,7 +4874,7 @@
       <c r="D110" s="37">
         <v>1.5</v>
       </c>
-      <c r="E110" s="12">
+      <c r="E110" s="63">
         <f>SUM(C110,E109)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>36.423999999999999</v>
       </c>
@@ -4867,7 +4884,7 @@
         <v>1.25</v>
       </c>
       <c r="H110" s="37"/>
-      <c r="I110" s="12">
+      <c r="I110" s="63">
         <f t="shared" si="6"/>
         <v>70.792000000000002</v>
       </c>
@@ -4886,7 +4903,7 @@
         <v>1.25</v>
       </c>
       <c r="D111" s="37"/>
-      <c r="E111" s="12">
+      <c r="E111" s="63">
         <f>SUM(C111,E110)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>37.673999999999999</v>
       </c>
@@ -4898,7 +4915,7 @@
       <c r="H111" s="37">
         <v>1</v>
       </c>
-      <c r="I111" s="12">
+      <c r="I111" s="63">
         <f t="shared" si="6"/>
         <v>71.042000000000002</v>
       </c>
@@ -4914,7 +4931,7 @@
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="37"/>
-      <c r="E112" s="12">
+      <c r="E112" s="63">
         <f>SUM(C112,E111)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>37.673999999999999</v>
       </c>
@@ -4923,7 +4940,7 @@
       <c r="H112" s="37">
         <v>1</v>
       </c>
-      <c r="I112" s="12">
+      <c r="I112" s="63">
         <f t="shared" si="6"/>
         <v>70.042000000000002</v>
       </c>
@@ -4939,14 +4956,14 @@
       </c>
       <c r="C113" s="12"/>
       <c r="D113" s="37"/>
-      <c r="E113" s="12">
+      <c r="E113" s="63">
         <f>SUM(C113,E112)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>37.673999999999999</v>
       </c>
       <c r="F113" s="19"/>
       <c r="G113" s="12"/>
       <c r="H113" s="37"/>
-      <c r="I113" s="12">
+      <c r="I113" s="63">
         <f t="shared" si="6"/>
         <v>70.042000000000002</v>
       </c>
@@ -4964,14 +4981,14 @@
       <c r="D114" s="37">
         <v>0.219</v>
       </c>
-      <c r="E114" s="12">
+      <c r="E114" s="63">
         <f>SUM(C114,E113)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>37.454999999999998</v>
       </c>
       <c r="F114" s="19"/>
       <c r="G114" s="12"/>
       <c r="H114" s="37"/>
-      <c r="I114" s="12">
+      <c r="I114" s="63">
         <f t="shared" si="6"/>
         <v>70.042000000000002</v>
       </c>
@@ -4990,7 +5007,7 @@
         <v>1.25</v>
       </c>
       <c r="D115" s="37"/>
-      <c r="E115" s="12">
+      <c r="E115" s="63">
         <f>SUM(C115,E114)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>38.704999999999998</v>
       </c>
@@ -5002,7 +5019,7 @@
       <c r="H115" s="37">
         <v>1</v>
       </c>
-      <c r="I115" s="12">
+      <c r="I115" s="63">
         <f t="shared" si="6"/>
         <v>70.292000000000002</v>
       </c>
@@ -5020,14 +5037,14 @@
       <c r="D116" s="37">
         <v>0.252</v>
       </c>
-      <c r="E116" s="12">
+      <c r="E116" s="63">
         <f>SUM(C116,E115)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>38.452999999999996</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="12"/>
       <c r="H116" s="37"/>
-      <c r="I116" s="12">
+      <c r="I116" s="63">
         <f t="shared" si="6"/>
         <v>70.292000000000002</v>
       </c>
@@ -5048,7 +5065,7 @@
       <c r="D117" s="37">
         <v>2</v>
       </c>
-      <c r="E117" s="12">
+      <c r="E117" s="63">
         <f>SUM(C117,E116)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>37.702999999999996</v>
       </c>
@@ -5058,7 +5075,7 @@
         <v>1.25</v>
       </c>
       <c r="H117" s="37"/>
-      <c r="I117" s="12">
+      <c r="I117" s="63">
         <f t="shared" si="6"/>
         <v>71.542000000000002</v>
       </c>
@@ -5076,14 +5093,14 @@
       <c r="D118" s="37">
         <v>0.86199999999999999</v>
       </c>
-      <c r="E118" s="12">
+      <c r="E118" s="63">
         <f>SUM(C118,E117)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>36.840999999999994</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="12"/>
       <c r="H118" s="37"/>
-      <c r="I118" s="12">
+      <c r="I118" s="63">
         <f t="shared" si="6"/>
         <v>71.542000000000002</v>
       </c>
@@ -5097,7 +5114,7 @@
       <c r="B119" s="19"/>
       <c r="C119" s="12"/>
       <c r="D119" s="37"/>
-      <c r="E119" s="12">
+      <c r="E119" s="63">
         <f>SUM(C119,E118)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>36.840999999999994</v>
       </c>
@@ -5107,7 +5124,7 @@
         <v/>
       </c>
       <c r="H119" s="37"/>
-      <c r="I119" s="12">
+      <c r="I119" s="63">
         <f t="shared" si="6"/>
         <v>71.542000000000002</v>
       </c>
@@ -5127,7 +5144,7 @@
       <c r="D120" s="37">
         <v>0.54400000000000004</v>
       </c>
-      <c r="E120" s="12">
+      <c r="E120" s="63">
         <f>SUM(C120,E119)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>37.546999999999997</v>
       </c>
@@ -5137,7 +5154,7 @@
         <v>1.25</v>
       </c>
       <c r="H120" s="37"/>
-      <c r="I120" s="12">
+      <c r="I120" s="63">
         <f t="shared" si="6"/>
         <v>72.792000000000002</v>
       </c>
@@ -5156,7 +5173,7 @@
         <v>1.25</v>
       </c>
       <c r="D121" s="37"/>
-      <c r="E121" s="12">
+      <c r="E121" s="63">
         <f>SUM(C121,E120)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>38.796999999999997</v>
       </c>
@@ -5168,7 +5185,7 @@
       <c r="H121" s="37">
         <v>2</v>
       </c>
-      <c r="I121" s="12">
+      <c r="I121" s="63">
         <f t="shared" si="6"/>
         <v>72.042000000000002</v>
       </c>
@@ -5184,7 +5201,7 @@
       </c>
       <c r="C122" s="12"/>
       <c r="D122" s="37"/>
-      <c r="E122" s="12">
+      <c r="E122" s="63">
         <f>SUM(C122,E121)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>38.796999999999997</v>
       </c>
@@ -5193,7 +5210,7 @@
       <c r="H122" s="37">
         <v>2</v>
       </c>
-      <c r="I122" s="12">
+      <c r="I122" s="63">
         <f t="shared" si="6"/>
         <v>70.042000000000002</v>
       </c>
@@ -5209,7 +5226,7 @@
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="37"/>
-      <c r="E123" s="12">
+      <c r="E123" s="63">
         <f>SUM(C123,E122)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>38.796999999999997</v>
       </c>
@@ -5218,7 +5235,7 @@
       <c r="H123" s="37">
         <v>3</v>
       </c>
-      <c r="I123" s="12">
+      <c r="I123" s="63">
         <f t="shared" si="6"/>
         <v>67.042000000000002</v>
       </c>
@@ -5236,14 +5253,14 @@
       <c r="D124" s="37">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E124" s="12">
+      <c r="E124" s="63">
         <f>SUM(C124,E123)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>38.571999999999996</v>
       </c>
       <c r="F124" s="19"/>
       <c r="G124" s="12"/>
       <c r="H124" s="37"/>
-      <c r="I124" s="12">
+      <c r="I124" s="63">
         <f t="shared" si="6"/>
         <v>67.042000000000002</v>
       </c>
@@ -5264,7 +5281,7 @@
       <c r="D125" s="37">
         <v>2.633</v>
       </c>
-      <c r="E125" s="12">
+      <c r="E125" s="63">
         <f>SUM(C125,E124)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>37.188999999999993</v>
       </c>
@@ -5274,7 +5291,7 @@
         <v>1.25</v>
       </c>
       <c r="H125" s="37"/>
-      <c r="I125" s="12">
+      <c r="I125" s="63">
         <f t="shared" si="6"/>
         <v>68.292000000000002</v>
       </c>
@@ -5295,7 +5312,7 @@
       <c r="D126" s="37">
         <v>0.85199999999999998</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E126" s="63">
         <f>SUM(C126,E125)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>37.586999999999996</v>
       </c>
@@ -5305,7 +5322,7 @@
         <v>1.25</v>
       </c>
       <c r="H126" s="37"/>
-      <c r="I126" s="12">
+      <c r="I126" s="63">
         <f t="shared" si="6"/>
         <v>69.542000000000002</v>
       </c>
@@ -5324,7 +5341,7 @@
         <v>1.25</v>
       </c>
       <c r="D127" s="37"/>
-      <c r="E127" s="12">
+      <c r="E127" s="63">
         <f>SUM(C127,E126)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>38.836999999999996</v>
       </c>
@@ -5336,7 +5353,7 @@
       <c r="H127" s="37">
         <v>2</v>
       </c>
-      <c r="I127" s="12">
+      <c r="I127" s="63">
         <f t="shared" si="6"/>
         <v>68.792000000000002</v>
       </c>
@@ -5352,7 +5369,7 @@
       </c>
       <c r="C128" s="12"/>
       <c r="D128" s="37"/>
-      <c r="E128" s="12">
+      <c r="E128" s="63">
         <f>SUM(C128,E127)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>38.836999999999996</v>
       </c>
@@ -5361,7 +5378,7 @@
       <c r="H128" s="37">
         <v>1</v>
       </c>
-      <c r="I128" s="12">
+      <c r="I128" s="63">
         <f t="shared" si="6"/>
         <v>67.792000000000002</v>
       </c>
@@ -5379,14 +5396,14 @@
       <c r="D129" s="37">
         <v>2.1000000000000005E-2</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E129" s="63">
         <f>SUM(C129,E128)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>38.815999999999995</v>
       </c>
       <c r="F129" s="19"/>
       <c r="G129" s="12"/>
       <c r="H129" s="37"/>
-      <c r="I129" s="12">
+      <c r="I129" s="63">
         <f t="shared" si="6"/>
         <v>67.792000000000002</v>
       </c>
@@ -5405,7 +5422,7 @@
         <v>1.25</v>
       </c>
       <c r="D130" s="37"/>
-      <c r="E130" s="12">
+      <c r="E130" s="63">
         <f>SUM(C130,E129)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>40.065999999999995</v>
       </c>
@@ -5417,7 +5434,7 @@
       <c r="H130" s="37">
         <v>1</v>
       </c>
-      <c r="I130" s="12">
+      <c r="I130" s="63">
         <f t="shared" si="6"/>
         <v>68.042000000000002</v>
       </c>
@@ -5435,14 +5452,14 @@
       <c r="D131" s="37">
         <v>0.502</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E131" s="63">
         <f>SUM(C131,E130)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>39.563999999999993</v>
       </c>
       <c r="F131" s="19"/>
       <c r="G131" s="12"/>
       <c r="H131" s="37"/>
-      <c r="I131" s="12">
+      <c r="I131" s="63">
         <f t="shared" si="6"/>
         <v>68.042000000000002</v>
       </c>
@@ -5461,7 +5478,7 @@
         <v>1.25</v>
       </c>
       <c r="D132" s="37"/>
-      <c r="E132" s="12">
+      <c r="E132" s="63">
         <f>SUM(C132,E131)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>40.813999999999993</v>
       </c>
@@ -5473,7 +5490,7 @@
       <c r="H132" s="37">
         <v>1</v>
       </c>
-      <c r="I132" s="12">
+      <c r="I132" s="63">
         <f t="shared" si="6"/>
         <v>68.292000000000002</v>
       </c>
@@ -5489,7 +5506,7 @@
       </c>
       <c r="C133" s="12"/>
       <c r="D133" s="37"/>
-      <c r="E133" s="12">
+      <c r="E133" s="63">
         <f>SUM(C133,E132)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>40.813999999999993</v>
       </c>
@@ -5498,7 +5515,7 @@
       <c r="H133" s="37">
         <v>1</v>
       </c>
-      <c r="I133" s="12">
+      <c r="I133" s="63">
         <f t="shared" si="6"/>
         <v>67.292000000000002</v>
       </c>
@@ -5516,14 +5533,14 @@
       <c r="D134" s="37">
         <v>0.15000000000000002</v>
       </c>
-      <c r="E134" s="12">
+      <c r="E134" s="63">
         <f>SUM(C134,E133)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>40.663999999999994</v>
       </c>
       <c r="F134" s="19"/>
       <c r="G134" s="12"/>
       <c r="H134" s="37"/>
-      <c r="I134" s="12">
+      <c r="I134" s="63">
         <f t="shared" si="6"/>
         <v>67.292000000000002</v>
       </c>
@@ -5544,7 +5561,7 @@
       <c r="D135" s="37">
         <v>8.7000000000000022E-2</v>
       </c>
-      <c r="E135" s="12">
+      <c r="E135" s="63">
         <f>SUM(C135,E134)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>41.826999999999991</v>
       </c>
@@ -5554,7 +5571,7 @@
         <v>1.25</v>
       </c>
       <c r="H135" s="37"/>
-      <c r="I135" s="12">
+      <c r="I135" s="63">
         <f t="shared" si="6"/>
         <v>68.542000000000002</v>
       </c>
@@ -5573,7 +5590,7 @@
         <v>1.25</v>
       </c>
       <c r="D136" s="37"/>
-      <c r="E136" s="12">
+      <c r="E136" s="63">
         <f>SUM(C136,E135)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>43.076999999999991</v>
       </c>
@@ -5585,7 +5602,7 @@
       <c r="H136" s="37">
         <v>1</v>
       </c>
-      <c r="I136" s="12">
+      <c r="I136" s="63">
         <f t="shared" si="6"/>
         <v>68.792000000000002</v>
       </c>
@@ -5601,7 +5618,7 @@
       </c>
       <c r="C137" s="12"/>
       <c r="D137" s="37"/>
-      <c r="E137" s="12">
+      <c r="E137" s="63">
         <f>SUM(C137,E136)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>43.076999999999991</v>
       </c>
@@ -5610,7 +5627,7 @@
       <c r="H137" s="37">
         <v>2</v>
       </c>
-      <c r="I137" s="12">
+      <c r="I137" s="63">
         <f t="shared" si="6"/>
         <v>66.792000000000002</v>
       </c>
@@ -5626,7 +5643,7 @@
       </c>
       <c r="C138" s="12"/>
       <c r="D138" s="37"/>
-      <c r="E138" s="12">
+      <c r="E138" s="63">
         <f>SUM(C138,E137)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>43.076999999999991</v>
       </c>
@@ -5635,7 +5652,7 @@
       <c r="H138" s="37">
         <v>1</v>
       </c>
-      <c r="I138" s="12">
+      <c r="I138" s="63">
         <f t="shared" si="6"/>
         <v>65.792000000000002</v>
       </c>
@@ -5651,7 +5668,7 @@
       </c>
       <c r="C139" s="12"/>
       <c r="D139" s="37"/>
-      <c r="E139" s="12">
+      <c r="E139" s="63">
         <f>SUM(C139,E138)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>43.076999999999991</v>
       </c>
@@ -5660,7 +5677,7 @@
       <c r="H139" s="37">
         <v>1</v>
       </c>
-      <c r="I139" s="12">
+      <c r="I139" s="63">
         <f t="shared" si="6"/>
         <v>64.792000000000002</v>
       </c>
@@ -5676,14 +5693,14 @@
       </c>
       <c r="C140" s="12"/>
       <c r="D140" s="37"/>
-      <c r="E140" s="12">
+      <c r="E140" s="63">
         <f>SUM(C140,E139)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>43.076999999999991</v>
       </c>
       <c r="F140" s="19"/>
       <c r="G140" s="12"/>
       <c r="H140" s="37"/>
-      <c r="I140" s="12">
+      <c r="I140" s="63">
         <f t="shared" si="6"/>
         <v>64.792000000000002</v>
       </c>
@@ -5706,7 +5723,7 @@
       <c r="D141" s="37">
         <v>2</v>
       </c>
-      <c r="E141" s="12">
+      <c r="E141" s="63">
         <f>SUM(C141,E140)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>42.326999999999991</v>
       </c>
@@ -5716,7 +5733,7 @@
         <v>1.25</v>
       </c>
       <c r="H141" s="37"/>
-      <c r="I141" s="12">
+      <c r="I141" s="63">
         <f t="shared" ref="I141:I204" si="10">SUM(G141,I140)-H141</f>
         <v>66.042000000000002</v>
       </c>
@@ -5739,7 +5756,7 @@
       <c r="D142" s="37">
         <v>5.000000000000001E-2</v>
       </c>
-      <c r="E142" s="12">
+      <c r="E142" s="63">
         <f>SUM(C142,E141)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>43.526999999999994</v>
       </c>
@@ -5749,7 +5766,7 @@
         <v>1.25</v>
       </c>
       <c r="H142" s="37"/>
-      <c r="I142" s="12">
+      <c r="I142" s="63">
         <f t="shared" si="10"/>
         <v>67.292000000000002</v>
       </c>
@@ -5770,7 +5787,7 @@
       <c r="D143" s="37">
         <v>1</v>
       </c>
-      <c r="E143" s="12">
+      <c r="E143" s="63">
         <f>SUM(C143,E142)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>43.776999999999994</v>
       </c>
@@ -5780,7 +5797,7 @@
         <v>1.25</v>
       </c>
       <c r="H143" s="37"/>
-      <c r="I143" s="12">
+      <c r="I143" s="63">
         <f t="shared" si="10"/>
         <v>68.542000000000002</v>
       </c>
@@ -5798,7 +5815,7 @@
       <c r="D144" s="37">
         <v>2</v>
       </c>
-      <c r="E144" s="12">
+      <c r="E144" s="63">
         <f>SUM(C144,E143)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>41.776999999999994</v>
       </c>
@@ -5808,7 +5825,7 @@
         <v/>
       </c>
       <c r="H144" s="37"/>
-      <c r="I144" s="12">
+      <c r="I144" s="63">
         <f t="shared" si="10"/>
         <v>68.542000000000002</v>
       </c>
@@ -5824,7 +5841,7 @@
       <c r="D145" s="37">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E145" s="12">
+      <c r="E145" s="63">
         <f>SUM(C145,E144)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>41.216999999999992</v>
       </c>
@@ -5834,7 +5851,7 @@
         <v/>
       </c>
       <c r="H145" s="37"/>
-      <c r="I145" s="12">
+      <c r="I145" s="63">
         <f t="shared" si="10"/>
         <v>68.542000000000002</v>
       </c>
@@ -5848,7 +5865,7 @@
       <c r="B146" s="19"/>
       <c r="C146" s="12"/>
       <c r="D146" s="37"/>
-      <c r="E146" s="12">
+      <c r="E146" s="63">
         <f>SUM(C146,E145)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>41.216999999999992</v>
       </c>
@@ -5858,7 +5875,7 @@
         <v/>
       </c>
       <c r="H146" s="37"/>
-      <c r="I146" s="12">
+      <c r="I146" s="63">
         <f t="shared" si="10"/>
         <v>68.542000000000002</v>
       </c>
@@ -5876,7 +5893,7 @@
         <v>1.25</v>
       </c>
       <c r="D147" s="37"/>
-      <c r="E147" s="12">
+      <c r="E147" s="63">
         <f>SUM(C147,E146)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>42.466999999999992</v>
       </c>
@@ -5888,7 +5905,7 @@
       <c r="H147" s="37">
         <v>1</v>
       </c>
-      <c r="I147" s="12">
+      <c r="I147" s="63">
         <f t="shared" si="10"/>
         <v>68.792000000000002</v>
       </c>
@@ -5906,14 +5923,14 @@
       <c r="D148" s="37">
         <v>0.623</v>
       </c>
-      <c r="E148" s="12">
+      <c r="E148" s="63">
         <f>SUM(C148,E147)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>41.843999999999994</v>
       </c>
       <c r="F148" s="19"/>
       <c r="G148" s="12"/>
       <c r="H148" s="37"/>
-      <c r="I148" s="12">
+      <c r="I148" s="63">
         <f t="shared" si="10"/>
         <v>68.792000000000002</v>
       </c>
@@ -5932,7 +5949,7 @@
         <v>1.25</v>
       </c>
       <c r="D149" s="37"/>
-      <c r="E149" s="12">
+      <c r="E149" s="63">
         <f>SUM(C149,E148)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>43.093999999999994</v>
       </c>
@@ -5942,7 +5959,7 @@
         <v>1.25</v>
       </c>
       <c r="H149" s="37"/>
-      <c r="I149" s="12">
+      <c r="I149" s="63">
         <f t="shared" si="10"/>
         <v>70.042000000000002</v>
       </c>
@@ -5960,14 +5977,14 @@
       <c r="D150" s="37">
         <v>2</v>
       </c>
-      <c r="E150" s="12">
+      <c r="E150" s="63">
         <f>SUM(C150,E149)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>41.093999999999994</v>
       </c>
       <c r="F150" s="19"/>
       <c r="G150" s="12"/>
       <c r="H150" s="37"/>
-      <c r="I150" s="12">
+      <c r="I150" s="63">
         <f t="shared" si="10"/>
         <v>70.042000000000002</v>
       </c>
@@ -5985,14 +6002,14 @@
       <c r="D151" s="37">
         <v>5.2000000000000011E-2</v>
       </c>
-      <c r="E151" s="12">
+      <c r="E151" s="63">
         <f>SUM(C151,E150)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>41.041999999999994</v>
       </c>
       <c r="F151" s="19"/>
       <c r="G151" s="12"/>
       <c r="H151" s="37"/>
-      <c r="I151" s="12">
+      <c r="I151" s="63">
         <f t="shared" si="10"/>
         <v>70.042000000000002</v>
       </c>
@@ -6013,7 +6030,7 @@
       <c r="D152" s="37">
         <v>0.68700000000000006</v>
       </c>
-      <c r="E152" s="12">
+      <c r="E152" s="63">
         <f>SUM(C152,E151)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>41.604999999999997</v>
       </c>
@@ -6023,7 +6040,7 @@
         <v>1.25</v>
       </c>
       <c r="H152" s="37"/>
-      <c r="I152" s="12">
+      <c r="I152" s="63">
         <f t="shared" si="10"/>
         <v>71.292000000000002</v>
       </c>
@@ -6044,7 +6061,7 @@
       <c r="D153" s="37">
         <v>0.629</v>
       </c>
-      <c r="E153" s="12">
+      <c r="E153" s="63">
         <f>SUM(C153,E152)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>42.225999999999999</v>
       </c>
@@ -6054,7 +6071,7 @@
         <v>1.25</v>
       </c>
       <c r="H153" s="37"/>
-      <c r="I153" s="12">
+      <c r="I153" s="63">
         <f t="shared" si="10"/>
         <v>72.542000000000002</v>
       </c>
@@ -6073,7 +6090,7 @@
         <v>1.25</v>
       </c>
       <c r="D154" s="37"/>
-      <c r="E154" s="12">
+      <c r="E154" s="63">
         <f>SUM(C154,E153)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>43.475999999999999</v>
       </c>
@@ -6083,7 +6100,7 @@
         <v>1.25</v>
       </c>
       <c r="H154" s="37"/>
-      <c r="I154" s="12">
+      <c r="I154" s="63">
         <f t="shared" si="10"/>
         <v>73.792000000000002</v>
       </c>
@@ -6101,14 +6118,14 @@
       <c r="D155" s="37">
         <v>1</v>
       </c>
-      <c r="E155" s="12">
+      <c r="E155" s="63">
         <f>SUM(C155,E154)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>42.475999999999999</v>
       </c>
       <c r="F155" s="19"/>
       <c r="G155" s="12"/>
       <c r="H155" s="37"/>
-      <c r="I155" s="12">
+      <c r="I155" s="63">
         <f t="shared" si="10"/>
         <v>73.792000000000002</v>
       </c>
@@ -6126,14 +6143,14 @@
       <c r="D156" s="37">
         <v>0.11000000000000001</v>
       </c>
-      <c r="E156" s="12">
+      <c r="E156" s="63">
         <f>SUM(C156,E155)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>42.366</v>
       </c>
       <c r="F156" s="19"/>
       <c r="G156" s="12"/>
       <c r="H156" s="37"/>
-      <c r="I156" s="12">
+      <c r="I156" s="63">
         <f t="shared" si="10"/>
         <v>73.792000000000002</v>
       </c>
@@ -6154,7 +6171,7 @@
       <c r="D157" s="37">
         <v>6.200000000000002E-2</v>
       </c>
-      <c r="E157" s="12">
+      <c r="E157" s="63">
         <f>SUM(C157,E156)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>43.554000000000002</v>
       </c>
@@ -6164,7 +6181,7 @@
         <v>1.25</v>
       </c>
       <c r="H157" s="37"/>
-      <c r="I157" s="12">
+      <c r="I157" s="63">
         <f t="shared" si="10"/>
         <v>75.042000000000002</v>
       </c>
@@ -6185,7 +6202,7 @@
       <c r="D158" s="37">
         <v>0.14600000000000002</v>
       </c>
-      <c r="E158" s="12">
+      <c r="E158" s="63">
         <f>SUM(C158,E157)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>44.658000000000001</v>
       </c>
@@ -6195,7 +6212,7 @@
         <v>1.25</v>
       </c>
       <c r="H158" s="37"/>
-      <c r="I158" s="12">
+      <c r="I158" s="63">
         <f t="shared" si="10"/>
         <v>76.292000000000002</v>
       </c>
@@ -6214,7 +6231,7 @@
         <v>1.25</v>
       </c>
       <c r="D159" s="37"/>
-      <c r="E159" s="12">
+      <c r="E159" s="63">
         <f>SUM(C159,E158)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>45.908000000000001</v>
       </c>
@@ -6226,7 +6243,7 @@
       <c r="H159" s="37">
         <v>1</v>
       </c>
-      <c r="I159" s="12">
+      <c r="I159" s="63">
         <f t="shared" si="10"/>
         <v>76.542000000000002</v>
       </c>
@@ -6244,14 +6261,14 @@
       <c r="D160" s="37">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E160" s="12">
+      <c r="E160" s="63">
         <f>SUM(C160,E159)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>45.542999999999999</v>
       </c>
       <c r="F160" s="19"/>
       <c r="G160" s="12"/>
       <c r="H160" s="37"/>
-      <c r="I160" s="12">
+      <c r="I160" s="63">
         <f t="shared" si="10"/>
         <v>76.542000000000002</v>
       </c>
@@ -6270,7 +6287,7 @@
         <v>1.25</v>
       </c>
       <c r="D161" s="37"/>
-      <c r="E161" s="12">
+      <c r="E161" s="63">
         <f>SUM(C161,E160)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>46.792999999999999</v>
       </c>
@@ -6282,7 +6299,7 @@
       <c r="H161" s="37">
         <v>1</v>
       </c>
-      <c r="I161" s="12">
+      <c r="I161" s="63">
         <f t="shared" si="10"/>
         <v>76.792000000000002</v>
       </c>
@@ -6298,14 +6315,14 @@
       </c>
       <c r="C162" s="12"/>
       <c r="D162" s="37"/>
-      <c r="E162" s="12">
+      <c r="E162" s="63">
         <f>SUM(C162,E161)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>46.792999999999999</v>
       </c>
       <c r="F162" s="19"/>
       <c r="G162" s="12"/>
       <c r="H162" s="37"/>
-      <c r="I162" s="12">
+      <c r="I162" s="63">
         <f t="shared" si="10"/>
         <v>76.792000000000002</v>
       </c>
@@ -6323,14 +6340,14 @@
       <c r="D163" s="37">
         <v>0.81899999999999995</v>
       </c>
-      <c r="E163" s="12">
+      <c r="E163" s="63">
         <f>SUM(C163,E162)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>45.973999999999997</v>
       </c>
       <c r="F163" s="19"/>
       <c r="G163" s="12"/>
       <c r="H163" s="37"/>
-      <c r="I163" s="12">
+      <c r="I163" s="63">
         <f t="shared" si="10"/>
         <v>76.792000000000002</v>
       </c>
@@ -6349,7 +6366,7 @@
         <v>1.25</v>
       </c>
       <c r="D164" s="37"/>
-      <c r="E164" s="12">
+      <c r="E164" s="63">
         <f>SUM(C164,E163)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>47.223999999999997</v>
       </c>
@@ -6361,7 +6378,7 @@
       <c r="H164" s="37">
         <v>1</v>
       </c>
-      <c r="I164" s="12">
+      <c r="I164" s="63">
         <f t="shared" si="10"/>
         <v>77.042000000000002</v>
       </c>
@@ -6379,14 +6396,14 @@
       <c r="D165" s="37">
         <v>1</v>
       </c>
-      <c r="E165" s="12">
+      <c r="E165" s="63">
         <f>SUM(C165,E164)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>46.223999999999997</v>
       </c>
       <c r="F165" s="19"/>
       <c r="G165" s="12"/>
       <c r="H165" s="37"/>
-      <c r="I165" s="12">
+      <c r="I165" s="63">
         <f t="shared" si="10"/>
         <v>77.042000000000002</v>
       </c>
@@ -6404,14 +6421,14 @@
       <c r="D166" s="37">
         <v>0.192</v>
       </c>
-      <c r="E166" s="12">
+      <c r="E166" s="63">
         <f>SUM(C166,E165)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>46.031999999999996</v>
       </c>
       <c r="F166" s="19"/>
       <c r="G166" s="12"/>
       <c r="H166" s="37"/>
-      <c r="I166" s="12">
+      <c r="I166" s="63">
         <f t="shared" si="10"/>
         <v>77.042000000000002</v>
       </c>
@@ -6432,7 +6449,7 @@
       <c r="D167" s="37">
         <v>0.1</v>
       </c>
-      <c r="E167" s="12">
+      <c r="E167" s="63">
         <f>SUM(C167,E166)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>47.181999999999995</v>
       </c>
@@ -6442,7 +6459,7 @@
         <v>1.25</v>
       </c>
       <c r="H167" s="37"/>
-      <c r="I167" s="12">
+      <c r="I167" s="63">
         <f t="shared" si="10"/>
         <v>78.292000000000002</v>
       </c>
@@ -6463,7 +6480,7 @@
       <c r="D168" s="37">
         <v>1</v>
       </c>
-      <c r="E168" s="12">
+      <c r="E168" s="63">
         <f>SUM(C168,E167)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>47.431999999999995</v>
       </c>
@@ -6473,7 +6490,7 @@
         <v>1.25</v>
       </c>
       <c r="H168" s="37"/>
-      <c r="I168" s="12">
+      <c r="I168" s="63">
         <f t="shared" si="10"/>
         <v>79.542000000000002</v>
       </c>
@@ -6491,7 +6508,7 @@
       <c r="D169" s="37">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E169" s="12">
+      <c r="E169" s="63">
         <f>SUM(C169,E168)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>46.656999999999996</v>
       </c>
@@ -6501,7 +6518,7 @@
         <v/>
       </c>
       <c r="H169" s="37"/>
-      <c r="I169" s="12">
+      <c r="I169" s="63">
         <f t="shared" si="10"/>
         <v>79.542000000000002</v>
       </c>
@@ -6515,7 +6532,7 @@
       <c r="B170" s="19"/>
       <c r="C170" s="12"/>
       <c r="D170" s="37"/>
-      <c r="E170" s="12">
+      <c r="E170" s="63">
         <f>SUM(C170,E169)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>46.656999999999996</v>
       </c>
@@ -6525,7 +6542,7 @@
         <v/>
       </c>
       <c r="H170" s="37"/>
-      <c r="I170" s="12">
+      <c r="I170" s="63">
         <f t="shared" si="10"/>
         <v>79.542000000000002</v>
       </c>
@@ -6545,7 +6562,7 @@
       <c r="D171" s="37">
         <v>0.75</v>
       </c>
-      <c r="E171" s="12">
+      <c r="E171" s="63">
         <f>SUM(C171,E170)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>47.156999999999996</v>
       </c>
@@ -6555,7 +6572,7 @@
         <v>1.25</v>
       </c>
       <c r="H171" s="37"/>
-      <c r="I171" s="12">
+      <c r="I171" s="63">
         <f t="shared" si="10"/>
         <v>80.792000000000002</v>
       </c>
@@ -6576,7 +6593,7 @@
       <c r="D172" s="37">
         <v>2</v>
       </c>
-      <c r="E172" s="12">
+      <c r="E172" s="63">
         <f>SUM(C172,E171)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>46.406999999999996</v>
       </c>
@@ -6586,7 +6603,7 @@
         <v>1.25</v>
       </c>
       <c r="H172" s="37"/>
-      <c r="I172" s="12">
+      <c r="I172" s="63">
         <f t="shared" si="10"/>
         <v>82.042000000000002</v>
       </c>
@@ -6604,14 +6621,14 @@
       <c r="D173" s="37">
         <v>1</v>
       </c>
-      <c r="E173" s="12">
+      <c r="E173" s="63">
         <f>SUM(C173,E172)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>45.406999999999996</v>
       </c>
       <c r="F173" s="19"/>
       <c r="G173" s="12"/>
       <c r="H173" s="37"/>
-      <c r="I173" s="12">
+      <c r="I173" s="63">
         <f t="shared" si="10"/>
         <v>82.042000000000002</v>
       </c>
@@ -6632,7 +6649,7 @@
       <c r="D174" s="37">
         <v>0.30399999999999999</v>
       </c>
-      <c r="E174" s="12">
+      <c r="E174" s="63">
         <f>SUM(C174,E173)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>46.352999999999994</v>
       </c>
@@ -6642,7 +6659,7 @@
         <v>1.25</v>
       </c>
       <c r="H174" s="37"/>
-      <c r="I174" s="12">
+      <c r="I174" s="63">
         <f t="shared" si="10"/>
         <v>83.292000000000002</v>
       </c>
@@ -6659,7 +6676,7 @@
         <v>1.25</v>
       </c>
       <c r="D175" s="37"/>
-      <c r="E175" s="12">
+      <c r="E175" s="63">
         <f>SUM(C175,E174)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>47.602999999999994</v>
       </c>
@@ -6669,7 +6686,7 @@
         <v>1.25</v>
       </c>
       <c r="H175" s="37"/>
-      <c r="I175" s="12">
+      <c r="I175" s="63">
         <f t="shared" si="10"/>
         <v>84.542000000000002</v>
       </c>
@@ -6690,7 +6707,7 @@
       <c r="D176" s="37">
         <v>3</v>
       </c>
-      <c r="E176" s="12">
+      <c r="E176" s="63">
         <f>SUM(C176,E175)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>45.852999999999994</v>
       </c>
@@ -6700,7 +6717,7 @@
         <v>1.25</v>
       </c>
       <c r="H176" s="37"/>
-      <c r="I176" s="12">
+      <c r="I176" s="63">
         <f t="shared" si="10"/>
         <v>85.792000000000002</v>
       </c>
@@ -6723,7 +6740,7 @@
       <c r="D177" s="37">
         <v>1</v>
       </c>
-      <c r="E177" s="12">
+      <c r="E177" s="63">
         <f>SUM(C177,E176)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>46.102999999999994</v>
       </c>
@@ -6733,7 +6750,7 @@
         <v>1.25</v>
       </c>
       <c r="H177" s="37"/>
-      <c r="I177" s="12">
+      <c r="I177" s="63">
         <f t="shared" si="10"/>
         <v>87.042000000000002</v>
       </c>
@@ -6754,7 +6771,7 @@
       <c r="D178" s="37">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E178" s="12">
+      <c r="E178" s="63">
         <f>SUM(C178,E177)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>47.335999999999991</v>
       </c>
@@ -6764,7 +6781,7 @@
         <v>1.25</v>
       </c>
       <c r="H178" s="37"/>
-      <c r="I178" s="12">
+      <c r="I178" s="63">
         <f t="shared" si="10"/>
         <v>88.292000000000002</v>
       </c>
@@ -6785,7 +6802,7 @@
       <c r="D179" s="37">
         <v>2.9000000000000012E-2</v>
       </c>
-      <c r="E179" s="12">
+      <c r="E179" s="63">
         <f>SUM(C179,E178)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>48.556999999999988</v>
       </c>
@@ -6795,7 +6812,7 @@
         <v>1.25</v>
       </c>
       <c r="H179" s="37"/>
-      <c r="I179" s="12">
+      <c r="I179" s="63">
         <f t="shared" si="10"/>
         <v>89.542000000000002</v>
       </c>
@@ -6816,7 +6833,7 @@
       <c r="D180" s="37">
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="E180" s="12">
+      <c r="E180" s="63">
         <f>SUM(C180,E179)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>49.762999999999991</v>
       </c>
@@ -6826,7 +6843,7 @@
         <v>1.25</v>
       </c>
       <c r="H180" s="37"/>
-      <c r="I180" s="12">
+      <c r="I180" s="63">
         <f t="shared" si="10"/>
         <v>90.792000000000002</v>
       </c>
@@ -6845,7 +6862,7 @@
         <v>1.25</v>
       </c>
       <c r="D181" s="37"/>
-      <c r="E181" s="12">
+      <c r="E181" s="63">
         <f>SUM(C181,E180)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>51.012999999999991</v>
       </c>
@@ -6855,7 +6872,7 @@
         <v>1.25</v>
       </c>
       <c r="H181" s="37"/>
-      <c r="I181" s="12">
+      <c r="I181" s="63">
         <f t="shared" si="10"/>
         <v>92.042000000000002</v>
       </c>
@@ -6871,14 +6888,14 @@
       </c>
       <c r="C182" s="12"/>
       <c r="D182" s="37"/>
-      <c r="E182" s="12">
+      <c r="E182" s="63">
         <f>SUM(C182,E181)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>51.012999999999991</v>
       </c>
       <c r="F182" s="19"/>
       <c r="G182" s="12"/>
       <c r="H182" s="37"/>
-      <c r="I182" s="12">
+      <c r="I182" s="63">
         <f t="shared" si="10"/>
         <v>92.042000000000002</v>
       </c>
@@ -6894,7 +6911,7 @@
       </c>
       <c r="C183" s="12"/>
       <c r="D183" s="37"/>
-      <c r="E183" s="12">
+      <c r="E183" s="63">
         <f>SUM(C183,E182)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>51.012999999999991</v>
       </c>
@@ -6903,7 +6920,7 @@
       <c r="H183" s="37">
         <v>1</v>
       </c>
-      <c r="I183" s="12">
+      <c r="I183" s="63">
         <f t="shared" si="10"/>
         <v>91.042000000000002</v>
       </c>
@@ -6919,14 +6936,14 @@
       </c>
       <c r="C184" s="12"/>
       <c r="D184" s="37"/>
-      <c r="E184" s="12">
+      <c r="E184" s="63">
         <f>SUM(C184,E183)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>51.012999999999991</v>
       </c>
       <c r="F184" s="19"/>
       <c r="G184" s="12"/>
       <c r="H184" s="37"/>
-      <c r="I184" s="12">
+      <c r="I184" s="63">
         <f t="shared" si="10"/>
         <v>91.042000000000002</v>
       </c>
@@ -6944,14 +6961,14 @@
       <c r="D185" s="37">
         <v>1.2E-2</v>
       </c>
-      <c r="E185" s="12">
+      <c r="E185" s="63">
         <f>SUM(C185,E184)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>51.000999999999991</v>
       </c>
       <c r="F185" s="19"/>
       <c r="G185" s="12"/>
       <c r="H185" s="37"/>
-      <c r="I185" s="12">
+      <c r="I185" s="63">
         <f t="shared" si="10"/>
         <v>91.042000000000002</v>
       </c>
@@ -6972,7 +6989,7 @@
       <c r="D186" s="37">
         <v>1</v>
       </c>
-      <c r="E186" s="12">
+      <c r="E186" s="63">
         <f>SUM(C186,E185)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>51.250999999999991</v>
       </c>
@@ -6982,7 +6999,7 @@
         <v>1.25</v>
       </c>
       <c r="H186" s="37"/>
-      <c r="I186" s="12">
+      <c r="I186" s="63">
         <f t="shared" si="10"/>
         <v>92.292000000000002</v>
       </c>
@@ -7000,7 +7017,7 @@
       <c r="D187" s="37">
         <v>2.5000000000000008E-2</v>
       </c>
-      <c r="E187" s="12">
+      <c r="E187" s="63">
         <f>SUM(C187,E186)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>51.225999999999992</v>
       </c>
@@ -7010,7 +7027,7 @@
         <v/>
       </c>
       <c r="H187" s="37"/>
-      <c r="I187" s="12">
+      <c r="I187" s="63">
         <f t="shared" si="10"/>
         <v>92.292000000000002</v>
       </c>
@@ -7031,7 +7048,7 @@
       <c r="D188" s="37">
         <v>0.15200000000000002</v>
       </c>
-      <c r="E188" s="12">
+      <c r="E188" s="63">
         <f>SUM(C188,E187)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>52.323999999999991</v>
       </c>
@@ -7041,7 +7058,7 @@
         <v>1.25</v>
       </c>
       <c r="H188" s="37"/>
-      <c r="I188" s="12">
+      <c r="I188" s="63">
         <f t="shared" si="10"/>
         <v>93.542000000000002</v>
       </c>
@@ -7055,7 +7072,7 @@
       <c r="B189" s="19"/>
       <c r="C189" s="12"/>
       <c r="D189" s="37"/>
-      <c r="E189" s="12">
+      <c r="E189" s="63">
         <f>SUM(C189,E188)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>52.323999999999991</v>
       </c>
@@ -7065,7 +7082,7 @@
         <v/>
       </c>
       <c r="H189" s="37"/>
-      <c r="I189" s="12">
+      <c r="I189" s="63">
         <f t="shared" si="10"/>
         <v>93.542000000000002</v>
       </c>
@@ -7083,7 +7100,7 @@
         <v>1.25</v>
       </c>
       <c r="D190" s="37"/>
-      <c r="E190" s="12">
+      <c r="E190" s="63">
         <f>SUM(C190,E189)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>53.573999999999991</v>
       </c>
@@ -7095,7 +7112,7 @@
       <c r="H190" s="37">
         <v>1</v>
       </c>
-      <c r="I190" s="12">
+      <c r="I190" s="63">
         <f t="shared" si="10"/>
         <v>93.792000000000002</v>
       </c>
@@ -7111,14 +7128,14 @@
       </c>
       <c r="C191" s="12"/>
       <c r="D191" s="37"/>
-      <c r="E191" s="12">
+      <c r="E191" s="63">
         <f>SUM(C191,E190)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>53.573999999999991</v>
       </c>
       <c r="F191" s="19"/>
       <c r="G191" s="12"/>
       <c r="H191" s="37"/>
-      <c r="I191" s="12">
+      <c r="I191" s="63">
         <f t="shared" si="10"/>
         <v>93.792000000000002</v>
       </c>
@@ -7136,14 +7153,14 @@
       <c r="D192" s="37">
         <v>8.1000000000000016E-2</v>
       </c>
-      <c r="E192" s="12">
+      <c r="E192" s="63">
         <f>SUM(C192,E191)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>53.492999999999988</v>
       </c>
       <c r="F192" s="19"/>
       <c r="G192" s="12"/>
       <c r="H192" s="37"/>
-      <c r="I192" s="12">
+      <c r="I192" s="63">
         <f t="shared" si="10"/>
         <v>93.792000000000002</v>
       </c>
@@ -7162,7 +7179,7 @@
         <v>1.25</v>
       </c>
       <c r="D193" s="37"/>
-      <c r="E193" s="12">
+      <c r="E193" s="63">
         <f>SUM(C193,E192)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>54.742999999999988</v>
       </c>
@@ -7174,7 +7191,7 @@
       <c r="H193" s="37">
         <v>1</v>
       </c>
-      <c r="I193" s="12">
+      <c r="I193" s="63">
         <f t="shared" si="10"/>
         <v>94.042000000000002</v>
       </c>
@@ -7190,14 +7207,14 @@
       </c>
       <c r="C194" s="12"/>
       <c r="D194" s="37"/>
-      <c r="E194" s="12">
+      <c r="E194" s="63">
         <f>SUM(C194,E193)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>54.742999999999988</v>
       </c>
       <c r="F194" s="19"/>
       <c r="G194" s="12"/>
       <c r="H194" s="37"/>
-      <c r="I194" s="12">
+      <c r="I194" s="63">
         <f t="shared" si="10"/>
         <v>94.042000000000002</v>
       </c>
@@ -7215,14 +7232,14 @@
       <c r="D195" s="37">
         <v>1.871</v>
       </c>
-      <c r="E195" s="12">
+      <c r="E195" s="63">
         <f>SUM(C195,E194)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>52.871999999999986</v>
       </c>
       <c r="F195" s="19"/>
       <c r="G195" s="12"/>
       <c r="H195" s="37"/>
-      <c r="I195" s="12">
+      <c r="I195" s="63">
         <f t="shared" si="10"/>
         <v>94.042000000000002</v>
       </c>
@@ -7243,7 +7260,7 @@
       <c r="D196" s="37">
         <v>0.17900000000000002</v>
       </c>
-      <c r="E196" s="12">
+      <c r="E196" s="63">
         <f>SUM(C196,E195)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>53.942999999999984</v>
       </c>
@@ -7253,7 +7270,7 @@
         <v>1.25</v>
       </c>
       <c r="H196" s="37"/>
-      <c r="I196" s="12">
+      <c r="I196" s="63">
         <f t="shared" si="10"/>
         <v>95.292000000000002</v>
       </c>
@@ -7270,7 +7287,7 @@
         <v>1.25</v>
       </c>
       <c r="D197" s="37"/>
-      <c r="E197" s="12">
+      <c r="E197" s="63">
         <f>SUM(C197,E196)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>55.192999999999984</v>
       </c>
@@ -7280,7 +7297,7 @@
         <v>1.25</v>
       </c>
       <c r="H197" s="37"/>
-      <c r="I197" s="12">
+      <c r="I197" s="63">
         <f t="shared" si="10"/>
         <v>96.542000000000002</v>
       </c>
@@ -7301,7 +7318,7 @@
       <c r="D198" s="37">
         <v>1.0309999999999999</v>
       </c>
-      <c r="E198" s="12">
+      <c r="E198" s="63">
         <f>SUM(C198,E197)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>55.411999999999985</v>
       </c>
@@ -7311,7 +7328,7 @@
         <v>1.25</v>
       </c>
       <c r="H198" s="37"/>
-      <c r="I198" s="12">
+      <c r="I198" s="63">
         <f t="shared" si="10"/>
         <v>97.792000000000002</v>
       </c>
@@ -7332,7 +7349,7 @@
       <c r="D199" s="37">
         <v>2.1000000000000005E-2</v>
       </c>
-      <c r="E199" s="12">
+      <c r="E199" s="63">
         <f>SUM(C199,E198)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>56.640999999999984</v>
       </c>
@@ -7342,7 +7359,7 @@
         <v>1.25</v>
       </c>
       <c r="H199" s="37"/>
-      <c r="I199" s="12">
+      <c r="I199" s="63">
         <f t="shared" si="10"/>
         <v>99.042000000000002</v>
       </c>
@@ -7363,7 +7380,7 @@
       <c r="D200" s="37">
         <v>1</v>
       </c>
-      <c r="E200" s="12">
+      <c r="E200" s="63">
         <f>SUM(C200,E199)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>56.890999999999984</v>
       </c>
@@ -7373,7 +7390,7 @@
         <v>1.25</v>
       </c>
       <c r="H200" s="37"/>
-      <c r="I200" s="12">
+      <c r="I200" s="63">
         <f t="shared" si="10"/>
         <v>100.292</v>
       </c>
@@ -7389,7 +7406,7 @@
       </c>
       <c r="C201" s="12"/>
       <c r="D201" s="37"/>
-      <c r="E201" s="12">
+      <c r="E201" s="63">
         <f>SUM(C201,E200)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>56.890999999999984</v>
       </c>
@@ -7398,7 +7415,7 @@
       <c r="H201" s="37">
         <v>2</v>
       </c>
-      <c r="I201" s="12">
+      <c r="I201" s="63">
         <f t="shared" si="10"/>
         <v>98.292000000000002</v>
       </c>
@@ -7416,14 +7433,14 @@
       <c r="D202" s="37">
         <v>4.6000000000000006E-2</v>
       </c>
-      <c r="E202" s="12">
+      <c r="E202" s="63">
         <f>SUM(C202,E201)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>56.844999999999985</v>
       </c>
       <c r="F202" s="19"/>
       <c r="G202" s="12"/>
       <c r="H202" s="37"/>
-      <c r="I202" s="12">
+      <c r="I202" s="63">
         <f t="shared" si="10"/>
         <v>98.292000000000002</v>
       </c>
@@ -7444,7 +7461,7 @@
       <c r="D203" s="37">
         <v>8.3000000000000018E-2</v>
       </c>
-      <c r="E203" s="12">
+      <c r="E203" s="63">
         <f>SUM(C203,E202)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>58.011999999999986</v>
       </c>
@@ -7454,7 +7471,7 @@
         <v>1.25</v>
       </c>
       <c r="H203" s="37"/>
-      <c r="I203" s="12">
+      <c r="I203" s="63">
         <f t="shared" si="10"/>
         <v>99.542000000000002</v>
       </c>
@@ -7475,7 +7492,7 @@
       <c r="D204" s="37">
         <v>1</v>
       </c>
-      <c r="E204" s="12">
+      <c r="E204" s="63">
         <f>SUM(C204,E203)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>58.261999999999986</v>
       </c>
@@ -7485,7 +7502,7 @@
         <v>1.25</v>
       </c>
       <c r="H204" s="37"/>
-      <c r="I204" s="12">
+      <c r="I204" s="63">
         <f t="shared" si="10"/>
         <v>100.792</v>
       </c>
@@ -7503,14 +7520,14 @@
       <c r="D205" s="37">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E205" s="12">
+      <c r="E205" s="63">
         <f>SUM(C205,E204)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>58.090999999999987</v>
       </c>
       <c r="F205" s="19"/>
       <c r="G205" s="12"/>
       <c r="H205" s="37"/>
-      <c r="I205" s="12">
+      <c r="I205" s="63">
         <f t="shared" ref="I205:I268" si="14">SUM(G205,I204)-H205</f>
         <v>100.792</v>
       </c>
@@ -7531,7 +7548,7 @@
       <c r="D206" s="37">
         <v>0.57299999999999995</v>
       </c>
-      <c r="E206" s="12">
+      <c r="E206" s="63">
         <f>SUM(C206,E205)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>58.767999999999986</v>
       </c>
@@ -7541,7 +7558,7 @@
         <v>1.25</v>
       </c>
       <c r="H206" s="37"/>
-      <c r="I206" s="12">
+      <c r="I206" s="63">
         <f t="shared" si="14"/>
         <v>102.042</v>
       </c>
@@ -7562,7 +7579,7 @@
       <c r="D207" s="37">
         <v>1</v>
       </c>
-      <c r="E207" s="12">
+      <c r="E207" s="63">
         <f>SUM(C207,E206)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>59.017999999999986</v>
       </c>
@@ -7572,7 +7589,7 @@
         <v>1.25</v>
       </c>
       <c r="H207" s="37"/>
-      <c r="I207" s="12">
+      <c r="I207" s="63">
         <f t="shared" si="14"/>
         <v>103.292</v>
       </c>
@@ -7590,14 +7607,14 @@
       <c r="D208" s="37">
         <v>0.12100000000000001</v>
       </c>
-      <c r="E208" s="12">
+      <c r="E208" s="63">
         <f>SUM(C208,E207)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>58.896999999999984</v>
       </c>
       <c r="F208" s="19"/>
       <c r="G208" s="12"/>
       <c r="H208" s="37"/>
-      <c r="I208" s="12">
+      <c r="I208" s="63">
         <f t="shared" si="14"/>
         <v>103.292</v>
       </c>
@@ -7618,7 +7635,7 @@
       <c r="D209" s="37">
         <v>1</v>
       </c>
-      <c r="E209" s="12">
+      <c r="E209" s="63">
         <f>SUM(C209,E208)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>59.146999999999984</v>
       </c>
@@ -7628,7 +7645,7 @@
         <v>1.25</v>
       </c>
       <c r="H209" s="37"/>
-      <c r="I209" s="12">
+      <c r="I209" s="63">
         <f t="shared" si="14"/>
         <v>104.542</v>
       </c>
@@ -7646,7 +7663,7 @@
       <c r="D210" s="37">
         <v>0.14400000000000002</v>
       </c>
-      <c r="E210" s="12">
+      <c r="E210" s="63">
         <f>SUM(C210,E209)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>59.002999999999986</v>
       </c>
@@ -7656,7 +7673,7 @@
         <v/>
       </c>
       <c r="H210" s="37"/>
-      <c r="I210" s="12">
+      <c r="I210" s="63">
         <f t="shared" si="14"/>
         <v>104.542</v>
       </c>
@@ -7670,7 +7687,7 @@
       <c r="B211" s="19"/>
       <c r="C211" s="12"/>
       <c r="D211" s="37"/>
-      <c r="E211" s="12">
+      <c r="E211" s="63">
         <f>SUM(C211,E210)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>59.002999999999986</v>
       </c>
@@ -7680,7 +7697,7 @@
         <v/>
       </c>
       <c r="H211" s="37"/>
-      <c r="I211" s="12">
+      <c r="I211" s="63">
         <f t="shared" si="14"/>
         <v>104.542</v>
       </c>
@@ -7700,7 +7717,7 @@
       <c r="D212" s="37">
         <v>0.27700000000000002</v>
       </c>
-      <c r="E212" s="12">
+      <c r="E212" s="63">
         <f>SUM(C212,E211)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>59.975999999999985</v>
       </c>
@@ -7710,7 +7727,7 @@
         <v>1.25</v>
       </c>
       <c r="H212" s="37"/>
-      <c r="I212" s="12">
+      <c r="I212" s="63">
         <f t="shared" si="14"/>
         <v>105.792</v>
       </c>
@@ -7731,7 +7748,7 @@
       <c r="D213" s="37">
         <v>0.246</v>
       </c>
-      <c r="E213" s="12">
+      <c r="E213" s="63">
         <f>SUM(C213,E212)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>60.979999999999983</v>
       </c>
@@ -7741,7 +7758,7 @@
         <v>1.25</v>
       </c>
       <c r="H213" s="37"/>
-      <c r="I213" s="12">
+      <c r="I213" s="63">
         <f t="shared" si="14"/>
         <v>107.042</v>
       </c>
@@ -7762,7 +7779,7 @@
       <c r="D214" s="37">
         <v>0.12100000000000001</v>
       </c>
-      <c r="E214" s="12">
+      <c r="E214" s="63">
         <f>SUM(C214,E213)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>62.10899999999998</v>
       </c>
@@ -7772,7 +7789,7 @@
         <v>1.25</v>
       </c>
       <c r="H214" s="37"/>
-      <c r="I214" s="12">
+      <c r="I214" s="63">
         <f t="shared" si="14"/>
         <v>108.292</v>
       </c>
@@ -7793,7 +7810,7 @@
       <c r="D215" s="37">
         <v>1</v>
       </c>
-      <c r="E215" s="12">
+      <c r="E215" s="63">
         <f>SUM(C215,E214)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>62.35899999999998</v>
       </c>
@@ -7803,7 +7820,7 @@
         <v>1.25</v>
       </c>
       <c r="H215" s="37"/>
-      <c r="I215" s="12">
+      <c r="I215" s="63">
         <f t="shared" si="14"/>
         <v>109.542</v>
       </c>
@@ -7821,7 +7838,7 @@
       <c r="D216" s="37">
         <v>2E-3</v>
       </c>
-      <c r="E216" s="12">
+      <c r="E216" s="63">
         <f>SUM(C216,E215)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>62.356999999999978</v>
       </c>
@@ -7831,7 +7848,7 @@
         <v/>
       </c>
       <c r="H216" s="37"/>
-      <c r="I216" s="12">
+      <c r="I216" s="63">
         <f t="shared" si="14"/>
         <v>109.542</v>
       </c>
@@ -7852,7 +7869,7 @@
       <c r="D217" s="37">
         <v>0.54</v>
       </c>
-      <c r="E217" s="12">
+      <c r="E217" s="63">
         <f>SUM(C217,E216)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>63.066999999999979</v>
       </c>
@@ -7862,7 +7879,7 @@
         <v>1.25</v>
       </c>
       <c r="H217" s="37"/>
-      <c r="I217" s="12">
+      <c r="I217" s="63">
         <f t="shared" si="14"/>
         <v>110.792</v>
       </c>
@@ -7883,7 +7900,7 @@
       <c r="D218" s="37">
         <v>4</v>
       </c>
-      <c r="E218" s="12">
+      <c r="E218" s="63">
         <f>SUM(C218,E217)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>60.316999999999979</v>
       </c>
@@ -7893,7 +7910,7 @@
         <v>1.25</v>
       </c>
       <c r="H218" s="37"/>
-      <c r="I218" s="12">
+      <c r="I218" s="63">
         <f t="shared" si="14"/>
         <v>112.042</v>
       </c>
@@ -7916,7 +7933,7 @@
       <c r="D219" s="37">
         <v>8.1000000000000016E-2</v>
       </c>
-      <c r="E219" s="12">
+      <c r="E219" s="63">
         <f>SUM(C219,E218)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>61.485999999999976</v>
       </c>
@@ -7926,7 +7943,7 @@
         <v>1.25</v>
       </c>
       <c r="H219" s="37"/>
-      <c r="I219" s="12">
+      <c r="I219" s="63">
         <f t="shared" si="14"/>
         <v>113.292</v>
       </c>
@@ -7945,7 +7962,7 @@
         <v>1.25</v>
       </c>
       <c r="D220" s="37"/>
-      <c r="E220" s="12">
+      <c r="E220" s="63">
         <f>SUM(C220,E219)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>62.735999999999976</v>
       </c>
@@ -7955,7 +7972,7 @@
         <v>1.25</v>
       </c>
       <c r="H220" s="37"/>
-      <c r="I220" s="12">
+      <c r="I220" s="63">
         <f t="shared" si="14"/>
         <v>114.542</v>
       </c>
@@ -7973,14 +7990,14 @@
       <c r="D221" s="37">
         <v>0.17500000000000002</v>
       </c>
-      <c r="E221" s="12">
+      <c r="E221" s="63">
         <f>SUM(C221,E220)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>62.560999999999979</v>
       </c>
       <c r="F221" s="19"/>
       <c r="G221" s="12"/>
       <c r="H221" s="37"/>
-      <c r="I221" s="12">
+      <c r="I221" s="63">
         <f t="shared" si="14"/>
         <v>114.542</v>
       </c>
@@ -7999,7 +8016,7 @@
         <v>1.25</v>
       </c>
       <c r="D222" s="37"/>
-      <c r="E222" s="12">
+      <c r="E222" s="63">
         <f>SUM(C222,E221)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>63.810999999999979</v>
       </c>
@@ -8009,7 +8026,7 @@
         <v>1.25</v>
       </c>
       <c r="H222" s="37"/>
-      <c r="I222" s="12">
+      <c r="I222" s="63">
         <f t="shared" si="14"/>
         <v>115.792</v>
       </c>
@@ -8027,14 +8044,14 @@
       <c r="D223" s="37">
         <v>0.14800000000000002</v>
       </c>
-      <c r="E223" s="12">
+      <c r="E223" s="63">
         <f>SUM(C223,E222)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>63.662999999999975</v>
       </c>
       <c r="F223" s="19"/>
       <c r="G223" s="12"/>
       <c r="H223" s="37"/>
-      <c r="I223" s="12">
+      <c r="I223" s="63">
         <f t="shared" si="14"/>
         <v>115.792</v>
       </c>
@@ -8055,7 +8072,7 @@
       <c r="D224" s="37">
         <v>0.53700000000000003</v>
       </c>
-      <c r="E224" s="12">
+      <c r="E224" s="63">
         <f>SUM(C224,E223)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>64.375999999999976</v>
       </c>
@@ -8065,7 +8082,7 @@
         <v>1.25</v>
       </c>
       <c r="H224" s="37"/>
-      <c r="I224" s="12">
+      <c r="I224" s="63">
         <f t="shared" si="14"/>
         <v>117.042</v>
       </c>
@@ -8084,7 +8101,7 @@
         <v>1.25</v>
       </c>
       <c r="D225" s="37"/>
-      <c r="E225" s="12">
+      <c r="E225" s="63">
         <f>SUM(C225,E224)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>65.625999999999976</v>
       </c>
@@ -8094,7 +8111,7 @@
         <v>1.25</v>
       </c>
       <c r="H225" s="37"/>
-      <c r="I225" s="12">
+      <c r="I225" s="63">
         <f t="shared" si="14"/>
         <v>118.292</v>
       </c>
@@ -8112,14 +8129,14 @@
       <c r="D226" s="37">
         <v>0.15000000000000002</v>
       </c>
-      <c r="E226" s="12">
+      <c r="E226" s="63">
         <f>SUM(C226,E225)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>65.475999999999971</v>
       </c>
       <c r="F226" s="19"/>
       <c r="G226" s="12"/>
       <c r="H226" s="37"/>
-      <c r="I226" s="12">
+      <c r="I226" s="63">
         <f t="shared" si="14"/>
         <v>118.292</v>
       </c>
@@ -8140,7 +8157,7 @@
       <c r="D227" s="37">
         <v>0.20600000000000002</v>
       </c>
-      <c r="E227" s="12">
+      <c r="E227" s="63">
         <f>SUM(C227,E226)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>66.519999999999968</v>
       </c>
@@ -8150,7 +8167,7 @@
         <v>1.25</v>
       </c>
       <c r="H227" s="37"/>
-      <c r="I227" s="12">
+      <c r="I227" s="63">
         <f t="shared" si="14"/>
         <v>119.542</v>
       </c>
@@ -8164,7 +8181,7 @@
       <c r="B228" s="19"/>
       <c r="C228" s="12"/>
       <c r="D228" s="37"/>
-      <c r="E228" s="12">
+      <c r="E228" s="63">
         <f>SUM(C228,E227)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>66.519999999999968</v>
       </c>
@@ -8174,7 +8191,7 @@
         <v/>
       </c>
       <c r="H228" s="37"/>
-      <c r="I228" s="12">
+      <c r="I228" s="63">
         <f t="shared" si="14"/>
         <v>119.542</v>
       </c>
@@ -8194,7 +8211,7 @@
       <c r="D229" s="37">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E229" s="12">
+      <c r="E229" s="63">
         <f>SUM(C229,E228)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>67.673999999999964</v>
       </c>
@@ -8204,7 +8221,7 @@
         <v>1.25</v>
       </c>
       <c r="H229" s="37"/>
-      <c r="I229" s="12">
+      <c r="I229" s="63">
         <f t="shared" si="14"/>
         <v>120.792</v>
       </c>
@@ -8225,7 +8242,7 @@
       <c r="D230" s="37">
         <v>1.1600000000000001</v>
       </c>
-      <c r="E230" s="12">
+      <c r="E230" s="63">
         <f>SUM(C230,E229)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>67.763999999999967</v>
       </c>
@@ -8235,7 +8252,7 @@
         <v>1.25</v>
       </c>
       <c r="H230" s="37"/>
-      <c r="I230" s="12">
+      <c r="I230" s="63">
         <f t="shared" si="14"/>
         <v>122.042</v>
       </c>
@@ -8254,7 +8271,7 @@
         <v>1.25</v>
       </c>
       <c r="D231" s="37"/>
-      <c r="E231" s="12">
+      <c r="E231" s="63">
         <f>SUM(C231,E230)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>69.013999999999967</v>
       </c>
@@ -8264,7 +8281,7 @@
         <v>1.25</v>
       </c>
       <c r="H231" s="37"/>
-      <c r="I231" s="12">
+      <c r="I231" s="63">
         <f t="shared" si="14"/>
         <v>123.292</v>
       </c>
@@ -8282,14 +8299,14 @@
       <c r="D232" s="37">
         <v>0.11900000000000001</v>
       </c>
-      <c r="E232" s="12">
+      <c r="E232" s="63">
         <f>SUM(C232,E231)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>68.894999999999968</v>
       </c>
       <c r="F232" s="19"/>
       <c r="G232" s="12"/>
       <c r="H232" s="37"/>
-      <c r="I232" s="12">
+      <c r="I232" s="63">
         <f t="shared" si="14"/>
         <v>123.292</v>
       </c>
@@ -8310,7 +8327,7 @@
       <c r="D233" s="37">
         <v>0.1</v>
       </c>
-      <c r="E233" s="12">
+      <c r="E233" s="63">
         <f>SUM(C233,E232)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>70.044999999999973</v>
       </c>
@@ -8320,7 +8337,7 @@
         <v>1.25</v>
       </c>
       <c r="H233" s="37"/>
-      <c r="I233" s="12">
+      <c r="I233" s="63">
         <f t="shared" si="14"/>
         <v>124.542</v>
       </c>
@@ -8341,7 +8358,7 @@
       <c r="D234" s="37">
         <v>0.21000000000000002</v>
       </c>
-      <c r="E234" s="12">
+      <c r="E234" s="63">
         <f>SUM(C234,E233)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>71.08499999999998</v>
       </c>
@@ -8351,7 +8368,7 @@
         <v>1.25</v>
       </c>
       <c r="H234" s="37"/>
-      <c r="I234" s="12">
+      <c r="I234" s="63">
         <f t="shared" si="14"/>
         <v>125.792</v>
       </c>
@@ -8372,7 +8389,7 @@
       <c r="D235" s="37">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E235" s="12">
+      <c r="E235" s="63">
         <f>SUM(C235,E234)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>72.201999999999984</v>
       </c>
@@ -8382,7 +8399,7 @@
         <v>1.25</v>
       </c>
       <c r="H235" s="37"/>
-      <c r="I235" s="12">
+      <c r="I235" s="63">
         <f t="shared" si="14"/>
         <v>127.042</v>
       </c>
@@ -8403,7 +8420,7 @@
       <c r="D236" s="37">
         <v>0.25600000000000001</v>
       </c>
-      <c r="E236" s="12">
+      <c r="E236" s="63">
         <f>SUM(C236,E235)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>73.195999999999984</v>
       </c>
@@ -8413,7 +8430,7 @@
         <v>1.25</v>
       </c>
       <c r="H236" s="37"/>
-      <c r="I236" s="12">
+      <c r="I236" s="63">
         <f t="shared" si="14"/>
         <v>128.292</v>
       </c>
@@ -8432,7 +8449,7 @@
         <v>1.25</v>
       </c>
       <c r="D237" s="37"/>
-      <c r="E237" s="12">
+      <c r="E237" s="63">
         <f>SUM(C237,E236)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>74.445999999999984</v>
       </c>
@@ -8442,7 +8459,7 @@
         <v>1.25</v>
       </c>
       <c r="H237" s="37"/>
-      <c r="I237" s="12">
+      <c r="I237" s="63">
         <f t="shared" si="14"/>
         <v>129.542</v>
       </c>
@@ -8460,14 +8477,14 @@
       <c r="D238" s="37">
         <v>0.19400000000000001</v>
       </c>
-      <c r="E238" s="12">
+      <c r="E238" s="63">
         <f>SUM(C238,E237)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>74.251999999999981</v>
       </c>
       <c r="F238" s="19"/>
       <c r="G238" s="12"/>
       <c r="H238" s="37"/>
-      <c r="I238" s="12">
+      <c r="I238" s="63">
         <f t="shared" si="14"/>
         <v>129.542</v>
       </c>
@@ -8488,7 +8505,7 @@
       <c r="D239" s="37">
         <v>1</v>
       </c>
-      <c r="E239" s="12">
+      <c r="E239" s="63">
         <f>SUM(C239,E238)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>74.501999999999981</v>
       </c>
@@ -8498,7 +8515,7 @@
         <v>1.25</v>
       </c>
       <c r="H239" s="37"/>
-      <c r="I239" s="12">
+      <c r="I239" s="63">
         <f t="shared" si="14"/>
         <v>130.792</v>
       </c>
@@ -8516,14 +8533,14 @@
       <c r="D240" s="37">
         <v>0.66</v>
       </c>
-      <c r="E240" s="12">
+      <c r="E240" s="63">
         <f>SUM(C240,E239)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>73.841999999999985</v>
       </c>
       <c r="F240" s="19"/>
       <c r="G240" s="12"/>
       <c r="H240" s="37"/>
-      <c r="I240" s="12">
+      <c r="I240" s="63">
         <f t="shared" si="14"/>
         <v>130.792</v>
       </c>
@@ -8544,7 +8561,7 @@
       <c r="D241" s="37">
         <v>1.087</v>
       </c>
-      <c r="E241" s="12">
+      <c r="E241" s="63">
         <f>SUM(C241,E240)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>74.004999999999981</v>
       </c>
@@ -8554,7 +8571,7 @@
         <v>1.25</v>
       </c>
       <c r="H241" s="37"/>
-      <c r="I241" s="12">
+      <c r="I241" s="63">
         <f t="shared" si="14"/>
         <v>132.042</v>
       </c>
@@ -8573,7 +8590,7 @@
         <v>1.25</v>
       </c>
       <c r="D242" s="37"/>
-      <c r="E242" s="12">
+      <c r="E242" s="63">
         <f>SUM(C242,E241)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>75.254999999999981</v>
       </c>
@@ -8583,7 +8600,7 @@
         <v>1.25</v>
       </c>
       <c r="H242" s="37"/>
-      <c r="I242" s="12">
+      <c r="I242" s="63">
         <f t="shared" si="14"/>
         <v>133.292</v>
       </c>
@@ -8601,14 +8618,14 @@
       <c r="D243" s="37">
         <v>1</v>
       </c>
-      <c r="E243" s="12">
+      <c r="E243" s="63">
         <f>SUM(C243,E242)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>74.254999999999981</v>
       </c>
       <c r="F243" s="19"/>
       <c r="G243" s="12"/>
       <c r="H243" s="37"/>
-      <c r="I243" s="12">
+      <c r="I243" s="63">
         <f t="shared" si="14"/>
         <v>133.292</v>
       </c>
@@ -8624,7 +8641,7 @@
       </c>
       <c r="C244" s="12"/>
       <c r="D244" s="37"/>
-      <c r="E244" s="12">
+      <c r="E244" s="63">
         <f>SUM(C244,E243)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>74.254999999999981</v>
       </c>
@@ -8633,7 +8650,7 @@
       <c r="H244" s="37">
         <v>1</v>
       </c>
-      <c r="I244" s="12">
+      <c r="I244" s="63">
         <f t="shared" si="14"/>
         <v>132.292</v>
       </c>
@@ -8651,14 +8668,14 @@
       <c r="D245" s="37">
         <v>7.9000000000000015E-2</v>
       </c>
-      <c r="E245" s="12">
+      <c r="E245" s="63">
         <f>SUM(C245,E244)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>74.175999999999988</v>
       </c>
       <c r="F245" s="19"/>
       <c r="G245" s="12"/>
       <c r="H245" s="37"/>
-      <c r="I245" s="12">
+      <c r="I245" s="63">
         <f t="shared" si="14"/>
         <v>132.292</v>
       </c>
@@ -8679,7 +8696,7 @@
       <c r="D246" s="37">
         <v>3</v>
       </c>
-      <c r="E246" s="12">
+      <c r="E246" s="63">
         <f>SUM(C246,E245)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>72.425999999999988</v>
       </c>
@@ -8689,7 +8706,7 @@
         <v>1.25</v>
       </c>
       <c r="H246" s="37"/>
-      <c r="I246" s="12">
+      <c r="I246" s="63">
         <f t="shared" si="14"/>
         <v>133.542</v>
       </c>
@@ -8705,7 +8722,7 @@
       <c r="D247" s="37">
         <v>0.38700000000000001</v>
       </c>
-      <c r="E247" s="12">
+      <c r="E247" s="63">
         <f>SUM(C247,E246)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>72.038999999999987</v>
       </c>
@@ -8715,7 +8732,7 @@
         <v/>
       </c>
       <c r="H247" s="37"/>
-      <c r="I247" s="12">
+      <c r="I247" s="63">
         <f t="shared" si="14"/>
         <v>133.542</v>
       </c>
@@ -8729,7 +8746,7 @@
       <c r="B248" s="19"/>
       <c r="C248" s="12"/>
       <c r="D248" s="37"/>
-      <c r="E248" s="12">
+      <c r="E248" s="63">
         <f>SUM(C248,E247)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>72.038999999999987</v>
       </c>
@@ -8739,7 +8756,7 @@
         <v/>
       </c>
       <c r="H248" s="37"/>
-      <c r="I248" s="12">
+      <c r="I248" s="63">
         <f t="shared" si="14"/>
         <v>133.542</v>
       </c>
@@ -8759,7 +8776,7 @@
       <c r="D249" s="37">
         <v>1</v>
       </c>
-      <c r="E249" s="12">
+      <c r="E249" s="63">
         <f>SUM(C249,E248)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>72.288999999999987</v>
       </c>
@@ -8769,7 +8786,7 @@
         <v>1.25</v>
       </c>
       <c r="H249" s="37"/>
-      <c r="I249" s="12">
+      <c r="I249" s="63">
         <f t="shared" si="14"/>
         <v>134.792</v>
       </c>
@@ -8790,7 +8807,7 @@
       <c r="D250" s="37">
         <v>2</v>
       </c>
-      <c r="E250" s="12">
+      <c r="E250" s="63">
         <f>SUM(C250,E249)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>71.538999999999987</v>
       </c>
@@ -8800,7 +8817,7 @@
         <v>1.25</v>
       </c>
       <c r="H250" s="37"/>
-      <c r="I250" s="12">
+      <c r="I250" s="63">
         <f t="shared" si="14"/>
         <v>136.042</v>
       </c>
@@ -8818,14 +8835,14 @@
       <c r="D251" s="37">
         <v>2.5000000000000008E-2</v>
       </c>
-      <c r="E251" s="12">
+      <c r="E251" s="63">
         <f>SUM(C251,E250)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>71.513999999999982</v>
       </c>
       <c r="F251" s="19"/>
       <c r="G251" s="12"/>
       <c r="H251" s="37"/>
-      <c r="I251" s="12">
+      <c r="I251" s="63">
         <f t="shared" si="14"/>
         <v>136.042</v>
       </c>
@@ -8846,7 +8863,7 @@
       <c r="D252" s="37">
         <v>1</v>
       </c>
-      <c r="E252" s="12">
+      <c r="E252" s="63">
         <f>SUM(C252,E251)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>71.763999999999982</v>
       </c>
@@ -8856,7 +8873,7 @@
         <v>1.25</v>
       </c>
       <c r="H252" s="37"/>
-      <c r="I252" s="12">
+      <c r="I252" s="63">
         <f t="shared" si="14"/>
         <v>137.292</v>
       </c>
@@ -8874,14 +8891,14 @@
       <c r="D253" s="37">
         <v>0.16200000000000003</v>
       </c>
-      <c r="E253" s="12">
+      <c r="E253" s="63">
         <f>SUM(C253,E252)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>71.601999999999975</v>
       </c>
       <c r="F253" s="19"/>
       <c r="G253" s="12"/>
       <c r="H253" s="37"/>
-      <c r="I253" s="12">
+      <c r="I253" s="63">
         <f t="shared" si="14"/>
         <v>137.292</v>
       </c>
@@ -8902,7 +8919,7 @@
       <c r="D254" s="37">
         <v>1.1850000000000001</v>
       </c>
-      <c r="E254" s="12">
+      <c r="E254" s="63">
         <f>SUM(C254,E253)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>71.666999999999973</v>
       </c>
@@ -8912,7 +8929,7 @@
         <v>1.25</v>
       </c>
       <c r="H254" s="37"/>
-      <c r="I254" s="12">
+      <c r="I254" s="63">
         <f t="shared" si="14"/>
         <v>138.542</v>
       </c>
@@ -8933,7 +8950,7 @@
       <c r="D255" s="37">
         <v>8.1000000000000016E-2</v>
       </c>
-      <c r="E255" s="12">
+      <c r="E255" s="63">
         <f>SUM(C255,E254)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>72.83599999999997</v>
       </c>
@@ -8943,7 +8960,7 @@
         <v>1.25</v>
       </c>
       <c r="H255" s="37"/>
-      <c r="I255" s="12">
+      <c r="I255" s="63">
         <f t="shared" si="14"/>
         <v>139.792</v>
       </c>
@@ -8964,7 +8981,7 @@
       <c r="D256" s="37">
         <v>0.57299999999999995</v>
       </c>
-      <c r="E256" s="12">
+      <c r="E256" s="63">
         <f>SUM(C256,E255)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>73.512999999999977</v>
       </c>
@@ -8974,7 +8991,7 @@
         <v>1.25</v>
       </c>
       <c r="H256" s="37"/>
-      <c r="I256" s="12">
+      <c r="I256" s="63">
         <f t="shared" si="14"/>
         <v>141.042</v>
       </c>
@@ -8993,7 +9010,7 @@
         <v>1.25</v>
       </c>
       <c r="D257" s="37"/>
-      <c r="E257" s="12">
+      <c r="E257" s="63">
         <f>SUM(C257,E256)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>74.762999999999977</v>
       </c>
@@ -9003,7 +9020,7 @@
         <v>1.25</v>
       </c>
       <c r="H257" s="37"/>
-      <c r="I257" s="12">
+      <c r="I257" s="63">
         <f t="shared" si="14"/>
         <v>142.292</v>
       </c>
@@ -9021,14 +9038,14 @@
       <c r="D258" s="37">
         <v>2.504</v>
       </c>
-      <c r="E258" s="12">
+      <c r="E258" s="63">
         <f>SUM(C258,E257)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>72.258999999999972</v>
       </c>
       <c r="F258" s="19"/>
       <c r="G258" s="12"/>
       <c r="H258" s="37"/>
-      <c r="I258" s="12">
+      <c r="I258" s="63">
         <f t="shared" si="14"/>
         <v>142.292</v>
       </c>
@@ -9049,7 +9066,7 @@
       <c r="D259" s="37">
         <v>1</v>
       </c>
-      <c r="E259" s="12">
+      <c r="E259" s="63">
         <f>SUM(C259,E258)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>72.508999999999972</v>
       </c>
@@ -9059,7 +9076,7 @@
         <v>1.25</v>
       </c>
       <c r="H259" s="37"/>
-      <c r="I259" s="12">
+      <c r="I259" s="63">
         <f t="shared" si="14"/>
         <v>143.542</v>
       </c>
@@ -9080,7 +9097,7 @@
       <c r="D260" s="37">
         <v>3</v>
       </c>
-      <c r="E260" s="12">
+      <c r="E260" s="63">
         <f>SUM(C260,E259)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>70.758999999999972</v>
       </c>
@@ -9090,7 +9107,7 @@
         <v>1.25</v>
       </c>
       <c r="H260" s="37"/>
-      <c r="I260" s="12">
+      <c r="I260" s="63">
         <f t="shared" si="14"/>
         <v>144.792</v>
       </c>
@@ -9111,7 +9128,7 @@
       <c r="D261" s="37">
         <v>1</v>
       </c>
-      <c r="E261" s="12">
+      <c r="E261" s="63">
         <f>SUM(C261,E260)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>71.008999999999972</v>
       </c>
@@ -9121,7 +9138,7 @@
         <v>1.25</v>
       </c>
       <c r="H261" s="37"/>
-      <c r="I261" s="12">
+      <c r="I261" s="63">
         <f t="shared" si="14"/>
         <v>146.042</v>
       </c>
@@ -9137,14 +9154,14 @@
       </c>
       <c r="C262" s="12"/>
       <c r="D262" s="37"/>
-      <c r="E262" s="12">
+      <c r="E262" s="63">
         <f>SUM(C262,E261)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>71.008999999999972</v>
       </c>
       <c r="F262" s="19"/>
       <c r="G262" s="12"/>
       <c r="H262" s="37"/>
-      <c r="I262" s="12">
+      <c r="I262" s="63">
         <f t="shared" si="14"/>
         <v>146.042</v>
       </c>
@@ -9160,7 +9177,7 @@
       </c>
       <c r="C263" s="12"/>
       <c r="D263" s="37"/>
-      <c r="E263" s="12">
+      <c r="E263" s="63">
         <f>SUM(C263,E262)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>71.008999999999972</v>
       </c>
@@ -9169,7 +9186,7 @@
       <c r="H263" s="37">
         <v>1</v>
       </c>
-      <c r="I263" s="12">
+      <c r="I263" s="63">
         <f t="shared" si="14"/>
         <v>145.042</v>
       </c>
@@ -9188,7 +9205,7 @@
         <v>1.25</v>
       </c>
       <c r="D264" s="37"/>
-      <c r="E264" s="12">
+      <c r="E264" s="63">
         <f>SUM(C264,E263)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>72.258999999999972</v>
       </c>
@@ -9198,7 +9215,7 @@
         <v>1.25</v>
       </c>
       <c r="H264" s="37"/>
-      <c r="I264" s="12">
+      <c r="I264" s="63">
         <f t="shared" si="14"/>
         <v>146.292</v>
       </c>
@@ -9219,7 +9236,7 @@
       <c r="D265" s="37">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E265" s="12">
+      <c r="E265" s="63">
         <f>SUM(C265,E264)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>73.500999999999976</v>
       </c>
@@ -9229,7 +9246,7 @@
         <v>1.25</v>
       </c>
       <c r="H265" s="37"/>
-      <c r="I265" s="12">
+      <c r="I265" s="63">
         <f t="shared" si="14"/>
         <v>147.542</v>
       </c>
@@ -9243,7 +9260,7 @@
       <c r="B266" s="19"/>
       <c r="C266" s="12"/>
       <c r="D266" s="37"/>
-      <c r="E266" s="12">
+      <c r="E266" s="63">
         <f>SUM(C266,E265)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>73.500999999999976</v>
       </c>
@@ -9253,7 +9270,7 @@
         <v/>
       </c>
       <c r="H266" s="37"/>
-      <c r="I266" s="12">
+      <c r="I266" s="63">
         <f t="shared" si="14"/>
         <v>147.542</v>
       </c>
@@ -9269,7 +9286,7 @@
         <v>1.25</v>
       </c>
       <c r="D267" s="37"/>
-      <c r="E267" s="12">
+      <c r="E267" s="63">
         <f>SUM(C267,E266)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>74.750999999999976</v>
       </c>
@@ -9279,7 +9296,7 @@
         <v>1.25</v>
       </c>
       <c r="H267" s="37"/>
-      <c r="I267" s="12">
+      <c r="I267" s="63">
         <f t="shared" si="14"/>
         <v>148.792</v>
       </c>
@@ -9300,7 +9317,7 @@
       <c r="D268" s="37">
         <v>2</v>
       </c>
-      <c r="E268" s="12">
+      <c r="E268" s="63">
         <f>SUM(C268,E267)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>74.000999999999976</v>
       </c>
@@ -9310,7 +9327,7 @@
         <v>1.25</v>
       </c>
       <c r="H268" s="37"/>
-      <c r="I268" s="12">
+      <c r="I268" s="63">
         <f t="shared" si="14"/>
         <v>150.042</v>
       </c>
@@ -9329,7 +9346,7 @@
         <v>1.25</v>
       </c>
       <c r="D269" s="37"/>
-      <c r="E269" s="12">
+      <c r="E269" s="63">
         <f>SUM(C269,E268)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>75.250999999999976</v>
       </c>
@@ -9339,7 +9356,7 @@
         <v>1.25</v>
       </c>
       <c r="H269" s="37"/>
-      <c r="I269" s="12">
+      <c r="I269" s="63">
         <f t="shared" ref="I269:I332" si="19">SUM(G269,I268)-H269</f>
         <v>151.292</v>
       </c>
@@ -9360,7 +9377,7 @@
       <c r="D270" s="37">
         <v>1</v>
       </c>
-      <c r="E270" s="12">
+      <c r="E270" s="63">
         <f>SUM(C270,E269)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>75.500999999999976</v>
       </c>
@@ -9370,7 +9387,7 @@
         <v>1.25</v>
       </c>
       <c r="H270" s="37"/>
-      <c r="I270" s="12">
+      <c r="I270" s="63">
         <f t="shared" si="19"/>
         <v>152.542</v>
       </c>
@@ -9389,7 +9406,7 @@
         <v>1.25</v>
       </c>
       <c r="D271" s="37"/>
-      <c r="E271" s="12">
+      <c r="E271" s="63">
         <f>SUM(C271,E270)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>76.750999999999976</v>
       </c>
@@ -9399,7 +9416,7 @@
         <v>1.25</v>
       </c>
       <c r="H271" s="37"/>
-      <c r="I271" s="12">
+      <c r="I271" s="63">
         <f t="shared" si="19"/>
         <v>153.792</v>
       </c>
@@ -9416,7 +9433,7 @@
         <v>1.25</v>
       </c>
       <c r="D272" s="37"/>
-      <c r="E272" s="12">
+      <c r="E272" s="63">
         <f>SUM(C272,E271)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>78.000999999999976</v>
       </c>
@@ -9426,7 +9443,7 @@
         <v>1.25</v>
       </c>
       <c r="H272" s="37"/>
-      <c r="I272" s="12">
+      <c r="I272" s="63">
         <f t="shared" si="19"/>
         <v>155.042</v>
       </c>
@@ -9447,7 +9464,7 @@
       <c r="D273" s="37">
         <v>2E-3</v>
       </c>
-      <c r="E273" s="12">
+      <c r="E273" s="63">
         <f>SUM(C273,E272)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>79.248999999999981</v>
       </c>
@@ -9457,7 +9474,7 @@
         <v>1.25</v>
       </c>
       <c r="H273" s="37"/>
-      <c r="I273" s="12">
+      <c r="I273" s="63">
         <f t="shared" si="19"/>
         <v>156.292</v>
       </c>
@@ -9476,7 +9493,7 @@
         <v>1.25</v>
       </c>
       <c r="D274" s="37"/>
-      <c r="E274" s="12">
+      <c r="E274" s="63">
         <f>SUM(C274,E273)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>80.498999999999981</v>
       </c>
@@ -9486,7 +9503,7 @@
         <v>1.25</v>
       </c>
       <c r="H274" s="37"/>
-      <c r="I274" s="12">
+      <c r="I274" s="63">
         <f t="shared" si="19"/>
         <v>157.542</v>
       </c>
@@ -9504,14 +9521,14 @@
       <c r="D275" s="37">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E275" s="12">
+      <c r="E275" s="63">
         <f>SUM(C275,E274)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>80.494999999999976</v>
       </c>
       <c r="F275" s="19"/>
       <c r="G275" s="12"/>
       <c r="H275" s="37"/>
-      <c r="I275" s="12">
+      <c r="I275" s="63">
         <f t="shared" si="19"/>
         <v>157.542</v>
       </c>
@@ -9532,7 +9549,7 @@
       <c r="D276" s="37">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E276" s="12">
+      <c r="E276" s="63">
         <f>SUM(C276,E275)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>81.738999999999976</v>
       </c>
@@ -9542,7 +9559,7 @@
         <v>1.25</v>
       </c>
       <c r="H276" s="37"/>
-      <c r="I276" s="12">
+      <c r="I276" s="63">
         <f t="shared" si="19"/>
         <v>158.792</v>
       </c>
@@ -9561,7 +9578,7 @@
         <v>1.25</v>
       </c>
       <c r="D277" s="37"/>
-      <c r="E277" s="12">
+      <c r="E277" s="63">
         <f>SUM(C277,E276)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>82.988999999999976</v>
       </c>
@@ -9571,7 +9588,7 @@
         <v>1.25</v>
       </c>
       <c r="H277" s="37"/>
-      <c r="I277" s="12">
+      <c r="I277" s="63">
         <f t="shared" si="19"/>
         <v>160.042</v>
       </c>
@@ -9589,14 +9606,14 @@
       <c r="D278" s="37">
         <v>1</v>
       </c>
-      <c r="E278" s="12">
+      <c r="E278" s="63">
         <f>SUM(C278,E277)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>81.988999999999976</v>
       </c>
       <c r="F278" s="19"/>
       <c r="G278" s="12"/>
       <c r="H278" s="37"/>
-      <c r="I278" s="12">
+      <c r="I278" s="63">
         <f t="shared" si="19"/>
         <v>160.042</v>
       </c>
@@ -9612,14 +9629,14 @@
       <c r="D279" s="37">
         <v>0.01</v>
       </c>
-      <c r="E279" s="12">
+      <c r="E279" s="63">
         <f>SUM(C279,E278)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>81.978999999999971</v>
       </c>
       <c r="F279" s="19"/>
       <c r="G279" s="12"/>
       <c r="H279" s="37"/>
-      <c r="I279" s="12">
+      <c r="I279" s="63">
         <f t="shared" si="19"/>
         <v>160.042</v>
       </c>
@@ -9638,7 +9655,7 @@
         <v>1.25</v>
       </c>
       <c r="D280" s="37"/>
-      <c r="E280" s="12">
+      <c r="E280" s="63">
         <f>SUM(C280,E279)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>83.228999999999971</v>
       </c>
@@ -9650,7 +9667,7 @@
       <c r="H280" s="37">
         <v>1</v>
       </c>
-      <c r="I280" s="12">
+      <c r="I280" s="63">
         <f t="shared" si="19"/>
         <v>160.292</v>
       </c>
@@ -9673,7 +9690,7 @@
       <c r="D281" s="37">
         <v>1</v>
       </c>
-      <c r="E281" s="12">
+      <c r="E281" s="63">
         <f>SUM(C281,E280)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>83.478999999999971</v>
       </c>
@@ -9683,7 +9700,7 @@
         <v>1.25</v>
       </c>
       <c r="H281" s="37"/>
-      <c r="I281" s="12">
+      <c r="I281" s="63">
         <f t="shared" si="19"/>
         <v>161.542</v>
       </c>
@@ -9699,7 +9716,7 @@
       <c r="B282" s="19"/>
       <c r="C282" s="12"/>
       <c r="D282" s="37"/>
-      <c r="E282" s="12">
+      <c r="E282" s="63">
         <f>SUM(C282,E281)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>83.478999999999971</v>
       </c>
@@ -9709,7 +9726,7 @@
         <v/>
       </c>
       <c r="H282" s="37"/>
-      <c r="I282" s="12">
+      <c r="I282" s="63">
         <f t="shared" si="19"/>
         <v>161.542</v>
       </c>
@@ -9725,7 +9742,7 @@
         <v>1.25</v>
       </c>
       <c r="D283" s="37"/>
-      <c r="E283" s="12">
+      <c r="E283" s="63">
         <f>SUM(C283,E282)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>84.728999999999971</v>
       </c>
@@ -9735,7 +9752,7 @@
         <v>1.25</v>
       </c>
       <c r="H283" s="37"/>
-      <c r="I283" s="12">
+      <c r="I283" s="63">
         <f t="shared" si="19"/>
         <v>162.792</v>
       </c>
@@ -9755,7 +9772,7 @@
       <c r="D284" s="37">
         <v>1</v>
       </c>
-      <c r="E284" s="12">
+      <c r="E284" s="63">
         <f>SUM(C284,E283)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>84.978999999999971</v>
       </c>
@@ -9765,7 +9782,7 @@
         <v>1.25</v>
       </c>
       <c r="H284" s="37"/>
-      <c r="I284" s="12">
+      <c r="I284" s="63">
         <f t="shared" si="19"/>
         <v>164.042</v>
       </c>
@@ -9783,7 +9800,7 @@
       <c r="D285" s="37">
         <v>3</v>
       </c>
-      <c r="E285" s="12">
+      <c r="E285" s="63">
         <f>SUM(C285,E284)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>81.978999999999971</v>
       </c>
@@ -9793,7 +9810,7 @@
         <v/>
       </c>
       <c r="H285" s="37"/>
-      <c r="I285" s="12">
+      <c r="I285" s="63">
         <f t="shared" si="19"/>
         <v>164.042</v>
       </c>
@@ -9811,7 +9828,7 @@
         <v>1.25</v>
       </c>
       <c r="D286" s="37"/>
-      <c r="E286" s="12">
+      <c r="E286" s="63">
         <f>SUM(C286,E285)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>83.228999999999971</v>
       </c>
@@ -9821,7 +9838,7 @@
         <v>1.25</v>
       </c>
       <c r="H286" s="37"/>
-      <c r="I286" s="12">
+      <c r="I286" s="63">
         <f t="shared" si="19"/>
         <v>165.292</v>
       </c>
@@ -9839,7 +9856,7 @@
         <v>1.25</v>
       </c>
       <c r="D287" s="37"/>
-      <c r="E287" s="12">
+      <c r="E287" s="63">
         <f>SUM(C287,E286)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>84.478999999999971</v>
       </c>
@@ -9849,7 +9866,7 @@
         <v>1.25</v>
       </c>
       <c r="H287" s="37"/>
-      <c r="I287" s="12">
+      <c r="I287" s="63">
         <f t="shared" si="19"/>
         <v>166.542</v>
       </c>
@@ -9867,7 +9884,7 @@
       <c r="D288" s="41">
         <v>2</v>
       </c>
-      <c r="E288" s="12">
+      <c r="E288" s="63">
         <f>SUM(C288,E287)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>82.478999999999971</v>
       </c>
@@ -9877,7 +9894,7 @@
         <v/>
       </c>
       <c r="H288" s="41"/>
-      <c r="I288" s="12">
+      <c r="I288" s="63">
         <f t="shared" si="19"/>
         <v>166.542</v>
       </c>
@@ -9895,7 +9912,7 @@
         <v>1.25</v>
       </c>
       <c r="D289" s="37"/>
-      <c r="E289" s="12">
+      <c r="E289" s="63">
         <f>SUM(C289,E288)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>83.728999999999971</v>
       </c>
@@ -9905,7 +9922,7 @@
         <v>1.25</v>
       </c>
       <c r="H289" s="37"/>
-      <c r="I289" s="12">
+      <c r="I289" s="63">
         <f t="shared" si="19"/>
         <v>167.792</v>
       </c>
@@ -9921,7 +9938,7 @@
         <v>1.25</v>
       </c>
       <c r="D290" s="37"/>
-      <c r="E290" s="12">
+      <c r="E290" s="63">
         <f>SUM(C290,E289)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>84.978999999999971</v>
       </c>
@@ -9931,7 +9948,7 @@
         <v>1.25</v>
       </c>
       <c r="H290" s="37"/>
-      <c r="I290" s="12">
+      <c r="I290" s="63">
         <f t="shared" si="19"/>
         <v>169.042</v>
       </c>
@@ -9947,7 +9964,7 @@
         <v>1.25</v>
       </c>
       <c r="D291" s="37"/>
-      <c r="E291" s="12">
+      <c r="E291" s="63">
         <f>SUM(C291,E290)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>86.228999999999971</v>
       </c>
@@ -9957,7 +9974,7 @@
         <v>1.25</v>
       </c>
       <c r="H291" s="37"/>
-      <c r="I291" s="12">
+      <c r="I291" s="63">
         <f t="shared" si="19"/>
         <v>170.292</v>
       </c>
@@ -9973,7 +9990,7 @@
         <v>1.25</v>
       </c>
       <c r="D292" s="37"/>
-      <c r="E292" s="12">
+      <c r="E292" s="63">
         <f>SUM(C292,E291)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>87.478999999999971</v>
       </c>
@@ -9983,7 +10000,7 @@
         <v>1.25</v>
       </c>
       <c r="H292" s="37"/>
-      <c r="I292" s="12">
+      <c r="I292" s="63">
         <f t="shared" si="19"/>
         <v>171.542</v>
       </c>
@@ -9999,7 +10016,7 @@
         <v>1.25</v>
       </c>
       <c r="D293" s="37"/>
-      <c r="E293" s="12">
+      <c r="E293" s="63">
         <f>SUM(C293,E292)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>88.728999999999971</v>
       </c>
@@ -10009,7 +10026,7 @@
         <v>1.25</v>
       </c>
       <c r="H293" s="37"/>
-      <c r="I293" s="12">
+      <c r="I293" s="63">
         <f t="shared" si="19"/>
         <v>172.792</v>
       </c>
@@ -10025,7 +10042,7 @@
         <v>1.25</v>
       </c>
       <c r="D294" s="37"/>
-      <c r="E294" s="12">
+      <c r="E294" s="63">
         <f>SUM(C294,E293)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>89.978999999999971</v>
       </c>
@@ -10035,7 +10052,7 @@
         <v>1.25</v>
       </c>
       <c r="H294" s="37"/>
-      <c r="I294" s="12">
+      <c r="I294" s="63">
         <f t="shared" si="19"/>
         <v>174.042</v>
       </c>
@@ -10051,7 +10068,7 @@
         <v>1.25</v>
       </c>
       <c r="D295" s="37"/>
-      <c r="E295" s="12">
+      <c r="E295" s="63">
         <f>SUM(C295,E294)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>91.228999999999971</v>
       </c>
@@ -10061,7 +10078,7 @@
         <v>1.25</v>
       </c>
       <c r="H295" s="37"/>
-      <c r="I295" s="12">
+      <c r="I295" s="63">
         <f t="shared" si="19"/>
         <v>175.292</v>
       </c>
@@ -10077,7 +10094,7 @@
         <v>1.25</v>
       </c>
       <c r="D296" s="37"/>
-      <c r="E296" s="12">
+      <c r="E296" s="63">
         <f>SUM(C296,E295)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>92.478999999999971</v>
       </c>
@@ -10087,7 +10104,7 @@
         <v>1.25</v>
       </c>
       <c r="H296" s="37"/>
-      <c r="I296" s="12">
+      <c r="I296" s="63">
         <f t="shared" si="19"/>
         <v>176.542</v>
       </c>
@@ -10101,7 +10118,7 @@
       <c r="B297" s="19"/>
       <c r="C297" s="12"/>
       <c r="D297" s="37"/>
-      <c r="E297" s="12">
+      <c r="E297" s="63">
         <f>SUM(C297,E296)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>92.478999999999971</v>
       </c>
@@ -10111,7 +10128,7 @@
         <v/>
       </c>
       <c r="H297" s="37"/>
-      <c r="I297" s="12">
+      <c r="I297" s="63">
         <f t="shared" si="19"/>
         <v>176.542</v>
       </c>
@@ -10127,7 +10144,7 @@
         <v>1.25</v>
       </c>
       <c r="D298" s="37"/>
-      <c r="E298" s="12">
+      <c r="E298" s="63">
         <f>SUM(C298,E297)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>93.728999999999971</v>
       </c>
@@ -10137,7 +10154,7 @@
         <v>1.25</v>
       </c>
       <c r="H298" s="37"/>
-      <c r="I298" s="12">
+      <c r="I298" s="63">
         <f t="shared" si="19"/>
         <v>177.792</v>
       </c>
@@ -10155,7 +10172,7 @@
       <c r="D299" s="37">
         <v>2</v>
       </c>
-      <c r="E299" s="12">
+      <c r="E299" s="63">
         <f>SUM(C299,E298)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>92.978999999999971</v>
       </c>
@@ -10165,7 +10182,7 @@
         <v>1.25</v>
       </c>
       <c r="H299" s="37"/>
-      <c r="I299" s="12">
+      <c r="I299" s="63">
         <f t="shared" si="19"/>
         <v>179.042</v>
       </c>
@@ -10187,7 +10204,7 @@
       <c r="D300" s="37">
         <v>1</v>
       </c>
-      <c r="E300" s="12">
+      <c r="E300" s="63">
         <f>SUM(C300,E299)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>93.228999999999971</v>
       </c>
@@ -10197,7 +10214,7 @@
         <v>1.25</v>
       </c>
       <c r="H300" s="37"/>
-      <c r="I300" s="12">
+      <c r="I300" s="63">
         <f t="shared" si="19"/>
         <v>180.292</v>
       </c>
@@ -10215,7 +10232,7 @@
         <v>1.25</v>
       </c>
       <c r="D301" s="37"/>
-      <c r="E301" s="12">
+      <c r="E301" s="63">
         <f>SUM(C301,E300)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>94.478999999999971</v>
       </c>
@@ -10225,7 +10242,7 @@
         <v>1.25</v>
       </c>
       <c r="H301" s="37"/>
-      <c r="I301" s="12">
+      <c r="I301" s="63">
         <f t="shared" si="19"/>
         <v>181.542</v>
       </c>
@@ -10241,7 +10258,7 @@
         <v>1.25</v>
       </c>
       <c r="D302" s="37"/>
-      <c r="E302" s="12">
+      <c r="E302" s="63">
         <f>SUM(C302,E301)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>95.728999999999971</v>
       </c>
@@ -10251,7 +10268,7 @@
         <v>1.25</v>
       </c>
       <c r="H302" s="37"/>
-      <c r="I302" s="12">
+      <c r="I302" s="63">
         <f t="shared" si="19"/>
         <v>182.792</v>
       </c>
@@ -10267,7 +10284,7 @@
         <v>1.25</v>
       </c>
       <c r="D303" s="37"/>
-      <c r="E303" s="12">
+      <c r="E303" s="63">
         <f>SUM(C303,E302)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>96.978999999999971</v>
       </c>
@@ -10277,7 +10294,7 @@
         <v>1.25</v>
       </c>
       <c r="H303" s="37"/>
-      <c r="I303" s="12">
+      <c r="I303" s="63">
         <f t="shared" si="19"/>
         <v>184.042</v>
       </c>
@@ -10293,7 +10310,7 @@
         <v>1.25</v>
       </c>
       <c r="D304" s="37"/>
-      <c r="E304" s="12">
+      <c r="E304" s="63">
         <f>SUM(C304,E303)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>98.228999999999971</v>
       </c>
@@ -10303,7 +10320,7 @@
         <v>1.25</v>
       </c>
       <c r="H304" s="37"/>
-      <c r="I304" s="12">
+      <c r="I304" s="63">
         <f t="shared" si="19"/>
         <v>185.292</v>
       </c>
@@ -10319,7 +10336,7 @@
         <v>1.25</v>
       </c>
       <c r="D305" s="37"/>
-      <c r="E305" s="12">
+      <c r="E305" s="63">
         <f>SUM(C305,E304)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>99.478999999999971</v>
       </c>
@@ -10329,7 +10346,7 @@
         <v>1.25</v>
       </c>
       <c r="H305" s="37"/>
-      <c r="I305" s="12">
+      <c r="I305" s="63">
         <f t="shared" si="19"/>
         <v>186.542</v>
       </c>
@@ -10349,7 +10366,7 @@
       <c r="D306" s="37">
         <v>1</v>
       </c>
-      <c r="E306" s="12">
+      <c r="E306" s="63">
         <f>SUM(C306,E305)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>99.728999999999971</v>
       </c>
@@ -10359,7 +10376,7 @@
         <v>1.25</v>
       </c>
       <c r="H306" s="37"/>
-      <c r="I306" s="12">
+      <c r="I306" s="63">
         <f t="shared" si="19"/>
         <v>187.792</v>
       </c>
@@ -10377,7 +10394,7 @@
         <v>1.25</v>
       </c>
       <c r="D307" s="37"/>
-      <c r="E307" s="12">
+      <c r="E307" s="63">
         <f>SUM(C307,E306)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>100.97899999999997</v>
       </c>
@@ -10387,7 +10404,7 @@
         <v>1.25</v>
       </c>
       <c r="H307" s="37"/>
-      <c r="I307" s="12">
+      <c r="I307" s="63">
         <f t="shared" si="19"/>
         <v>189.042</v>
       </c>
@@ -10403,7 +10420,7 @@
         <v>1.25</v>
       </c>
       <c r="D308" s="37"/>
-      <c r="E308" s="12">
+      <c r="E308" s="63">
         <f>SUM(C308,E307)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>102.22899999999997</v>
       </c>
@@ -10413,7 +10430,7 @@
         <v>1.25</v>
       </c>
       <c r="H308" s="37"/>
-      <c r="I308" s="12">
+      <c r="I308" s="63">
         <f t="shared" si="19"/>
         <v>190.292</v>
       </c>
@@ -10433,7 +10450,7 @@
       <c r="D309" s="37">
         <v>3</v>
       </c>
-      <c r="E309" s="12">
+      <c r="E309" s="63">
         <f>SUM(C309,E308)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>100.47899999999997</v>
       </c>
@@ -10443,7 +10460,7 @@
         <v>1.25</v>
       </c>
       <c r="H309" s="37"/>
-      <c r="I309" s="12">
+      <c r="I309" s="63">
         <f t="shared" si="19"/>
         <v>191.542</v>
       </c>
@@ -10461,7 +10478,7 @@
       <c r="D310" s="37">
         <v>1</v>
       </c>
-      <c r="E310" s="12">
+      <c r="E310" s="63">
         <f>SUM(C310,E309)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>99.478999999999971</v>
       </c>
@@ -10471,7 +10488,7 @@
         <v/>
       </c>
       <c r="H310" s="37"/>
-      <c r="I310" s="12">
+      <c r="I310" s="63">
         <f t="shared" si="19"/>
         <v>191.542</v>
       </c>
@@ -10487,7 +10504,7 @@
       </c>
       <c r="C311" s="12"/>
       <c r="D311" s="37"/>
-      <c r="E311" s="12">
+      <c r="E311" s="63">
         <f>SUM(C311,E310)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>99.478999999999971</v>
       </c>
@@ -10497,7 +10514,7 @@
         <v/>
       </c>
       <c r="H311" s="37"/>
-      <c r="I311" s="12">
+      <c r="I311" s="63">
         <f t="shared" si="19"/>
         <v>191.542</v>
       </c>
@@ -10513,7 +10530,7 @@
       <c r="B312" s="19"/>
       <c r="C312" s="12"/>
       <c r="D312" s="37"/>
-      <c r="E312" s="12">
+      <c r="E312" s="63">
         <f>SUM(C312,E311)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>99.478999999999971</v>
       </c>
@@ -10523,7 +10540,7 @@
         <v/>
       </c>
       <c r="H312" s="37"/>
-      <c r="I312" s="12">
+      <c r="I312" s="63">
         <f t="shared" si="19"/>
         <v>191.542</v>
       </c>
@@ -10539,7 +10556,7 @@
         <v>1.25</v>
       </c>
       <c r="D313" s="37"/>
-      <c r="E313" s="12">
+      <c r="E313" s="63">
         <f>SUM(C313,E312)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>100.72899999999997</v>
       </c>
@@ -10549,7 +10566,7 @@
         <v>1.25</v>
       </c>
       <c r="H313" s="37"/>
-      <c r="I313" s="12">
+      <c r="I313" s="63">
         <f t="shared" si="19"/>
         <v>192.792</v>
       </c>
@@ -10567,7 +10584,7 @@
         <v>1.25</v>
       </c>
       <c r="D314" s="37"/>
-      <c r="E314" s="12">
+      <c r="E314" s="63">
         <f>SUM(C314,E313)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>101.97899999999997</v>
       </c>
@@ -10577,7 +10594,7 @@
         <v>1.25</v>
       </c>
       <c r="H314" s="37"/>
-      <c r="I314" s="12">
+      <c r="I314" s="63">
         <f t="shared" si="19"/>
         <v>194.042</v>
       </c>
@@ -10597,7 +10614,7 @@
       <c r="D315" s="37">
         <v>2</v>
       </c>
-      <c r="E315" s="12">
+      <c r="E315" s="63">
         <f>SUM(C315,E314)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>101.22899999999997</v>
       </c>
@@ -10607,7 +10624,7 @@
         <v>1.25</v>
       </c>
       <c r="H315" s="37"/>
-      <c r="I315" s="12">
+      <c r="I315" s="63">
         <f t="shared" si="19"/>
         <v>195.292</v>
       </c>
@@ -10625,7 +10642,7 @@
         <v>1.25</v>
       </c>
       <c r="D316" s="37"/>
-      <c r="E316" s="12">
+      <c r="E316" s="63">
         <f>SUM(C316,E315)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>102.47899999999997</v>
       </c>
@@ -10635,7 +10652,7 @@
         <v>1.25</v>
       </c>
       <c r="H316" s="37"/>
-      <c r="I316" s="12">
+      <c r="I316" s="63">
         <f t="shared" si="19"/>
         <v>196.542</v>
       </c>
@@ -10651,7 +10668,7 @@
         <v>1.25</v>
       </c>
       <c r="D317" s="37"/>
-      <c r="E317" s="12">
+      <c r="E317" s="63">
         <f>SUM(C317,E316)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>103.72899999999997</v>
       </c>
@@ -10661,7 +10678,7 @@
         <v>1.25</v>
       </c>
       <c r="H317" s="37"/>
-      <c r="I317" s="12">
+      <c r="I317" s="63">
         <f t="shared" si="19"/>
         <v>197.792</v>
       </c>
@@ -10677,7 +10694,7 @@
         <v>1.25</v>
       </c>
       <c r="D318" s="37"/>
-      <c r="E318" s="12">
+      <c r="E318" s="63">
         <f>SUM(C318,E317)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>104.97899999999997</v>
       </c>
@@ -10687,7 +10704,7 @@
         <v>1.25</v>
       </c>
       <c r="H318" s="37"/>
-      <c r="I318" s="12">
+      <c r="I318" s="63">
         <f t="shared" si="19"/>
         <v>199.042</v>
       </c>
@@ -10707,7 +10724,7 @@
       <c r="D319" s="37">
         <v>2</v>
       </c>
-      <c r="E319" s="12">
+      <c r="E319" s="63">
         <f>SUM(C319,E318)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>104.22899999999997</v>
       </c>
@@ -10717,7 +10734,7 @@
         <v>1.25</v>
       </c>
       <c r="H319" s="37"/>
-      <c r="I319" s="12">
+      <c r="I319" s="63">
         <f t="shared" si="19"/>
         <v>200.292</v>
       </c>
@@ -10733,7 +10750,7 @@
         <v>1.25</v>
       </c>
       <c r="D320" s="37"/>
-      <c r="E320" s="12">
+      <c r="E320" s="63">
         <f>SUM(C320,E319)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>105.47899999999997</v>
       </c>
@@ -10743,7 +10760,7 @@
         <v>1.25</v>
       </c>
       <c r="H320" s="37"/>
-      <c r="I320" s="12">
+      <c r="I320" s="63">
         <f t="shared" si="19"/>
         <v>201.542</v>
       </c>
@@ -10759,7 +10776,7 @@
         <v>1.25</v>
       </c>
       <c r="D321" s="37"/>
-      <c r="E321" s="12">
+      <c r="E321" s="63">
         <f>SUM(C321,E320)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>106.72899999999997</v>
       </c>
@@ -10769,7 +10786,7 @@
         <v>1.25</v>
       </c>
       <c r="H321" s="37"/>
-      <c r="I321" s="12">
+      <c r="I321" s="63">
         <f t="shared" si="19"/>
         <v>202.792</v>
       </c>
@@ -10785,7 +10802,7 @@
         <v>1.25</v>
       </c>
       <c r="D322" s="37"/>
-      <c r="E322" s="12">
+      <c r="E322" s="63">
         <f>SUM(C322,E321)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>107.97899999999997</v>
       </c>
@@ -10795,7 +10812,7 @@
         <v>1.25</v>
       </c>
       <c r="H322" s="37"/>
-      <c r="I322" s="12">
+      <c r="I322" s="63">
         <f t="shared" si="19"/>
         <v>204.042</v>
       </c>
@@ -10811,7 +10828,7 @@
         <v>1.25</v>
       </c>
       <c r="D323" s="37"/>
-      <c r="E323" s="12">
+      <c r="E323" s="63">
         <f>SUM(C323,E322)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>109.22899999999997</v>
       </c>
@@ -10821,7 +10838,7 @@
         <v>1.25</v>
       </c>
       <c r="H323" s="37"/>
-      <c r="I323" s="12">
+      <c r="I323" s="63">
         <f t="shared" si="19"/>
         <v>205.292</v>
       </c>
@@ -10837,7 +10854,7 @@
         <v>1.25</v>
       </c>
       <c r="D324" s="37"/>
-      <c r="E324" s="12">
+      <c r="E324" s="63">
         <f>SUM(C324,E323)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>110.47899999999997</v>
       </c>
@@ -10847,7 +10864,7 @@
         <v>1.25</v>
       </c>
       <c r="H324" s="37"/>
-      <c r="I324" s="12">
+      <c r="I324" s="63">
         <f t="shared" si="19"/>
         <v>206.542</v>
       </c>
@@ -10867,7 +10884,7 @@
       <c r="D325" s="37">
         <v>1</v>
       </c>
-      <c r="E325" s="12">
+      <c r="E325" s="63">
         <f>SUM(C325,E324)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>110.72899999999997</v>
       </c>
@@ -10877,7 +10894,7 @@
         <v>1.25</v>
       </c>
       <c r="H325" s="37"/>
-      <c r="I325" s="12">
+      <c r="I325" s="63">
         <f t="shared" si="19"/>
         <v>207.792</v>
       </c>
@@ -10891,7 +10908,7 @@
       <c r="B326" s="19"/>
       <c r="C326" s="12"/>
       <c r="D326" s="37"/>
-      <c r="E326" s="12">
+      <c r="E326" s="63">
         <f>SUM(C326,E325)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>110.72899999999997</v>
       </c>
@@ -10901,7 +10918,7 @@
         <v/>
       </c>
       <c r="H326" s="37"/>
-      <c r="I326" s="12">
+      <c r="I326" s="63">
         <f t="shared" si="19"/>
         <v>207.792</v>
       </c>
@@ -10917,7 +10934,7 @@
         <v>1.25</v>
       </c>
       <c r="D327" s="37"/>
-      <c r="E327" s="12">
+      <c r="E327" s="63">
         <f>SUM(C327,E326)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>111.97899999999997</v>
       </c>
@@ -10927,7 +10944,7 @@
         <v>1.25</v>
       </c>
       <c r="H327" s="37"/>
-      <c r="I327" s="12">
+      <c r="I327" s="63">
         <f t="shared" si="19"/>
         <v>209.042</v>
       </c>
@@ -10943,7 +10960,7 @@
         <v>1.25</v>
       </c>
       <c r="D328" s="37"/>
-      <c r="E328" s="12">
+      <c r="E328" s="63">
         <f>SUM(C328,E327)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>113.22899999999997</v>
       </c>
@@ -10953,7 +10970,7 @@
         <v>1.25</v>
       </c>
       <c r="H328" s="37"/>
-      <c r="I328" s="12">
+      <c r="I328" s="63">
         <f t="shared" si="19"/>
         <v>210.292</v>
       </c>
@@ -10969,7 +10986,7 @@
         <v>1.25</v>
       </c>
       <c r="D329" s="37"/>
-      <c r="E329" s="12">
+      <c r="E329" s="63">
         <f>SUM(C329,E328)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>114.47899999999997</v>
       </c>
@@ -10979,7 +10996,7 @@
         <v>1.25</v>
       </c>
       <c r="H329" s="37"/>
-      <c r="I329" s="12">
+      <c r="I329" s="63">
         <f t="shared" si="19"/>
         <v>211.542</v>
       </c>
@@ -10995,7 +11012,7 @@
         <v>1.25</v>
       </c>
       <c r="D330" s="37"/>
-      <c r="E330" s="12">
+      <c r="E330" s="63">
         <f>SUM(C330,E329)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>115.72899999999997</v>
       </c>
@@ -11005,7 +11022,7 @@
         <v>1.25</v>
       </c>
       <c r="H330" s="37"/>
-      <c r="I330" s="12">
+      <c r="I330" s="63">
         <f t="shared" si="19"/>
         <v>212.792</v>
       </c>
@@ -11021,7 +11038,7 @@
         <v>1.25</v>
       </c>
       <c r="D331" s="37"/>
-      <c r="E331" s="12">
+      <c r="E331" s="63">
         <f>SUM(C331,E330)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>116.97899999999997</v>
       </c>
@@ -11031,7 +11048,7 @@
         <v>1.25</v>
       </c>
       <c r="H331" s="37"/>
-      <c r="I331" s="12">
+      <c r="I331" s="63">
         <f t="shared" si="19"/>
         <v>214.042</v>
       </c>
@@ -11047,7 +11064,7 @@
         <v>1.25</v>
       </c>
       <c r="D332" s="37"/>
-      <c r="E332" s="12">
+      <c r="E332" s="63">
         <f>SUM(C332,E331)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>118.22899999999997</v>
       </c>
@@ -11057,7 +11074,7 @@
         <v>1.25</v>
       </c>
       <c r="H332" s="37"/>
-      <c r="I332" s="12">
+      <c r="I332" s="63">
         <f t="shared" si="19"/>
         <v>215.292</v>
       </c>
@@ -11073,7 +11090,7 @@
         <v>1.25</v>
       </c>
       <c r="D333" s="37"/>
-      <c r="E333" s="12">
+      <c r="E333" s="63">
         <f>SUM(C333,E332)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>119.47899999999997</v>
       </c>
@@ -11083,7 +11100,7 @@
         <v>1.25</v>
       </c>
       <c r="H333" s="37"/>
-      <c r="I333" s="12">
+      <c r="I333" s="63">
         <f t="shared" ref="I333:I359" si="20">SUM(G333,I332)-H333</f>
         <v>216.542</v>
       </c>
@@ -11099,7 +11116,7 @@
         <v>1.25</v>
       </c>
       <c r="D334" s="37"/>
-      <c r="E334" s="12">
+      <c r="E334" s="63">
         <f>SUM(C334,E333)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>120.72899999999997</v>
       </c>
@@ -11109,7 +11126,7 @@
         <v>1.25</v>
       </c>
       <c r="H334" s="37"/>
-      <c r="I334" s="12">
+      <c r="I334" s="63">
         <f t="shared" si="20"/>
         <v>217.792</v>
       </c>
@@ -11125,7 +11142,7 @@
         <v>1.25</v>
       </c>
       <c r="D335" s="37"/>
-      <c r="E335" s="12">
+      <c r="E335" s="63">
         <f>SUM(C335,E334)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>121.97899999999997</v>
       </c>
@@ -11135,7 +11152,7 @@
         <v>1.25</v>
       </c>
       <c r="H335" s="37"/>
-      <c r="I335" s="12">
+      <c r="I335" s="63">
         <f t="shared" si="20"/>
         <v>219.042</v>
       </c>
@@ -11151,7 +11168,7 @@
         <v>1.25</v>
       </c>
       <c r="D336" s="37"/>
-      <c r="E336" s="12">
+      <c r="E336" s="63">
         <f>SUM(C336,E335)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>123.22899999999997</v>
       </c>
@@ -11161,7 +11178,7 @@
         <v>1.25</v>
       </c>
       <c r="H336" s="37"/>
-      <c r="I336" s="12">
+      <c r="I336" s="63">
         <f t="shared" si="20"/>
         <v>220.292</v>
       </c>
@@ -11177,7 +11194,7 @@
         <v>1.25</v>
       </c>
       <c r="D337" s="37"/>
-      <c r="E337" s="12">
+      <c r="E337" s="63">
         <f>SUM(C337,E336)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>124.47899999999997</v>
       </c>
@@ -11187,7 +11204,7 @@
         <v>1.25</v>
       </c>
       <c r="H337" s="37"/>
-      <c r="I337" s="12">
+      <c r="I337" s="63">
         <f t="shared" si="20"/>
         <v>221.542</v>
       </c>
@@ -11207,7 +11224,7 @@
       <c r="D338" s="37">
         <v>1</v>
       </c>
-      <c r="E338" s="12">
+      <c r="E338" s="63">
         <f>SUM(C338,E337)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>124.72899999999997</v>
       </c>
@@ -11217,7 +11234,7 @@
         <v>1.25</v>
       </c>
       <c r="H338" s="37"/>
-      <c r="I338" s="12">
+      <c r="I338" s="63">
         <f t="shared" si="20"/>
         <v>222.792</v>
       </c>
@@ -11235,7 +11252,7 @@
       <c r="D339" s="37">
         <v>2</v>
       </c>
-      <c r="E339" s="12">
+      <c r="E339" s="63">
         <f>SUM(C339,E338)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>122.72899999999997</v>
       </c>
@@ -11245,7 +11262,7 @@
         <v/>
       </c>
       <c r="H339" s="37"/>
-      <c r="I339" s="12">
+      <c r="I339" s="63">
         <f t="shared" si="20"/>
         <v>222.792</v>
       </c>
@@ -11261,7 +11278,7 @@
       <c r="B340" s="19"/>
       <c r="C340" s="12"/>
       <c r="D340" s="37"/>
-      <c r="E340" s="12">
+      <c r="E340" s="63">
         <f>SUM(C340,E339)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>122.72899999999997</v>
       </c>
@@ -11271,7 +11288,7 @@
         <v/>
       </c>
       <c r="H340" s="37"/>
-      <c r="I340" s="12">
+      <c r="I340" s="63">
         <f t="shared" si="20"/>
         <v>222.792</v>
       </c>
@@ -11287,7 +11304,7 @@
         <v>1.25</v>
       </c>
       <c r="D341" s="37"/>
-      <c r="E341" s="12">
+      <c r="E341" s="63">
         <f>SUM(C341,E340)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>123.97899999999997</v>
       </c>
@@ -11297,7 +11314,7 @@
         <v>1.25</v>
       </c>
       <c r="H341" s="37"/>
-      <c r="I341" s="12">
+      <c r="I341" s="63">
         <f t="shared" si="20"/>
         <v>224.042</v>
       </c>
@@ -11313,7 +11330,7 @@
         <v>1.25</v>
       </c>
       <c r="D342" s="37"/>
-      <c r="E342" s="12">
+      <c r="E342" s="63">
         <f>SUM(C342,E341)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>125.22899999999997</v>
       </c>
@@ -11323,7 +11340,7 @@
         <v>1.25</v>
       </c>
       <c r="H342" s="37"/>
-      <c r="I342" s="12">
+      <c r="I342" s="63">
         <f t="shared" si="20"/>
         <v>225.292</v>
       </c>
@@ -11339,7 +11356,7 @@
         <v>1.25</v>
       </c>
       <c r="D343" s="37"/>
-      <c r="E343" s="12">
+      <c r="E343" s="63">
         <f>SUM(C343,E342)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>126.47899999999997</v>
       </c>
@@ -11349,7 +11366,7 @@
         <v>1.25</v>
       </c>
       <c r="H343" s="37"/>
-      <c r="I343" s="12">
+      <c r="I343" s="63">
         <f t="shared" si="20"/>
         <v>226.542</v>
       </c>
@@ -11365,7 +11382,7 @@
         <v>1.25</v>
       </c>
       <c r="D344" s="37"/>
-      <c r="E344" s="12">
+      <c r="E344" s="63">
         <f>SUM(C344,E343)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>127.72899999999997</v>
       </c>
@@ -11375,7 +11392,7 @@
         <v>1.25</v>
       </c>
       <c r="H344" s="37"/>
-      <c r="I344" s="12">
+      <c r="I344" s="63">
         <f t="shared" si="20"/>
         <v>227.792</v>
       </c>
@@ -11391,7 +11408,7 @@
         <v>1.25</v>
       </c>
       <c r="D345" s="37"/>
-      <c r="E345" s="12">
+      <c r="E345" s="63">
         <f>SUM(C345,E344)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>128.97899999999998</v>
       </c>
@@ -11401,7 +11418,7 @@
         <v>1.25</v>
       </c>
       <c r="H345" s="37"/>
-      <c r="I345" s="12">
+      <c r="I345" s="63">
         <f t="shared" si="20"/>
         <v>229.042</v>
       </c>
@@ -11421,7 +11438,7 @@
       <c r="D346" s="37">
         <v>2</v>
       </c>
-      <c r="E346" s="12">
+      <c r="E346" s="63">
         <f>SUM(C346,E345)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>128.22899999999998</v>
       </c>
@@ -11431,7 +11448,7 @@
         <v>1.25</v>
       </c>
       <c r="H346" s="37"/>
-      <c r="I346" s="12">
+      <c r="I346" s="63">
         <f t="shared" si="20"/>
         <v>230.292</v>
       </c>
@@ -11447,7 +11464,7 @@
       </c>
       <c r="C347" s="12"/>
       <c r="D347" s="37"/>
-      <c r="E347" s="12">
+      <c r="E347" s="63">
         <f>SUM(C347,E346)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>128.22899999999998</v>
       </c>
@@ -11457,7 +11474,7 @@
         <v/>
       </c>
       <c r="H347" s="37"/>
-      <c r="I347" s="12">
+      <c r="I347" s="63">
         <f t="shared" si="20"/>
         <v>230.292</v>
       </c>
@@ -11475,7 +11492,7 @@
         <v>1.25</v>
       </c>
       <c r="D348" s="37"/>
-      <c r="E348" s="12">
+      <c r="E348" s="63">
         <f>SUM(C348,E347)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>129.47899999999998</v>
       </c>
@@ -11485,7 +11502,7 @@
         <v>1.25</v>
       </c>
       <c r="H348" s="37"/>
-      <c r="I348" s="12">
+      <c r="I348" s="63">
         <f t="shared" si="20"/>
         <v>231.542</v>
       </c>
@@ -11505,7 +11522,7 @@
       <c r="D349" s="37">
         <v>1</v>
       </c>
-      <c r="E349" s="12">
+      <c r="E349" s="63">
         <f>SUM(C349,E348)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>129.72899999999998</v>
       </c>
@@ -11515,7 +11532,7 @@
         <v>1.25</v>
       </c>
       <c r="H349" s="37"/>
-      <c r="I349" s="12">
+      <c r="I349" s="63">
         <f t="shared" si="20"/>
         <v>232.792</v>
       </c>
@@ -11535,7 +11552,7 @@
         <v>1.25</v>
       </c>
       <c r="D350" s="37"/>
-      <c r="E350" s="12">
+      <c r="E350" s="63">
         <f>SUM(C350,E349)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>130.97899999999998</v>
       </c>
@@ -11545,7 +11562,7 @@
         <v>1.25</v>
       </c>
       <c r="H350" s="37"/>
-      <c r="I350" s="12">
+      <c r="I350" s="63">
         <f t="shared" si="20"/>
         <v>234.042</v>
       </c>
@@ -11563,7 +11580,7 @@
         <v>1.25</v>
       </c>
       <c r="D351" s="37"/>
-      <c r="E351" s="12">
+      <c r="E351" s="63">
         <f>SUM(C351,E350)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>132.22899999999998</v>
       </c>
@@ -11573,7 +11590,7 @@
         <v>1.25</v>
       </c>
       <c r="H351" s="37"/>
-      <c r="I351" s="12">
+      <c r="I351" s="63">
         <f t="shared" si="20"/>
         <v>235.292</v>
       </c>
@@ -11591,7 +11608,7 @@
         <v>1.25</v>
       </c>
       <c r="D352" s="37"/>
-      <c r="E352" s="12">
+      <c r="E352" s="63">
         <f>SUM(C352,E351)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>133.47899999999998</v>
       </c>
@@ -11603,7 +11620,7 @@
       <c r="H352" s="37">
         <v>1</v>
       </c>
-      <c r="I352" s="12">
+      <c r="I352" s="63">
         <f t="shared" si="20"/>
         <v>235.542</v>
       </c>
@@ -11619,7 +11636,7 @@
       <c r="B353" s="19"/>
       <c r="C353" s="12"/>
       <c r="D353" s="37"/>
-      <c r="E353" s="12">
+      <c r="E353" s="63">
         <f>SUM(C353,E352)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>133.47899999999998</v>
       </c>
@@ -11629,7 +11646,7 @@
         <v/>
       </c>
       <c r="H353" s="37"/>
-      <c r="I353" s="12">
+      <c r="I353" s="63">
         <f t="shared" si="20"/>
         <v>235.542</v>
       </c>
@@ -11643,7 +11660,7 @@
       <c r="B354" s="19"/>
       <c r="C354" s="12"/>
       <c r="D354" s="37"/>
-      <c r="E354" s="12">
+      <c r="E354" s="63">
         <f>SUM(C354,E353)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>133.47899999999998</v>
       </c>
@@ -11653,7 +11670,7 @@
         <v/>
       </c>
       <c r="H354" s="37"/>
-      <c r="I354" s="12">
+      <c r="I354" s="63">
         <f t="shared" si="20"/>
         <v>235.542</v>
       </c>
@@ -11669,7 +11686,7 @@
         <v>1.25</v>
       </c>
       <c r="D355" s="37"/>
-      <c r="E355" s="12">
+      <c r="E355" s="63">
         <f>SUM(C355,E354)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>134.72899999999998</v>
       </c>
@@ -11679,7 +11696,7 @@
         <v>1.25</v>
       </c>
       <c r="H355" s="37"/>
-      <c r="I355" s="12">
+      <c r="I355" s="63">
         <f t="shared" si="20"/>
         <v>236.792</v>
       </c>
@@ -11699,7 +11716,7 @@
       <c r="D356" s="37">
         <v>2</v>
       </c>
-      <c r="E356" s="12">
+      <c r="E356" s="63">
         <f>SUM(C356,E355)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>133.97899999999998</v>
       </c>
@@ -11709,7 +11726,7 @@
         <v>1.25</v>
       </c>
       <c r="H356" s="37"/>
-      <c r="I356" s="12">
+      <c r="I356" s="63">
         <f t="shared" si="20"/>
         <v>238.042</v>
       </c>
@@ -11727,7 +11744,7 @@
         <v>1.25</v>
       </c>
       <c r="D357" s="37"/>
-      <c r="E357" s="12">
+      <c r="E357" s="63">
         <f>SUM(C357,E356)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>135.22899999999998</v>
       </c>
@@ -11737,7 +11754,7 @@
         <v>1.25</v>
       </c>
       <c r="H357" s="37"/>
-      <c r="I357" s="12">
+      <c r="I357" s="63">
         <f t="shared" si="20"/>
         <v>239.292</v>
       </c>
@@ -11753,7 +11770,7 @@
         <v>1.25</v>
       </c>
       <c r="D358" s="37"/>
-      <c r="E358" s="12">
+      <c r="E358" s="63">
         <f>SUM(C358,E357)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>136.47899999999998</v>
       </c>
@@ -11763,7 +11780,7 @@
         <v>1.25</v>
       </c>
       <c r="H358" s="37"/>
-      <c r="I358" s="12">
+      <c r="I358" s="63">
         <f t="shared" si="20"/>
         <v>240.542</v>
       </c>
@@ -11779,7 +11796,7 @@
         <v>1.25</v>
       </c>
       <c r="D359" s="37"/>
-      <c r="E359" s="12">
+      <c r="E359" s="63">
         <f>SUM(C359,E358)-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>137.72899999999998</v>
       </c>
@@ -11789,7 +11806,7 @@
         <v>1.25</v>
       </c>
       <c r="H359" s="37"/>
-      <c r="I359" s="12">
+      <c r="I359" s="63">
         <f t="shared" si="20"/>
         <v>241.792</v>
       </c>
@@ -11797,20 +11814,1878 @@
       <c r="K359" s="19"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360" s="39"/>
-      <c r="B360" s="14"/>
+      <c r="A360" s="39">
+        <v>45078</v>
+      </c>
+      <c r="B360" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C360" s="40"/>
-      <c r="D360" s="41"/>
-      <c r="E360" s="61"/>
+      <c r="D360" s="41">
+        <v>3</v>
+      </c>
+      <c r="E360" s="50"/>
       <c r="F360" s="14"/>
       <c r="G360" s="40" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H360" s="41"/>
-      <c r="I360" s="61"/>
+      <c r="I360" s="50"/>
       <c r="J360" s="11"/>
-      <c r="K360" s="14"/>
+      <c r="K360" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" s="39">
+        <v>45108</v>
+      </c>
+      <c r="B361" s="19"/>
+      <c r="C361" s="12"/>
+      <c r="D361" s="37"/>
+      <c r="E361" s="62"/>
+      <c r="F361" s="19"/>
+      <c r="G361" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H361" s="37"/>
+      <c r="I361" s="62"/>
+      <c r="J361" s="10"/>
+      <c r="K361" s="19"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362" s="39">
+        <v>45139</v>
+      </c>
+      <c r="B362" s="19"/>
+      <c r="C362" s="12"/>
+      <c r="D362" s="37"/>
+      <c r="E362" s="62"/>
+      <c r="F362" s="19"/>
+      <c r="G362" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H362" s="37"/>
+      <c r="I362" s="62"/>
+      <c r="J362" s="10"/>
+      <c r="K362" s="19"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="39">
+        <v>45170</v>
+      </c>
+      <c r="B363" s="19"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="37"/>
+      <c r="E363" s="62"/>
+      <c r="F363" s="19"/>
+      <c r="G363" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H363" s="37"/>
+      <c r="I363" s="62"/>
+      <c r="J363" s="10"/>
+      <c r="K363" s="19"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" s="39">
+        <v>45200</v>
+      </c>
+      <c r="B364" s="19"/>
+      <c r="C364" s="12"/>
+      <c r="D364" s="37"/>
+      <c r="E364" s="62"/>
+      <c r="F364" s="19"/>
+      <c r="G364" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H364" s="37"/>
+      <c r="I364" s="62"/>
+      <c r="J364" s="10"/>
+      <c r="K364" s="19"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A365" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B365" s="19"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="37"/>
+      <c r="E365" s="62"/>
+      <c r="F365" s="19"/>
+      <c r="G365" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H365" s="37"/>
+      <c r="I365" s="62"/>
+      <c r="J365" s="10"/>
+      <c r="K365" s="19"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A366" s="39">
+        <v>45261</v>
+      </c>
+      <c r="B366" s="19"/>
+      <c r="C366" s="12"/>
+      <c r="D366" s="37"/>
+      <c r="E366" s="62"/>
+      <c r="F366" s="19"/>
+      <c r="G366" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H366" s="37"/>
+      <c r="I366" s="62"/>
+      <c r="J366" s="10"/>
+      <c r="K366" s="19"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A367" s="39">
+        <v>45292</v>
+      </c>
+      <c r="B367" s="19"/>
+      <c r="C367" s="12"/>
+      <c r="D367" s="37"/>
+      <c r="E367" s="62"/>
+      <c r="F367" s="19"/>
+      <c r="G367" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H367" s="37"/>
+      <c r="I367" s="62"/>
+      <c r="J367" s="10"/>
+      <c r="K367" s="19"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A368" s="39">
+        <v>45323</v>
+      </c>
+      <c r="B368" s="19"/>
+      <c r="C368" s="12"/>
+      <c r="D368" s="37"/>
+      <c r="E368" s="62"/>
+      <c r="F368" s="19"/>
+      <c r="G368" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H368" s="37"/>
+      <c r="I368" s="62"/>
+      <c r="J368" s="10"/>
+      <c r="K368" s="19"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A369" s="39">
+        <v>45352</v>
+      </c>
+      <c r="B369" s="19"/>
+      <c r="C369" s="12"/>
+      <c r="D369" s="37"/>
+      <c r="E369" s="62"/>
+      <c r="F369" s="19"/>
+      <c r="G369" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H369" s="37"/>
+      <c r="I369" s="62"/>
+      <c r="J369" s="10"/>
+      <c r="K369" s="19"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A370" s="39">
+        <v>45383</v>
+      </c>
+      <c r="B370" s="19"/>
+      <c r="C370" s="12"/>
+      <c r="D370" s="37"/>
+      <c r="E370" s="62"/>
+      <c r="F370" s="19"/>
+      <c r="G370" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H370" s="37"/>
+      <c r="I370" s="62"/>
+      <c r="J370" s="10"/>
+      <c r="K370" s="19"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371" s="39">
+        <v>45413</v>
+      </c>
+      <c r="B371" s="19"/>
+      <c r="C371" s="12"/>
+      <c r="D371" s="37"/>
+      <c r="E371" s="62"/>
+      <c r="F371" s="19"/>
+      <c r="G371" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H371" s="37"/>
+      <c r="I371" s="62"/>
+      <c r="J371" s="10"/>
+      <c r="K371" s="19"/>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A372" s="39">
+        <v>45444</v>
+      </c>
+      <c r="B372" s="19"/>
+      <c r="C372" s="12"/>
+      <c r="D372" s="37"/>
+      <c r="E372" s="62"/>
+      <c r="F372" s="19"/>
+      <c r="G372" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H372" s="37"/>
+      <c r="I372" s="62"/>
+      <c r="J372" s="10"/>
+      <c r="K372" s="19"/>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A373" s="39">
+        <v>45474</v>
+      </c>
+      <c r="B373" s="19"/>
+      <c r="C373" s="12"/>
+      <c r="D373" s="37"/>
+      <c r="E373" s="62"/>
+      <c r="F373" s="19"/>
+      <c r="G373" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H373" s="37"/>
+      <c r="I373" s="62"/>
+      <c r="J373" s="10"/>
+      <c r="K373" s="19"/>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A374" s="38"/>
+      <c r="B374" s="19"/>
+      <c r="C374" s="12"/>
+      <c r="D374" s="37"/>
+      <c r="E374" s="62"/>
+      <c r="F374" s="19"/>
+      <c r="G374" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H374" s="37"/>
+      <c r="I374" s="62"/>
+      <c r="J374" s="10"/>
+      <c r="K374" s="19"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375" s="38"/>
+      <c r="B375" s="19"/>
+      <c r="C375" s="12"/>
+      <c r="D375" s="37"/>
+      <c r="E375" s="62"/>
+      <c r="F375" s="19"/>
+      <c r="G375" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H375" s="37"/>
+      <c r="I375" s="62"/>
+      <c r="J375" s="10"/>
+      <c r="K375" s="19"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A376" s="38"/>
+      <c r="B376" s="19"/>
+      <c r="C376" s="12"/>
+      <c r="D376" s="37"/>
+      <c r="E376" s="62"/>
+      <c r="F376" s="19"/>
+      <c r="G376" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H376" s="37"/>
+      <c r="I376" s="62"/>
+      <c r="J376" s="10"/>
+      <c r="K376" s="19"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A377" s="38"/>
+      <c r="B377" s="19"/>
+      <c r="C377" s="12"/>
+      <c r="D377" s="37"/>
+      <c r="E377" s="62"/>
+      <c r="F377" s="19"/>
+      <c r="G377" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H377" s="37"/>
+      <c r="I377" s="62"/>
+      <c r="J377" s="10"/>
+      <c r="K377" s="19"/>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A378" s="38"/>
+      <c r="B378" s="19"/>
+      <c r="C378" s="12"/>
+      <c r="D378" s="37"/>
+      <c r="E378" s="62"/>
+      <c r="F378" s="19"/>
+      <c r="G378" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H378" s="37"/>
+      <c r="I378" s="62"/>
+      <c r="J378" s="10"/>
+      <c r="K378" s="19"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A379" s="38"/>
+      <c r="B379" s="19"/>
+      <c r="C379" s="12"/>
+      <c r="D379" s="37"/>
+      <c r="E379" s="62"/>
+      <c r="F379" s="19"/>
+      <c r="G379" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H379" s="37"/>
+      <c r="I379" s="62"/>
+      <c r="J379" s="10"/>
+      <c r="K379" s="19"/>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A380" s="38"/>
+      <c r="B380" s="19"/>
+      <c r="C380" s="12"/>
+      <c r="D380" s="37"/>
+      <c r="E380" s="62"/>
+      <c r="F380" s="19"/>
+      <c r="G380" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H380" s="37"/>
+      <c r="I380" s="62"/>
+      <c r="J380" s="10"/>
+      <c r="K380" s="19"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A381" s="38"/>
+      <c r="B381" s="19"/>
+      <c r="C381" s="12"/>
+      <c r="D381" s="37"/>
+      <c r="E381" s="62"/>
+      <c r="F381" s="19"/>
+      <c r="G381" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H381" s="37"/>
+      <c r="I381" s="62"/>
+      <c r="J381" s="10"/>
+      <c r="K381" s="19"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A382" s="38"/>
+      <c r="B382" s="19"/>
+      <c r="C382" s="12"/>
+      <c r="D382" s="37"/>
+      <c r="E382" s="62"/>
+      <c r="F382" s="19"/>
+      <c r="G382" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H382" s="37"/>
+      <c r="I382" s="62"/>
+      <c r="J382" s="10"/>
+      <c r="K382" s="19"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A383" s="38"/>
+      <c r="B383" s="19"/>
+      <c r="C383" s="12"/>
+      <c r="D383" s="37"/>
+      <c r="E383" s="62"/>
+      <c r="F383" s="19"/>
+      <c r="G383" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H383" s="37"/>
+      <c r="I383" s="62"/>
+      <c r="J383" s="10"/>
+      <c r="K383" s="19"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A384" s="38"/>
+      <c r="B384" s="19"/>
+      <c r="C384" s="12"/>
+      <c r="D384" s="37"/>
+      <c r="E384" s="62"/>
+      <c r="F384" s="19"/>
+      <c r="G384" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H384" s="37"/>
+      <c r="I384" s="62"/>
+      <c r="J384" s="10"/>
+      <c r="K384" s="19"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A385" s="38"/>
+      <c r="B385" s="19"/>
+      <c r="C385" s="12"/>
+      <c r="D385" s="37"/>
+      <c r="E385" s="62"/>
+      <c r="F385" s="19"/>
+      <c r="G385" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H385" s="37"/>
+      <c r="I385" s="62"/>
+      <c r="J385" s="10"/>
+      <c r="K385" s="19"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A386" s="38"/>
+      <c r="B386" s="19"/>
+      <c r="C386" s="12"/>
+      <c r="D386" s="37"/>
+      <c r="E386" s="62"/>
+      <c r="F386" s="19"/>
+      <c r="G386" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H386" s="37"/>
+      <c r="I386" s="62"/>
+      <c r="J386" s="10"/>
+      <c r="K386" s="19"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A387" s="38"/>
+      <c r="B387" s="19"/>
+      <c r="C387" s="12"/>
+      <c r="D387" s="37"/>
+      <c r="E387" s="62"/>
+      <c r="F387" s="19"/>
+      <c r="G387" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H387" s="37"/>
+      <c r="I387" s="62"/>
+      <c r="J387" s="10"/>
+      <c r="K387" s="19"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A388" s="38"/>
+      <c r="B388" s="19"/>
+      <c r="C388" s="12"/>
+      <c r="D388" s="37"/>
+      <c r="E388" s="62"/>
+      <c r="F388" s="19"/>
+      <c r="G388" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H388" s="37"/>
+      <c r="I388" s="62"/>
+      <c r="J388" s="10"/>
+      <c r="K388" s="19"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A389" s="38"/>
+      <c r="B389" s="19"/>
+      <c r="C389" s="12"/>
+      <c r="D389" s="37"/>
+      <c r="E389" s="62"/>
+      <c r="F389" s="19"/>
+      <c r="G389" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H389" s="37"/>
+      <c r="I389" s="62"/>
+      <c r="J389" s="10"/>
+      <c r="K389" s="19"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A390" s="38"/>
+      <c r="B390" s="19"/>
+      <c r="C390" s="12"/>
+      <c r="D390" s="37"/>
+      <c r="E390" s="62"/>
+      <c r="F390" s="19"/>
+      <c r="G390" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H390" s="37"/>
+      <c r="I390" s="62"/>
+      <c r="J390" s="10"/>
+      <c r="K390" s="19"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A391" s="38"/>
+      <c r="B391" s="19"/>
+      <c r="C391" s="12"/>
+      <c r="D391" s="37"/>
+      <c r="E391" s="62"/>
+      <c r="F391" s="19"/>
+      <c r="G391" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H391" s="37"/>
+      <c r="I391" s="62"/>
+      <c r="J391" s="10"/>
+      <c r="K391" s="19"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A392" s="38"/>
+      <c r="B392" s="19"/>
+      <c r="C392" s="12"/>
+      <c r="D392" s="37"/>
+      <c r="E392" s="62"/>
+      <c r="F392" s="19"/>
+      <c r="G392" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H392" s="37"/>
+      <c r="I392" s="62"/>
+      <c r="J392" s="10"/>
+      <c r="K392" s="19"/>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A393" s="38"/>
+      <c r="B393" s="19"/>
+      <c r="C393" s="12"/>
+      <c r="D393" s="37"/>
+      <c r="E393" s="62"/>
+      <c r="F393" s="19"/>
+      <c r="G393" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H393" s="37"/>
+      <c r="I393" s="62"/>
+      <c r="J393" s="10"/>
+      <c r="K393" s="19"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A394" s="38"/>
+      <c r="B394" s="19"/>
+      <c r="C394" s="12"/>
+      <c r="D394" s="37"/>
+      <c r="E394" s="62"/>
+      <c r="F394" s="19"/>
+      <c r="G394" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H394" s="37"/>
+      <c r="I394" s="62"/>
+      <c r="J394" s="10"/>
+      <c r="K394" s="19"/>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A395" s="38"/>
+      <c r="B395" s="19"/>
+      <c r="C395" s="12"/>
+      <c r="D395" s="37"/>
+      <c r="E395" s="62"/>
+      <c r="F395" s="19"/>
+      <c r="G395" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H395" s="37"/>
+      <c r="I395" s="62"/>
+      <c r="J395" s="10"/>
+      <c r="K395" s="19"/>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A396" s="38"/>
+      <c r="B396" s="19"/>
+      <c r="C396" s="12"/>
+      <c r="D396" s="37"/>
+      <c r="E396" s="62"/>
+      <c r="F396" s="19"/>
+      <c r="G396" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H396" s="37"/>
+      <c r="I396" s="62"/>
+      <c r="J396" s="10"/>
+      <c r="K396" s="19"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A397" s="38"/>
+      <c r="B397" s="19"/>
+      <c r="C397" s="12"/>
+      <c r="D397" s="37"/>
+      <c r="E397" s="62"/>
+      <c r="F397" s="19"/>
+      <c r="G397" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H397" s="37"/>
+      <c r="I397" s="62"/>
+      <c r="J397" s="10"/>
+      <c r="K397" s="19"/>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A398" s="38"/>
+      <c r="B398" s="19"/>
+      <c r="C398" s="12"/>
+      <c r="D398" s="37"/>
+      <c r="E398" s="62"/>
+      <c r="F398" s="19"/>
+      <c r="G398" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H398" s="37"/>
+      <c r="I398" s="62"/>
+      <c r="J398" s="10"/>
+      <c r="K398" s="19"/>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A399" s="38"/>
+      <c r="B399" s="19"/>
+      <c r="C399" s="12"/>
+      <c r="D399" s="37"/>
+      <c r="E399" s="62"/>
+      <c r="F399" s="19"/>
+      <c r="G399" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H399" s="37"/>
+      <c r="I399" s="62"/>
+      <c r="J399" s="10"/>
+      <c r="K399" s="19"/>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A400" s="38"/>
+      <c r="B400" s="19"/>
+      <c r="C400" s="12"/>
+      <c r="D400" s="37"/>
+      <c r="E400" s="62"/>
+      <c r="F400" s="19"/>
+      <c r="G400" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H400" s="37"/>
+      <c r="I400" s="62"/>
+      <c r="J400" s="10"/>
+      <c r="K400" s="19"/>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A401" s="38"/>
+      <c r="B401" s="19"/>
+      <c r="C401" s="12"/>
+      <c r="D401" s="37"/>
+      <c r="E401" s="62"/>
+      <c r="F401" s="19"/>
+      <c r="G401" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H401" s="37"/>
+      <c r="I401" s="62"/>
+      <c r="J401" s="10"/>
+      <c r="K401" s="19"/>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A402" s="38"/>
+      <c r="B402" s="19"/>
+      <c r="C402" s="12"/>
+      <c r="D402" s="37"/>
+      <c r="E402" s="62"/>
+      <c r="F402" s="19"/>
+      <c r="G402" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H402" s="37"/>
+      <c r="I402" s="62"/>
+      <c r="J402" s="10"/>
+      <c r="K402" s="19"/>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A403" s="38"/>
+      <c r="B403" s="19"/>
+      <c r="C403" s="12"/>
+      <c r="D403" s="37"/>
+      <c r="E403" s="62"/>
+      <c r="F403" s="19"/>
+      <c r="G403" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H403" s="37"/>
+      <c r="I403" s="62"/>
+      <c r="J403" s="10"/>
+      <c r="K403" s="19"/>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A404" s="38"/>
+      <c r="B404" s="19"/>
+      <c r="C404" s="12"/>
+      <c r="D404" s="37"/>
+      <c r="E404" s="62"/>
+      <c r="F404" s="19"/>
+      <c r="G404" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H404" s="37"/>
+      <c r="I404" s="62"/>
+      <c r="J404" s="10"/>
+      <c r="K404" s="19"/>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A405" s="38"/>
+      <c r="B405" s="19"/>
+      <c r="C405" s="12"/>
+      <c r="D405" s="37"/>
+      <c r="E405" s="62"/>
+      <c r="F405" s="19"/>
+      <c r="G405" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H405" s="37"/>
+      <c r="I405" s="62"/>
+      <c r="J405" s="10"/>
+      <c r="K405" s="19"/>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A406" s="38"/>
+      <c r="B406" s="19"/>
+      <c r="C406" s="12"/>
+      <c r="D406" s="37"/>
+      <c r="E406" s="62"/>
+      <c r="F406" s="19"/>
+      <c r="G406" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H406" s="37"/>
+      <c r="I406" s="62"/>
+      <c r="J406" s="10"/>
+      <c r="K406" s="19"/>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A407" s="38"/>
+      <c r="B407" s="19"/>
+      <c r="C407" s="12"/>
+      <c r="D407" s="37"/>
+      <c r="E407" s="62"/>
+      <c r="F407" s="19"/>
+      <c r="G407" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H407" s="37"/>
+      <c r="I407" s="62"/>
+      <c r="J407" s="10"/>
+      <c r="K407" s="19"/>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A408" s="38"/>
+      <c r="B408" s="19"/>
+      <c r="C408" s="12"/>
+      <c r="D408" s="37"/>
+      <c r="E408" s="62"/>
+      <c r="F408" s="19"/>
+      <c r="G408" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H408" s="37"/>
+      <c r="I408" s="62"/>
+      <c r="J408" s="10"/>
+      <c r="K408" s="19"/>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A409" s="38"/>
+      <c r="B409" s="19"/>
+      <c r="C409" s="12"/>
+      <c r="D409" s="37"/>
+      <c r="E409" s="62"/>
+      <c r="F409" s="19"/>
+      <c r="G409" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H409" s="37"/>
+      <c r="I409" s="62"/>
+      <c r="J409" s="10"/>
+      <c r="K409" s="19"/>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A410" s="38"/>
+      <c r="B410" s="19"/>
+      <c r="C410" s="12"/>
+      <c r="D410" s="37"/>
+      <c r="E410" s="62"/>
+      <c r="F410" s="19"/>
+      <c r="G410" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H410" s="37"/>
+      <c r="I410" s="62"/>
+      <c r="J410" s="10"/>
+      <c r="K410" s="19"/>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A411" s="38"/>
+      <c r="B411" s="19"/>
+      <c r="C411" s="12"/>
+      <c r="D411" s="37"/>
+      <c r="E411" s="62"/>
+      <c r="F411" s="19"/>
+      <c r="G411" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H411" s="37"/>
+      <c r="I411" s="62"/>
+      <c r="J411" s="10"/>
+      <c r="K411" s="19"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A412" s="38"/>
+      <c r="B412" s="19"/>
+      <c r="C412" s="12"/>
+      <c r="D412" s="37"/>
+      <c r="E412" s="62"/>
+      <c r="F412" s="19"/>
+      <c r="G412" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H412" s="37"/>
+      <c r="I412" s="62"/>
+      <c r="J412" s="10"/>
+      <c r="K412" s="19"/>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A413" s="38"/>
+      <c r="B413" s="19"/>
+      <c r="C413" s="12"/>
+      <c r="D413" s="37"/>
+      <c r="E413" s="62"/>
+      <c r="F413" s="19"/>
+      <c r="G413" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H413" s="37"/>
+      <c r="I413" s="62"/>
+      <c r="J413" s="10"/>
+      <c r="K413" s="19"/>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A414" s="38"/>
+      <c r="B414" s="19"/>
+      <c r="C414" s="12"/>
+      <c r="D414" s="37"/>
+      <c r="E414" s="62"/>
+      <c r="F414" s="19"/>
+      <c r="G414" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H414" s="37"/>
+      <c r="I414" s="62"/>
+      <c r="J414" s="10"/>
+      <c r="K414" s="19"/>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A415" s="38"/>
+      <c r="B415" s="19"/>
+      <c r="C415" s="12"/>
+      <c r="D415" s="37"/>
+      <c r="E415" s="62"/>
+      <c r="F415" s="19"/>
+      <c r="G415" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H415" s="37"/>
+      <c r="I415" s="62"/>
+      <c r="J415" s="10"/>
+      <c r="K415" s="19"/>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A416" s="38"/>
+      <c r="B416" s="19"/>
+      <c r="C416" s="12"/>
+      <c r="D416" s="37"/>
+      <c r="E416" s="62"/>
+      <c r="F416" s="19"/>
+      <c r="G416" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H416" s="37"/>
+      <c r="I416" s="62"/>
+      <c r="J416" s="10"/>
+      <c r="K416" s="19"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A417" s="38"/>
+      <c r="B417" s="19"/>
+      <c r="C417" s="12"/>
+      <c r="D417" s="37"/>
+      <c r="E417" s="62"/>
+      <c r="F417" s="19"/>
+      <c r="G417" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H417" s="37"/>
+      <c r="I417" s="62"/>
+      <c r="J417" s="10"/>
+      <c r="K417" s="19"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A418" s="38"/>
+      <c r="B418" s="19"/>
+      <c r="C418" s="12"/>
+      <c r="D418" s="37"/>
+      <c r="E418" s="62"/>
+      <c r="F418" s="19"/>
+      <c r="G418" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H418" s="37"/>
+      <c r="I418" s="62"/>
+      <c r="J418" s="10"/>
+      <c r="K418" s="19"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A419" s="38"/>
+      <c r="B419" s="19"/>
+      <c r="C419" s="12"/>
+      <c r="D419" s="37"/>
+      <c r="E419" s="62"/>
+      <c r="F419" s="19"/>
+      <c r="G419" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H419" s="37"/>
+      <c r="I419" s="62"/>
+      <c r="J419" s="10"/>
+      <c r="K419" s="19"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A420" s="38"/>
+      <c r="B420" s="19"/>
+      <c r="C420" s="12"/>
+      <c r="D420" s="37"/>
+      <c r="E420" s="62"/>
+      <c r="F420" s="19"/>
+      <c r="G420" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H420" s="37"/>
+      <c r="I420" s="62"/>
+      <c r="J420" s="10"/>
+      <c r="K420" s="19"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A421" s="38"/>
+      <c r="B421" s="19"/>
+      <c r="C421" s="12"/>
+      <c r="D421" s="37"/>
+      <c r="E421" s="62"/>
+      <c r="F421" s="19"/>
+      <c r="G421" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H421" s="37"/>
+      <c r="I421" s="62"/>
+      <c r="J421" s="10"/>
+      <c r="K421" s="19"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A422" s="38"/>
+      <c r="B422" s="19"/>
+      <c r="C422" s="12"/>
+      <c r="D422" s="37"/>
+      <c r="E422" s="62"/>
+      <c r="F422" s="19"/>
+      <c r="G422" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H422" s="37"/>
+      <c r="I422" s="62"/>
+      <c r="J422" s="10"/>
+      <c r="K422" s="19"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A423" s="38"/>
+      <c r="B423" s="19"/>
+      <c r="C423" s="12"/>
+      <c r="D423" s="37"/>
+      <c r="E423" s="62"/>
+      <c r="F423" s="19"/>
+      <c r="G423" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H423" s="37"/>
+      <c r="I423" s="62"/>
+      <c r="J423" s="10"/>
+      <c r="K423" s="19"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A424" s="38"/>
+      <c r="B424" s="19"/>
+      <c r="C424" s="12"/>
+      <c r="D424" s="37"/>
+      <c r="E424" s="62"/>
+      <c r="F424" s="19"/>
+      <c r="G424" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H424" s="37"/>
+      <c r="I424" s="62"/>
+      <c r="J424" s="10"/>
+      <c r="K424" s="19"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A425" s="38"/>
+      <c r="B425" s="19"/>
+      <c r="C425" s="12"/>
+      <c r="D425" s="37"/>
+      <c r="E425" s="62"/>
+      <c r="F425" s="19"/>
+      <c r="G425" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H425" s="37"/>
+      <c r="I425" s="62"/>
+      <c r="J425" s="10"/>
+      <c r="K425" s="19"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A426" s="38"/>
+      <c r="B426" s="19"/>
+      <c r="C426" s="12"/>
+      <c r="D426" s="37"/>
+      <c r="E426" s="62"/>
+      <c r="F426" s="19"/>
+      <c r="G426" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H426" s="37"/>
+      <c r="I426" s="62"/>
+      <c r="J426" s="10"/>
+      <c r="K426" s="19"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A427" s="38"/>
+      <c r="B427" s="19"/>
+      <c r="C427" s="12"/>
+      <c r="D427" s="37"/>
+      <c r="E427" s="62"/>
+      <c r="F427" s="19"/>
+      <c r="G427" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H427" s="37"/>
+      <c r="I427" s="62"/>
+      <c r="J427" s="10"/>
+      <c r="K427" s="19"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A428" s="38"/>
+      <c r="B428" s="19"/>
+      <c r="C428" s="12"/>
+      <c r="D428" s="37"/>
+      <c r="E428" s="62"/>
+      <c r="F428" s="19"/>
+      <c r="G428" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H428" s="37"/>
+      <c r="I428" s="62"/>
+      <c r="J428" s="10"/>
+      <c r="K428" s="19"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A429" s="38"/>
+      <c r="B429" s="19"/>
+      <c r="C429" s="12"/>
+      <c r="D429" s="37"/>
+      <c r="E429" s="62"/>
+      <c r="F429" s="19"/>
+      <c r="G429" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H429" s="37"/>
+      <c r="I429" s="62"/>
+      <c r="J429" s="10"/>
+      <c r="K429" s="19"/>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A430" s="38"/>
+      <c r="B430" s="19"/>
+      <c r="C430" s="12"/>
+      <c r="D430" s="37"/>
+      <c r="E430" s="62"/>
+      <c r="F430" s="19"/>
+      <c r="G430" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H430" s="37"/>
+      <c r="I430" s="62"/>
+      <c r="J430" s="10"/>
+      <c r="K430" s="19"/>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A431" s="38"/>
+      <c r="B431" s="19"/>
+      <c r="C431" s="12"/>
+      <c r="D431" s="37"/>
+      <c r="E431" s="62"/>
+      <c r="F431" s="19"/>
+      <c r="G431" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H431" s="37"/>
+      <c r="I431" s="62"/>
+      <c r="J431" s="10"/>
+      <c r="K431" s="19"/>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A432" s="38"/>
+      <c r="B432" s="19"/>
+      <c r="C432" s="12"/>
+      <c r="D432" s="37"/>
+      <c r="E432" s="62"/>
+      <c r="F432" s="19"/>
+      <c r="G432" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H432" s="37"/>
+      <c r="I432" s="62"/>
+      <c r="J432" s="10"/>
+      <c r="K432" s="19"/>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A433" s="38"/>
+      <c r="B433" s="19"/>
+      <c r="C433" s="12"/>
+      <c r="D433" s="37"/>
+      <c r="E433" s="62"/>
+      <c r="F433" s="19"/>
+      <c r="G433" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H433" s="37"/>
+      <c r="I433" s="62"/>
+      <c r="J433" s="10"/>
+      <c r="K433" s="19"/>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A434" s="38"/>
+      <c r="B434" s="19"/>
+      <c r="C434" s="12"/>
+      <c r="D434" s="37"/>
+      <c r="E434" s="62"/>
+      <c r="F434" s="19"/>
+      <c r="G434" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H434" s="37"/>
+      <c r="I434" s="62"/>
+      <c r="J434" s="10"/>
+      <c r="K434" s="19"/>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A435" s="38"/>
+      <c r="B435" s="19"/>
+      <c r="C435" s="12"/>
+      <c r="D435" s="37"/>
+      <c r="E435" s="62"/>
+      <c r="F435" s="19"/>
+      <c r="G435" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H435" s="37"/>
+      <c r="I435" s="62"/>
+      <c r="J435" s="10"/>
+      <c r="K435" s="19"/>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A436" s="38"/>
+      <c r="B436" s="19"/>
+      <c r="C436" s="12"/>
+      <c r="D436" s="37"/>
+      <c r="E436" s="62"/>
+      <c r="F436" s="19"/>
+      <c r="G436" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H436" s="37"/>
+      <c r="I436" s="62"/>
+      <c r="J436" s="10"/>
+      <c r="K436" s="19"/>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A437" s="38"/>
+      <c r="B437" s="19"/>
+      <c r="C437" s="12"/>
+      <c r="D437" s="37"/>
+      <c r="E437" s="62"/>
+      <c r="F437" s="19"/>
+      <c r="G437" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H437" s="37"/>
+      <c r="I437" s="62"/>
+      <c r="J437" s="10"/>
+      <c r="K437" s="19"/>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A438" s="38"/>
+      <c r="B438" s="19"/>
+      <c r="C438" s="12"/>
+      <c r="D438" s="37"/>
+      <c r="E438" s="62"/>
+      <c r="F438" s="19"/>
+      <c r="G438" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H438" s="37"/>
+      <c r="I438" s="62"/>
+      <c r="J438" s="10"/>
+      <c r="K438" s="19"/>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A439" s="38"/>
+      <c r="B439" s="19"/>
+      <c r="C439" s="12"/>
+      <c r="D439" s="37"/>
+      <c r="E439" s="62"/>
+      <c r="F439" s="19"/>
+      <c r="G439" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H439" s="37"/>
+      <c r="I439" s="62"/>
+      <c r="J439" s="10"/>
+      <c r="K439" s="19"/>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A440" s="38"/>
+      <c r="B440" s="19"/>
+      <c r="C440" s="12"/>
+      <c r="D440" s="37"/>
+      <c r="E440" s="62"/>
+      <c r="F440" s="19"/>
+      <c r="G440" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H440" s="37"/>
+      <c r="I440" s="62"/>
+      <c r="J440" s="10"/>
+      <c r="K440" s="19"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A441" s="38"/>
+      <c r="B441" s="19"/>
+      <c r="C441" s="12"/>
+      <c r="D441" s="37"/>
+      <c r="E441" s="62"/>
+      <c r="F441" s="19"/>
+      <c r="G441" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H441" s="37"/>
+      <c r="I441" s="62"/>
+      <c r="J441" s="10"/>
+      <c r="K441" s="19"/>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A442" s="38"/>
+      <c r="B442" s="19"/>
+      <c r="C442" s="12"/>
+      <c r="D442" s="37"/>
+      <c r="E442" s="62"/>
+      <c r="F442" s="19"/>
+      <c r="G442" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H442" s="37"/>
+      <c r="I442" s="62"/>
+      <c r="J442" s="10"/>
+      <c r="K442" s="19"/>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A443" s="38"/>
+      <c r="B443" s="19"/>
+      <c r="C443" s="12"/>
+      <c r="D443" s="37"/>
+      <c r="E443" s="62"/>
+      <c r="F443" s="19"/>
+      <c r="G443" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H443" s="37"/>
+      <c r="I443" s="62"/>
+      <c r="J443" s="10"/>
+      <c r="K443" s="19"/>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A444" s="38"/>
+      <c r="B444" s="19"/>
+      <c r="C444" s="12"/>
+      <c r="D444" s="37"/>
+      <c r="E444" s="62"/>
+      <c r="F444" s="19"/>
+      <c r="G444" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H444" s="37"/>
+      <c r="I444" s="62"/>
+      <c r="J444" s="10"/>
+      <c r="K444" s="19"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A445" s="38"/>
+      <c r="B445" s="19"/>
+      <c r="C445" s="12"/>
+      <c r="D445" s="37"/>
+      <c r="E445" s="62"/>
+      <c r="F445" s="19"/>
+      <c r="G445" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H445" s="37"/>
+      <c r="I445" s="62"/>
+      <c r="J445" s="10"/>
+      <c r="K445" s="19"/>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A446" s="38"/>
+      <c r="B446" s="19"/>
+      <c r="C446" s="12"/>
+      <c r="D446" s="37"/>
+      <c r="E446" s="62"/>
+      <c r="F446" s="19"/>
+      <c r="G446" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H446" s="37"/>
+      <c r="I446" s="62"/>
+      <c r="J446" s="10"/>
+      <c r="K446" s="19"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A447" s="38"/>
+      <c r="B447" s="19"/>
+      <c r="C447" s="12"/>
+      <c r="D447" s="37"/>
+      <c r="E447" s="62"/>
+      <c r="F447" s="19"/>
+      <c r="G447" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H447" s="37"/>
+      <c r="I447" s="62"/>
+      <c r="J447" s="10"/>
+      <c r="K447" s="19"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A448" s="38"/>
+      <c r="B448" s="19"/>
+      <c r="C448" s="12"/>
+      <c r="D448" s="37"/>
+      <c r="E448" s="62"/>
+      <c r="F448" s="19"/>
+      <c r="G448" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H448" s="37"/>
+      <c r="I448" s="62"/>
+      <c r="J448" s="10"/>
+      <c r="K448" s="19"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A449" s="38"/>
+      <c r="B449" s="19"/>
+      <c r="C449" s="12"/>
+      <c r="D449" s="37"/>
+      <c r="E449" s="62"/>
+      <c r="F449" s="19"/>
+      <c r="G449" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H449" s="37"/>
+      <c r="I449" s="62"/>
+      <c r="J449" s="10"/>
+      <c r="K449" s="19"/>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A450" s="38"/>
+      <c r="B450" s="19"/>
+      <c r="C450" s="12"/>
+      <c r="D450" s="37"/>
+      <c r="E450" s="62"/>
+      <c r="F450" s="19"/>
+      <c r="G450" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H450" s="37"/>
+      <c r="I450" s="62"/>
+      <c r="J450" s="10"/>
+      <c r="K450" s="19"/>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A451" s="38"/>
+      <c r="B451" s="19"/>
+      <c r="C451" s="12"/>
+      <c r="D451" s="37"/>
+      <c r="E451" s="62"/>
+      <c r="F451" s="19"/>
+      <c r="G451" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H451" s="37"/>
+      <c r="I451" s="62"/>
+      <c r="J451" s="10"/>
+      <c r="K451" s="19"/>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A452" s="38"/>
+      <c r="B452" s="19"/>
+      <c r="C452" s="12"/>
+      <c r="D452" s="37"/>
+      <c r="E452" s="62"/>
+      <c r="F452" s="19"/>
+      <c r="G452" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H452" s="37"/>
+      <c r="I452" s="62"/>
+      <c r="J452" s="10"/>
+      <c r="K452" s="19"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A453" s="38"/>
+      <c r="B453" s="19"/>
+      <c r="C453" s="12"/>
+      <c r="D453" s="37"/>
+      <c r="E453" s="62"/>
+      <c r="F453" s="19"/>
+      <c r="G453" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H453" s="37"/>
+      <c r="I453" s="62"/>
+      <c r="J453" s="10"/>
+      <c r="K453" s="19"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A454" s="38"/>
+      <c r="B454" s="19"/>
+      <c r="C454" s="12"/>
+      <c r="D454" s="37"/>
+      <c r="E454" s="62"/>
+      <c r="F454" s="19"/>
+      <c r="G454" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H454" s="37"/>
+      <c r="I454" s="62"/>
+      <c r="J454" s="10"/>
+      <c r="K454" s="19"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A455" s="38"/>
+      <c r="B455" s="19"/>
+      <c r="C455" s="12"/>
+      <c r="D455" s="37"/>
+      <c r="E455" s="62"/>
+      <c r="F455" s="19"/>
+      <c r="G455" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H455" s="37"/>
+      <c r="I455" s="62"/>
+      <c r="J455" s="10"/>
+      <c r="K455" s="19"/>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A456" s="38"/>
+      <c r="B456" s="19"/>
+      <c r="C456" s="12"/>
+      <c r="D456" s="37"/>
+      <c r="E456" s="62"/>
+      <c r="F456" s="19"/>
+      <c r="G456" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H456" s="37"/>
+      <c r="I456" s="62"/>
+      <c r="J456" s="10"/>
+      <c r="K456" s="19"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A457" s="38"/>
+      <c r="B457" s="19"/>
+      <c r="C457" s="12"/>
+      <c r="D457" s="37"/>
+      <c r="E457" s="62"/>
+      <c r="F457" s="19"/>
+      <c r="G457" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H457" s="37"/>
+      <c r="I457" s="62"/>
+      <c r="J457" s="10"/>
+      <c r="K457" s="19"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A458" s="38"/>
+      <c r="B458" s="19"/>
+      <c r="C458" s="12"/>
+      <c r="D458" s="37"/>
+      <c r="E458" s="62"/>
+      <c r="F458" s="19"/>
+      <c r="G458" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H458" s="37"/>
+      <c r="I458" s="62"/>
+      <c r="J458" s="10"/>
+      <c r="K458" s="19"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A459" s="38"/>
+      <c r="B459" s="19"/>
+      <c r="C459" s="12"/>
+      <c r="D459" s="37"/>
+      <c r="E459" s="62"/>
+      <c r="F459" s="19"/>
+      <c r="G459" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H459" s="37"/>
+      <c r="I459" s="62"/>
+      <c r="J459" s="10"/>
+      <c r="K459" s="19"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A460" s="38"/>
+      <c r="B460" s="19"/>
+      <c r="C460" s="12"/>
+      <c r="D460" s="37"/>
+      <c r="E460" s="62"/>
+      <c r="F460" s="19"/>
+      <c r="G460" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H460" s="37"/>
+      <c r="I460" s="62"/>
+      <c r="J460" s="10"/>
+      <c r="K460" s="19"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A461" s="38"/>
+      <c r="B461" s="19"/>
+      <c r="C461" s="12"/>
+      <c r="D461" s="37"/>
+      <c r="E461" s="62"/>
+      <c r="F461" s="19"/>
+      <c r="G461" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H461" s="37"/>
+      <c r="I461" s="62"/>
+      <c r="J461" s="10"/>
+      <c r="K461" s="19"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A462" s="38"/>
+      <c r="B462" s="19"/>
+      <c r="C462" s="12"/>
+      <c r="D462" s="37"/>
+      <c r="E462" s="62"/>
+      <c r="F462" s="19"/>
+      <c r="G462" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H462" s="37"/>
+      <c r="I462" s="62"/>
+      <c r="J462" s="10"/>
+      <c r="K462" s="19"/>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A463" s="38"/>
+      <c r="B463" s="19"/>
+      <c r="C463" s="12"/>
+      <c r="D463" s="37"/>
+      <c r="E463" s="62"/>
+      <c r="F463" s="19"/>
+      <c r="G463" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H463" s="37"/>
+      <c r="I463" s="62"/>
+      <c r="J463" s="10"/>
+      <c r="K463" s="19"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A464" s="38"/>
+      <c r="B464" s="19"/>
+      <c r="C464" s="12"/>
+      <c r="D464" s="37"/>
+      <c r="E464" s="62"/>
+      <c r="F464" s="19"/>
+      <c r="G464" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H464" s="37"/>
+      <c r="I464" s="62"/>
+      <c r="J464" s="10"/>
+      <c r="K464" s="19"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A465" s="38"/>
+      <c r="B465" s="19"/>
+      <c r="C465" s="12"/>
+      <c r="D465" s="37"/>
+      <c r="E465" s="62"/>
+      <c r="F465" s="19"/>
+      <c r="G465" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H465" s="37"/>
+      <c r="I465" s="62"/>
+      <c r="J465" s="10"/>
+      <c r="K465" s="19"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A466" s="38"/>
+      <c r="B466" s="19"/>
+      <c r="C466" s="12"/>
+      <c r="D466" s="37"/>
+      <c r="E466" s="62"/>
+      <c r="F466" s="19"/>
+      <c r="G466" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H466" s="37"/>
+      <c r="I466" s="62"/>
+      <c r="J466" s="10"/>
+      <c r="K466" s="19"/>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A467" s="38"/>
+      <c r="B467" s="19"/>
+      <c r="C467" s="12"/>
+      <c r="D467" s="37"/>
+      <c r="E467" s="62"/>
+      <c r="F467" s="19"/>
+      <c r="G467" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H467" s="37"/>
+      <c r="I467" s="62"/>
+      <c r="J467" s="10"/>
+      <c r="K467" s="19"/>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A468" s="38"/>
+      <c r="B468" s="19"/>
+      <c r="C468" s="12"/>
+      <c r="D468" s="37"/>
+      <c r="E468" s="62"/>
+      <c r="F468" s="19"/>
+      <c r="G468" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H468" s="37"/>
+      <c r="I468" s="62"/>
+      <c r="J468" s="10"/>
+      <c r="K468" s="19"/>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A469" s="38"/>
+      <c r="B469" s="19"/>
+      <c r="C469" s="12"/>
+      <c r="D469" s="37"/>
+      <c r="E469" s="62"/>
+      <c r="F469" s="19"/>
+      <c r="G469" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H469" s="37"/>
+      <c r="I469" s="62"/>
+      <c r="J469" s="10"/>
+      <c r="K469" s="19"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A470" s="38"/>
+      <c r="B470" s="19"/>
+      <c r="C470" s="12"/>
+      <c r="D470" s="37"/>
+      <c r="E470" s="62"/>
+      <c r="F470" s="19"/>
+      <c r="G470" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H470" s="37"/>
+      <c r="I470" s="62"/>
+      <c r="J470" s="10"/>
+      <c r="K470" s="19"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A471" s="38"/>
+      <c r="B471" s="19"/>
+      <c r="C471" s="12"/>
+      <c r="D471" s="37"/>
+      <c r="E471" s="62"/>
+      <c r="F471" s="19"/>
+      <c r="G471" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H471" s="37"/>
+      <c r="I471" s="62"/>
+      <c r="J471" s="10"/>
+      <c r="K471" s="19"/>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A472" s="38"/>
+      <c r="B472" s="19"/>
+      <c r="C472" s="12"/>
+      <c r="D472" s="37"/>
+      <c r="E472" s="62"/>
+      <c r="F472" s="19"/>
+      <c r="G472" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H472" s="37"/>
+      <c r="I472" s="62"/>
+      <c r="J472" s="10"/>
+      <c r="K472" s="19"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A473" s="38"/>
+      <c r="B473" s="19"/>
+      <c r="C473" s="12"/>
+      <c r="D473" s="37"/>
+      <c r="E473" s="62"/>
+      <c r="F473" s="19"/>
+      <c r="G473" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H473" s="37"/>
+      <c r="I473" s="62"/>
+      <c r="J473" s="10"/>
+      <c r="K473" s="19"/>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A474" s="39"/>
+      <c r="B474" s="14"/>
+      <c r="C474" s="40"/>
+      <c r="D474" s="41"/>
+      <c r="E474" s="62"/>
+      <c r="F474" s="14"/>
+      <c r="G474" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H474" s="41"/>
+      <c r="I474" s="62"/>
+      <c r="J474" s="11"/>
+      <c r="K474" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11859,7 +13734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
@@ -11878,17 +13753,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -11969,12 +13844,12 @@
         <v>29</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="35">
